--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/plate_1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.619</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.336</v>
+        <v>16.91</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1274362288.142</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1064177.28</v>
+        <v>34.375</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.949</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.815</v>
+        <v>13.411</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-783259.1579077918</v>
+        <v>23.32415289696252</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-745872.9139474159</v>
+        <v>23.39490213414709</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>492818.0898881106</v>
+        <v>23.4155577878748</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1951075.301592352</v>
+        <v>23.32719819009498</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-511358.1201395381</v>
+        <v>23.37334105629764</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-117770.5218778837</v>
+        <v>23.39839304480313</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-2046429.741590614</v>
+        <v>23.36508948273834</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>548335.0774883076</v>
+        <v>23.403079168517</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>982418.6624446863</v>
+        <v>23.42184503643855</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-760961.7609852848</v>
+        <v>23.41362485552658</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-410810.5009890075</v>
+        <v>23.43297579790528</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-358985.0682510392</v>
+        <v>23.45216841165913</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-708834.9610519202</v>
+        <v>23.33286545346668</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-569573.6154453459</v>
+        <v>23.39781205345208</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>215792.7077681365</v>
+        <v>23.43266214449591</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-423670.5497810658</v>
+        <v>23.28641912140895</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1511.232774856075</v>
+        <v>23.39199439971439</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>582822.3831156114</v>
+        <v>23.42469197313858</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-907506.4809122403</v>
+        <v>23.27310839600737</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-701866.2950954989</v>
+        <v>23.34869274388575</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-312160.428409753</v>
+        <v>23.3877087156812</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1418012.950209596</v>
+        <v>23.32798054477327</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-336754.5943377151</v>
+        <v>23.38952607274181</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-592609.0138205385</v>
+        <v>23.34497576961772</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>153003.5016276455</v>
+        <v>23.43157970385547</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>686455.0934363673</v>
+        <v>23.45175693471534</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-1931393.810056305</v>
+        <v>23.36090147661073</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>543256.9531963783</v>
+        <v>23.42196837429494</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>622799.060303108</v>
+        <v>23.44636756189328</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-1610448.117469111</v>
+        <v>23.40345685009185</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1878022.051545736</v>
+        <v>23.45381159287435</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1952713.763141373</v>
+        <v>23.47191580430994</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1328657.32308645</v>
+        <v>23.48570458220434</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1773338.941838802</v>
+        <v>23.50895917531087</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1846512.133401005</v>
+        <v>23.5295480479123</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>98306.4187152598</v>
+        <v>23.38827673976105</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1504768.364510902</v>
+        <v>23.47377391793189</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1779845.796268832</v>
+        <v>23.50765440567884</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-286097.0340604785</v>
+        <v>23.32312902805952</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>499040.8778785987</v>
+        <v>23.45137860622702</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>859208.1056040919</v>
+        <v>23.4843856515332</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-807006.8027796082</v>
+        <v>23.32852954879576</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>277560.4772443761</v>
+        <v>23.42586057678387</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>669658.982253595</v>
+        <v>23.46506264341641</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-891571.8645944996</v>
+        <v>23.38934576603958</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1047106.189157022</v>
+        <v>23.46883537414769</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-1076749.509967106</v>
+        <v>23.34131760436748</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-32681.45558250005</v>
+        <v>23.42791824213579</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>581794.432875586</v>
+        <v>23.44815101148505</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-2148146.905700217</v>
+        <v>23.36006298779112</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>588587.7171046562</v>
+        <v>23.42224178450871</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>919889.3235895319</v>
+        <v>23.44661881342813</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-1527325.78063301</v>
+        <v>23.40177271454073</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2281840.697353754</v>
+        <v>23.45305335637601</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2592370.008955179</v>
+        <v>23.47121041445824</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1653682.934462725</v>
+        <v>23.48515931464045</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2040508.570555593</v>
+        <v>23.5083818949932</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2360724.8261114</v>
+        <v>23.52943901916481</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-452410.4728866005</v>
+        <v>23.38740632408644</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1239265.813981855</v>
+        <v>23.47438127414346</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1715323.131145978</v>
+        <v>23.50819983218462</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-520460.8455417452</v>
+        <v>23.32006220217776</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>355557.2292802754</v>
+        <v>23.44807055244727</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>860881.5542034651</v>
+        <v>23.48115987437719</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-973690.3524308716</v>
+        <v>23.33011083563364</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>200906.5592842035</v>
+        <v>23.4286188934928</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>871669.2207143633</v>
+        <v>23.46780903568103</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>-868620.8332711554</v>
+        <v>23.38958979442536</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1207433.239537102</v>
+        <v>23.47008214945798</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-2649505.118777975</v>
+        <v>23.34352103747632</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-1025646.650948124</v>
+        <v>23.41213862384468</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>395493.26813544</v>
+        <v>23.43228578625786</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-2864963.694394785</v>
+        <v>23.35612284177763</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>487493.934375922</v>
+        <v>23.4035817168227</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1571268.973122547</v>
+        <v>23.42781422556997</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-2936161.3541029</v>
+        <v>23.3890065845807</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2105052.897926193</v>
+        <v>23.42810319745283</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>3113368.795259048</v>
+        <v>23.44642314166938</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1173218.839787501</v>
+        <v>23.4449685265166</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1650373.971780683</v>
+        <v>23.46376570700801</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>2009648.338122541</v>
+        <v>23.48327425803926</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-1266402.102400991</v>
+        <v>23.3668508801237</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>546471.5339943403</v>
+        <v>23.43339588226153</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2015766.48085487</v>
+        <v>23.46704184867044</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-1065495.554497842</v>
+        <v>23.31986983851424</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>343530.2644731855</v>
+        <v>23.42175372210307</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1242489.119188002</v>
+        <v>23.45354006482798</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-1125896.902942911</v>
+        <v>23.32227114046185</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>182530.351549878</v>
+        <v>23.39852065371894</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1255817.021397085</v>
+        <v>23.43620981152066</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-1333637.450245137</v>
+        <v>23.36970087856216</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1221730.637606579</v>
+        <v>23.43189508442358</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>233137.4095632341</v>
+        <v>23.41904340052364</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-205452.3613802997</v>
+        <v>23.39964236069222</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>346489.0201098031</v>
+        <v>23.43618377094421</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>473906.7495292308</v>
+        <v>23.46693158049026</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-738513.2357232037</v>
+        <v>23.28688835869275</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>-243759.5780283319</v>
+        <v>23.39704502889559</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>-28989.11327370974</v>
+        <v>23.44613231533044</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-506004.2574442539</v>
+        <v>23.28422854813215</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>-161856.9234663956</v>
+        <v>23.40906675625525</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>364383.0199941344</v>
+        <v>23.44927061264563</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-944708.4546321626</v>
+        <v>23.26766121165594</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>-738256.3833757184</v>
+        <v>23.36300595277818</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-432879.8947285985</v>
+        <v>23.41098967452581</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-1315202.798481796</v>
+        <v>23.34008242822685</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>-188157.426336114</v>
+        <v>23.41805176245995</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>526716.9061987889</v>
+        <v>23.45463558130798</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-6567.725544330857</v>
+        <v>23.4554146402911</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>599641.5031960325</v>
+        <v>23.5040806426517</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>875465.4516394439</v>
+        <v>23.54314406823588</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-714548.923836389</v>
+        <v>23.31468560326005</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-232070.2549733356</v>
+        <v>23.45226833309475</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>129092.5958503695</v>
+        <v>23.51381409345554</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1605480.327320986</v>
+        <v>23.49833984056551</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>912725.2027236326</v>
+        <v>23.51025587325868</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1219745.236829424</v>
+        <v>23.5529303478192</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1379461.714424787</v>
+        <v>23.58624124573161</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-86722.449926766</v>
+        <v>23.37498654674008</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1145085.123922587</v>
+        <v>23.51548167851828</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1249609.139574903</v>
+        <v>23.56416243055001</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>-93057.4990130638</v>
+        <v>23.34295406040582</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>752407.7460907586</v>
+        <v>23.49329530499195</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1062156.741277462</v>
+        <v>23.53371835941329</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>-628543.5080759374</v>
+        <v>23.34899870990736</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>650194.909480446</v>
+        <v>23.46907684649715</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>845160.4083120708</v>
+        <v>23.51716148174401</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>-575421.9668714103</v>
+        <v>23.4279976905117</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1618336.143527802</v>
+        <v>23.52640392182788</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>2085692.210785862</v>
+        <v>23.56288244230839</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1698041.418169721</v>
+        <v>23.60473795300878</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1888183.083506222</v>
+        <v>23.6605633173003</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>2019758.972879012</v>
+        <v>23.7024422170007</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>214844.6179654748</v>
+        <v>23.43815929884761</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1520004.762760712</v>
+        <v>23.61016610207325</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1744850.81876702</v>
+        <v>23.6712318856279</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>2055385.028441581</v>
+        <v>23.49967665599346</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>770454.5732533096</v>
+        <v>23.51208330204494</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1001858.02371934</v>
+        <v>23.55437015561028</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1408002.928538018</v>
+        <v>23.58827604891691</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-352310.6126667256</v>
+        <v>23.37678406169295</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1069145.464064605</v>
+        <v>23.51869839668432</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1348927.768479243</v>
+        <v>23.56745251177782</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>-329196.205145643</v>
+        <v>23.34578704960929</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>697984.6378154035</v>
+        <v>23.49557414538148</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1140502.168217709</v>
+        <v>23.53584212952762</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>-805769.8109612376</v>
+        <v>23.35765432261416</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>685839.9809942888</v>
+        <v>23.47861765915552</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1105622.705186507</v>
+        <v>23.52640614051812</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>-637149.8478915961</v>
+        <v>23.43449317080281</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1831332.858185952</v>
+        <v>23.53366065481258</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>2514331.745781649</v>
+        <v>23.57000674721563</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1778284.197830936</v>
+        <v>23.61356609948642</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1900506.80736061</v>
+        <v>23.6686443821505</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>2239639.456771179</v>
+        <v>23.71094009398705</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>-92305.91841091572</v>
+        <v>23.44748402999513</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1484087.840710892</v>
+        <v>23.62049217634312</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1923059.761042913</v>
+        <v>23.68124221096286</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>2519826.660122395</v>
+        <v>23.4606379476282</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>272443.6630026453</v>
+        <v>23.45188530617672</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>752677.4731441592</v>
+        <v>23.48659172422414</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1321341.300619941</v>
+        <v>23.51743344101877</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-676918.4096682944</v>
+        <v>23.34373849299769</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1141767.546005038</v>
+        <v>23.45406191398676</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1669943.929376066</v>
+        <v>23.50170389918677</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-858112.6646121879</v>
+        <v>23.33499276802334</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>785854.1905030017</v>
+        <v>23.4547986866747</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1728041.545389716</v>
+        <v>23.49331060697896</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-993318.9258351065</v>
+        <v>23.33729327918489</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>708094.7245915579</v>
+        <v>23.43200472204462</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1687836.971735161</v>
+        <v>23.47772288929375</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-1185940.634084012</v>
+        <v>23.39959810224583</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1871625.78097171</v>
+        <v>23.47713699949568</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>3293939.520841186</v>
+        <v>23.51221265655186</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1564820.842345421</v>
+        <v>23.52650378425067</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2079718.426887736</v>
+        <v>23.57216544356391</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2960474.741390718</v>
+        <v>23.61066406200062</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-596414.8436258556</v>
+        <v>23.39252486657124</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1414767.530525118</v>
+        <v>23.52843951816873</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>2404782.854358463</v>
+        <v>23.58725770556234</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-1087653.362154325</v>
+        <v>23.31847197816381</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-569408.6277687119</v>
+        <v>23.39731704844877</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>495833.1304808156</v>
+        <v>23.41910751993044</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-1546561.146921767</v>
+        <v>23.31758902008709</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-123784.7610717376</v>
+        <v>23.36824429801063</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>260574.8270295154</v>
+        <v>23.39502929644456</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-1116916.827558065</v>
+        <v>23.36335508467477</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1317707.519354616</v>
+        <v>23.40508961375356</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1748732.319597465</v>
+        <v>23.42487430984699</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>68986.82279783119</v>
+        <v>23.41670102424269</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>385933.7406701896</v>
+        <v>23.43948560996313</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>535584.1814359318</v>
+        <v>23.45825327638641</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-548539.5337077014</v>
+        <v>23.32672800373661</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-59070.26715911816</v>
+        <v>23.39915755495365</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>892503.9182685089</v>
+        <v>23.43549254484129</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-591706.5097484407</v>
+        <v>23.28755435382662</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25921.08195439299</v>
+        <v>23.40666025741691</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>320788.8397171738</v>
+        <v>23.44137573871071</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1169664.758677128</v>
+        <v>23.26763761554639</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-552818.8700275577</v>
+        <v>23.35240974908456</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-373569.571726882</v>
+        <v>23.39428247898417</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-1132782.201878789</v>
+        <v>23.33421518249782</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>164427.7131103208</v>
+        <v>23.40331506149869</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-823368.1841846814</v>
+        <v>23.33450418623597</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>76463.51655612902</v>
+        <v>23.43118554288579</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>609128.2286141261</v>
+        <v>23.45231597941804</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-1300467.871837511</v>
+        <v>23.34706590630273</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>733537.1920055781</v>
+        <v>23.41445900143253</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>825755.854989236</v>
+        <v>23.44039681118364</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>-927332.2679460382</v>
+        <v>23.39862983104599</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>1988663.311329063</v>
+        <v>23.45424311487337</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>2097102.215629969</v>
+        <v>23.47317352165655</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1220211.527841296</v>
+        <v>23.48790588462429</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1415764.92046337</v>
+        <v>23.51520196073894</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1626067.998859948</v>
+        <v>23.53543296513196</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-198113.2211856342</v>
+        <v>23.37918235787629</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>1088954.474941682</v>
+        <v>23.47478204937106</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1457204.129782466</v>
+        <v>23.50979096556721</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-280800.0407743686</v>
+        <v>23.32087900757586</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>526798.9355521596</v>
+        <v>23.46562438297219</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>702380.0084568019</v>
+        <v>23.50051852003465</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-849535.1726279374</v>
+        <v>23.32081566450562</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>315958.8414455802</v>
+        <v>23.4301247557125</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>447251.0290419526</v>
+        <v>23.47205011227082</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-672289.6038984169</v>
+        <v>23.39483679315867</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1137804.784681048</v>
+        <v>23.48420116525095</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-1339434.056648049</v>
+        <v>23.32711986552969</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-329752.5745436568</v>
+        <v>23.42379097958884</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>338247.9142487372</v>
+        <v>23.44502609942891</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-1535707.920102342</v>
+        <v>23.34272313181468</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>576479.1865274621</v>
+        <v>23.41137131777186</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>893344.295718645</v>
+        <v>23.43732555551082</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-1064804.068060026</v>
+        <v>23.39334055206014</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1962609.420255427</v>
+        <v>23.44999926845538</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>2299696.871146503</v>
+        <v>23.46902829179929</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1393720.329783599</v>
+        <v>23.48328390999099</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1474074.895262047</v>
+        <v>23.51047556532023</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>1954691.372614387</v>
+        <v>23.5313557426023</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-670929.6417196284</v>
+        <v>23.3741670320683</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>745408.9916163402</v>
+        <v>23.47140773432881</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>1235702.895002464</v>
+        <v>23.50642817208764</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-548879.9326479873</v>
+        <v>23.31270081168755</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>285521.7133955707</v>
+        <v>23.45712559458945</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>613156.1388596401</v>
+        <v>23.49217301076482</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-1020991.200947979</v>
+        <v>23.31766945790698</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>172139.3177539564</v>
+        <v>23.42826539102378</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>511689.3035454391</v>
+        <v>23.4702384775021</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-757695.9691123536</v>
+        <v>23.3901707118772</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1105427.12037908</v>
+        <v>23.4806320057672</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-2594806.765557738</v>
+        <v>23.33401750681071</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-1072618.729650394</v>
+        <v>23.41051665403917</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>382276.3973043166</v>
+        <v>23.43184831017836</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-2220465.034824574</v>
+        <v>23.34388676395562</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>442336.192146912</v>
+        <v>23.39612000943126</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>1418722.385456672</v>
+        <v>23.42208758718777</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-1883821.096658748</v>
+        <v>23.38386312415282</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>2155152.297754938</v>
+        <v>23.42692366577739</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>3161245.29353241</v>
+        <v>23.44631063785032</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1518365.298983154</v>
+        <v>23.4444832803365</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1761701.75819043</v>
+        <v>23.46647723733066</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>2410697.403230503</v>
+        <v>23.48592739700016</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-1192610.533082147</v>
+        <v>23.35737806134515</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>479833.5000495371</v>
+        <v>23.43163651935037</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>1880217.825162678</v>
+        <v>23.46684634810945</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-1173463.956502022</v>
+        <v>23.31549693469382</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>48326.63420592625</v>
+        <v>23.43038458029535</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>601353.3472537247</v>
+        <v>23.46423316406407</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-1488622.919777143</v>
+        <v>23.31316527659394</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-130997.6377231621</v>
+        <v>23.39867273130094</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>432151.2244711064</v>
+        <v>23.43920191636201</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-1330122.766306224</v>
+        <v>23.37109367971503</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>937061.8864627129</v>
+        <v>23.44091016675983</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>466721.9023621831</v>
+        <v>23.43461578597629</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>11275.3340238183</v>
+        <v>23.41685420161372</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>400083.2840960967</v>
+        <v>23.46010952656089</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>442287.6619653935</v>
+        <v>23.49028560138091</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-477326.4136924511</v>
+        <v>23.29108043577476</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24903.06894261045</v>
+        <v>23.41589910971893</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>269308.4262165045</v>
+        <v>23.46709465525432</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-373890.8844871868</v>
+        <v>23.29155441895839</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>123245.4447104864</v>
+        <v>23.43353918279263</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>675593.8883080173</v>
+        <v>23.47642587529567</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-1105911.999666858</v>
+        <v>23.26752025868389</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-473829.4600755851</v>
+        <v>23.37591882002227</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-82276.21179237818</v>
+        <v>23.42752833053765</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-876047.9064127274</v>
+        <v>23.35455980476931</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>489521.8977761905</v>
+        <v>23.44331600064362</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>1093006.029565901</v>
+        <v>23.48227945732951</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>204491.8665026723</v>
+        <v>23.48875147712909</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>640145.1193160356</v>
+        <v>23.54623301765892</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>846833.1579300124</v>
+        <v>23.58582951094874</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-442035.093067818</v>
+        <v>23.33149661940417</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>172138.3081886517</v>
+        <v>23.48905927833065</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>536999.5734469048</v>
+        <v>23.55360837677468</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>1400183.344879616</v>
+        <v>23.51533422610576</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>807765.0909495851</v>
+        <v>23.53087183227977</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>996364.6485357091</v>
+        <v>23.58127004675644</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>1059376.349119079</v>
+        <v>23.61415273922441</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-78535.19607887942</v>
+        <v>23.3797833848516</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>952951.7014897771</v>
+        <v>23.53897712977709</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>1047653.648123777</v>
+        <v>23.58938676098766</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-95868.27914860491</v>
+        <v>23.34997806526596</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>695542.2081975592</v>
+        <v>23.52089584983534</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>981907.1629061541</v>
+        <v>23.56381059187149</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-709699.3622008662</v>
+        <v>23.3501409652766</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>615938.7309148042</v>
+        <v>23.48656311129946</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>755670.2363562185</v>
+        <v>23.53806807699126</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>-447786.9093107582</v>
+        <v>23.44540617550397</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>1588258.687414787</v>
+        <v>23.55733959646959</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>1841009.559449194</v>
+        <v>23.59598144869384</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>1263988.144424951</v>
+        <v>23.64682214606836</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>1392618.109298134</v>
+        <v>23.712659541612</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>1544338.735572082</v>
+        <v>23.75525833063633</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>122945.1782225034</v>
+        <v>23.46050630100854</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>1290403.777265196</v>
+        <v>23.6572115951468</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>1387773.924792496</v>
+        <v>23.72079071872025</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>1597033.253931606</v>
+        <v>23.51192326598987</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>693578.6984758833</v>
+        <v>23.52705953525845</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>803619.5905487787</v>
+        <v>23.57690850160386</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>1049941.6434819</v>
+        <v>23.6106473564301</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-324483.1838110797</v>
+        <v>23.37590633199915</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>835585.7836768639</v>
+        <v>23.53661728211356</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>1047959.914808462</v>
+        <v>23.58722342163507</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-366898.6072768034</v>
+        <v>23.34821183415593</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>550778.7363512863</v>
+        <v>23.51842849434329</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>930426.4257726293</v>
+        <v>23.56122813153166</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-920113.7576087288</v>
+        <v>23.35475268378813</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>562894.6818365438</v>
+        <v>23.49210000590869</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>826800.6871740797</v>
+        <v>23.54333280283232</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-608171.9222365108</v>
+        <v>23.44754684310734</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>1623755.900214893</v>
+        <v>23.56027742372632</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>1998002.341485296</v>
+        <v>23.59882685845373</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>1288747.064080526</v>
+        <v>23.65060237950867</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>1371429.729472731</v>
+        <v>23.71547985349814</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>1678961.532742991</v>
+        <v>23.75872802755236</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-129556.5623018007</v>
+        <v>23.46481829695599</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>1264308.621954619</v>
+        <v>23.66252729761844</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>1447487.58948527</v>
+        <v>23.72586958266075</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>1699934.618378507</v>
+        <v>23.47148592077653</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>249435.1434483911</v>
+        <v>23.46371037265212</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>526472.2883664906</v>
+        <v>23.50460040298288</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>832196.9918066255</v>
+        <v>23.53538904293825</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-655374.3028908919</v>
+        <v>23.34299080827007</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>775540.3269593637</v>
+        <v>23.46786607533217</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>1155084.826204598</v>
+        <v>23.51775193267591</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-764134.1666464081</v>
+        <v>23.33853657222833</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>735761.582178053</v>
+        <v>23.47468790564878</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>1458200.700798806</v>
+        <v>23.51583934500291</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1239236.405202534</v>
+        <v>23.33574928373127</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>639111.4001391074</v>
+        <v>23.44329761686287</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>1244848.867097401</v>
+        <v>23.49252387825004</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-934690.2636526243</v>
+        <v>23.41103209747451</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>1973278.900509031</v>
+        <v>23.49918588107186</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>2812072.013074395</v>
+        <v>23.53661184028781</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>1343473.070197383</v>
+        <v>23.55624862886157</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>1752891.929847408</v>
+        <v>23.61001350854685</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>2251317.516747919</v>
+        <v>23.64946045503588</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-385002.1877319449</v>
+        <v>23.40646916773874</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>1546278.530390347</v>
+        <v>23.56185819876354</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>2021863.009371663</v>
+        <v>23.62369517212217</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-1186461.795288483</v>
+        <v>23.3170574582657</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-922065.2611144811</v>
+        <v>23.3964744794646</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29188.93294478293</v>
+        <v>23.41802537957868</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-1826011.929385547</v>
+        <v>23.31616834620152</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-739427.1946336179</v>
+        <v>23.36738112951294</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-451748.7240161613</v>
+        <v>23.39391131391217</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-1479441.730107862</v>
+        <v>23.36222601978627</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>625735.791476756</v>
+        <v>23.40442452630958</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>968833.8429223413</v>
+        <v>23.42398448555087</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>-188113.171023534</v>
+        <v>23.41744952469988</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>98352.03656242164</v>
+        <v>23.44026293584625</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>229999.6851856911</v>
+        <v>23.45875601057478</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-806449.8855226467</v>
+        <v>23.32632008218102</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-390647.4878385413</v>
+        <v>23.39950204872003</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>311441.529691241</v>
+        <v>23.43546073949604</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-536926.1023128586</v>
+        <v>23.29751547154624</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>174656.7810456498</v>
+        <v>23.41764456729165</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>468581.6162407552</v>
+        <v>23.45198279034081</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1167031.533012592</v>
+        <v>23.27864474005429</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-456220.6453942375</v>
+        <v>23.36445254534702</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-267795.2525646599</v>
+        <v>23.40591717131924</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-1068233.982056862</v>
+        <v>23.34519797036609</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>354928.7785357781</v>
+        <v>23.41515741966563</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-918833.317391327</v>
+        <v>23.33339714021582</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>-179150.9047660257</v>
+        <v>23.43074806017581</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>258441.9767994202</v>
+        <v>23.45161249383342</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-1471482.748942836</v>
+        <v>23.34603725670321</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>343052.4183803313</v>
+        <v>23.41408995930214</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>363500.2545942227</v>
+        <v>23.43974491040747</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-1210450.381370564</v>
+        <v>23.39789202652198</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>1494539.80779314</v>
+        <v>23.45405378760271</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>1532677.546137534</v>
+        <v>23.47273499607304</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>998570.5707232131</v>
+        <v>23.48939152377867</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>1160790.850575669</v>
+        <v>23.51673918335355</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>1367916.193521847</v>
+        <v>23.53665862732919</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>-492673.410716329</v>
+        <v>23.37936067760025</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>766657.2088949464</v>
+        <v>23.47585294876349</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>950303.4519802817</v>
+        <v>23.51044458732998</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-264014.951792389</v>
+        <v>23.33235791027017</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>680030.9205612683</v>
+        <v>23.47828452712943</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>835345.9918352833</v>
+        <v>23.51276030790653</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-844160.5215797385</v>
+        <v>23.33355563934412</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>471552.1766231754</v>
+        <v>23.44406806594452</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>589795.0064462083</v>
+        <v>23.48554088184611</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-649744.1958469929</v>
+        <v>23.40751152408988</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>1340183.611727934</v>
+        <v>23.49787408555037</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-1386195.947873102</v>
+        <v>23.32613109494565</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-538643.5539720822</v>
+        <v>23.42346244180199</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>34934.42102892562</v>
+        <v>23.44443935595665</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-1648341.120575251</v>
+        <v>23.34183638559351</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>242877.5391528616</v>
+        <v>23.41113663226959</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>490533.6323588777</v>
+        <v>23.43681635852681</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-1286367.664789204</v>
+        <v>23.39272838787671</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>1528135.118604488</v>
+        <v>23.44992910869628</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>1796819.076825824</v>
+        <v>23.46871633835231</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>1205598.21468642</v>
+        <v>23.48487191447743</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>1252080.537391509</v>
+        <v>23.5121174017411</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>1734367.584903453</v>
+        <v>23.53269208841997</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-942552.6456097132</v>
+        <v>23.37447159799823</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>437908.1671752842</v>
+        <v>23.47259516942848</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>749516.5817340658</v>
+        <v>23.5072103292897</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-483518.3463577218</v>
+        <v>23.3239975702751</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>507246.9402895751</v>
+        <v>23.46958531954889</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>800423.0168269018</v>
+        <v>23.50422571308399</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-955484.5759151464</v>
+        <v>23.33022913430305</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>411719.5853205216</v>
+        <v>23.4420118921374</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>722166.5909927743</v>
+        <v>23.48354461316786</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-668563.5715717459</v>
+        <v>23.40265500693232</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>1399256.449929594</v>
+        <v>23.49410054030028</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-2572458.888535647</v>
+        <v>23.33289877799611</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-1358253.337362038</v>
+        <v>23.40992595171759</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-11323.96688312102</v>
+        <v>23.43104745921212</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-2420241.53784012</v>
+        <v>23.34281954086654</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-165691.8805900864</v>
+        <v>23.39557071974407</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>734631.0011598851</v>
+        <v>23.42131498015104</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-2168674.104687145</v>
+        <v>23.38303610588114</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>1469259.87070992</v>
+        <v>23.42652721109338</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>2407834.138546311</v>
+        <v>23.44571728469181</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>1257530.953791356</v>
+        <v>23.44540550533389</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>1469978.872439285</v>
+        <v>23.46743076246019</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>2123840.580038365</v>
+        <v>23.48663208201391</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-1485097.006250838</v>
+        <v>23.35724067539446</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>78062.38419037363</v>
+        <v>23.43219894656865</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>1210184.192306689</v>
+        <v>23.46707779602763</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-1007226.604557813</v>
+        <v>23.32466109422381</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>388808.4817002908</v>
+        <v>23.44049062566313</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>908676.725115044</v>
+        <v>23.47400519907236</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-1361926.789599099</v>
+        <v>23.32335057658705</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>180295.5961238989</v>
+        <v>23.40981567067771</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>718530.7206883006</v>
+        <v>23.4499833726981</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-1124264.740250438</v>
+        <v>23.38122548518314</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>1370136.536845617</v>
+        <v>23.45183615233959</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>668786.0811408152</v>
+        <v>23.44610297273042</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>213195.9811421963</v>
+        <v>23.43305458453504</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>629641.6337568478</v>
+        <v>23.4764651240907</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>613707.9578944702</v>
+        <v>23.5061824118452</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-461382.7523253503</v>
+        <v>23.30556530960131</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>175385.2731461412</v>
+        <v>23.43178915464014</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>396107.326094951</v>
+        <v>23.48237820624025</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-399928.9518398119</v>
+        <v>23.30297038247302</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>181456.3260870287</v>
+        <v>23.44609645126983</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>716567.7033531615</v>
+        <v>23.48857028252586</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-1189670.131219208</v>
+        <v>23.28001697315798</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-465449.0312320149</v>
+        <v>23.38956979132214</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-107063.6813362129</v>
+        <v>23.44073801800593</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-988772.9577995969</v>
+        <v>23.36707780282031</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>503698.1528533921</v>
+        <v>23.45679500746604</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>1071519.215183615</v>
+        <v>23.49537271963979</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>342782.7094169231</v>
+        <v>23.50700158163774</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>841573.3786259152</v>
+        <v>23.5647062768434</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>932595.1485133349</v>
+        <v>23.6037109197155</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-483758.6587862307</v>
+        <v>23.34781012508178</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>260106.0019903716</v>
+        <v>23.5069489877693</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>587559.9637027881</v>
+        <v>23.57083637811371</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>1587670.253658144</v>
+        <v>23.52861369160518</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>980256.461434638</v>
+        <v>23.54948251394806</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>1196479.187507281</v>
+        <v>23.60007669116396</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>1193885.283244003</v>
+        <v>23.63244331356246</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-107823.9951319998</v>
+        <v>23.39645734769291</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>1086853.121389769</v>
+        <v>23.55728657021748</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>1156335.898346823</v>
+        <v>23.60702435474873</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-136144.3364090533</v>
+        <v>23.36314155624312</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>793565.9563776638</v>
+        <v>23.53537616956719</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>1040893.913875126</v>
+        <v>23.57783222097407</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-737146.6758177246</v>
+        <v>23.36461635689619</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>750926.2539715436</v>
+        <v>23.50237857375245</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>836553.2902237086</v>
+        <v>23.5533930548987</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>-528973.4462042251</v>
+        <v>23.45986229864524</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>1701664.237638742</v>
+        <v>23.57291074012922</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>1892807.631718903</v>
+        <v>23.61112440224902</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1408185.584076351</v>
+        <v>23.6678052092286</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>1598150.317342766</v>
+        <v>23.73391470176528</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>1630691.418585876</v>
+        <v>23.77584872767278</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>76024.12775348876</v>
+        <v>23.47931033128784</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1417378.633043474</v>
+        <v>23.67784757415026</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>1467653.63060078</v>
+        <v>23.74069254931684</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>1859033.438546549</v>
+        <v>23.52500907007154</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>922133.9731676822</v>
+        <v>23.54537173198662</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>1067384.641664815</v>
+        <v>23.59541690620891</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>1236784.914130242</v>
+        <v>23.62865045458106</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-313561.6980884867</v>
+        <v>23.39231813127042</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>1024268.44013897</v>
+        <v>23.55464264793583</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>1202530.782352645</v>
+        <v>23.60459469140817</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-381576.0295911175</v>
+        <v>23.36117323954863</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>702448.1082651</v>
+        <v>23.53268636415434</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>1024817.639492034</v>
+        <v>23.57503953007916</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-899252.0235857784</v>
+        <v>23.36903241991073</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>779557.6852646028</v>
+        <v>23.50770142705492</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>968787.3201980552</v>
+        <v>23.55845665449355</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-640192.1604023083</v>
+        <v>23.4617938012012</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1821067.767273601</v>
+        <v>23.57562379361125</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>2111740.346887838</v>
+        <v>23.61375650720318</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>1479751.676832011</v>
+        <v>23.67126067121932</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>1635026.518256824</v>
+        <v>23.73640882142367</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>1807142.30774521</v>
+        <v>23.77900634970976</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-147220.263069381</v>
+        <v>23.48333956748765</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>1448265.14940834</v>
+        <v>23.68285568727223</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>1569651.783142537</v>
+        <v>23.74548297176925</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>2107365.873630891</v>
+        <v>23.48209759364972</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>608541.0768013011</v>
+        <v>23.4786182682592</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>938030.0887039783</v>
+        <v>23.51965643981149</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>1154198.274881427</v>
+        <v>23.55002996370539</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-577625.6988466498</v>
+        <v>23.35632924167436</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>1057912.069792032</v>
+        <v>23.4825044795457</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>1387094.908983373</v>
+        <v>23.53185166079489</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-768089.3772572899</v>
+        <v>23.34906472549191</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>916971.2679467213</v>
+        <v>23.48626646651064</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>1574404.256797046</v>
+        <v>23.52705199045504</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1247480.195572259</v>
+        <v>23.34734488330275</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>841062.7694291405</v>
+        <v>23.45596024460331</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>1357180.516284417</v>
+        <v>23.50479517596388</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-996562.8759323065</v>
+        <v>23.42260923981059</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>2168310.266449388</v>
+        <v>23.51165066153068</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>2909439.175516536</v>
+        <v>23.54873490006291</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>1603672.885552815</v>
+        <v>23.5730815214186</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>2120260.367326026</v>
+        <v>23.62705633688229</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>2438798.55991613</v>
+        <v>23.6659681646785</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-393539.788084618</v>
+        <v>23.42153309252628</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>1775550.913662815</v>
+        <v>23.57837939553391</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>2167375.970804289</v>
+        <v>23.6396282727915</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-943871.0725615032</v>
+        <v>23.30453183382905</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-1209365.596899636</v>
+        <v>23.37195773042245</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-344187.6672458554</v>
+        <v>23.39255278524936</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-1558206.105114858</v>
+        <v>23.30521731467848</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-739952.8418538211</v>
+        <v>23.34711887699817</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-582039.0753716092</v>
+        <v>23.37210595726718</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-2100403.070623232</v>
+        <v>23.34226747362812</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-281236.5842621326</v>
+        <v>23.37674234125375</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-160028.3175202008</v>
+        <v>23.3954345843503</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-1212775.346120231</v>
+        <v>23.38063925636845</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-991318.6416167619</v>
+        <v>23.39832996942436</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-925647.6933838655</v>
+        <v>23.41782838362531</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-633753.6622783877</v>
+        <v>23.30282691778294</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-902783.1187281333</v>
+        <v>23.36235885484173</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-384195.0230353682</v>
+        <v>23.39699415368889</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-634044.959276555</v>
+        <v>23.25715066671076</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-631812.8612091586</v>
+        <v>23.35824158085983</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-157514.9155533933</v>
+        <v>23.39079384808179</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-567992.9658116712</v>
+        <v>23.24067430881402</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-897559.8659107329</v>
+        <v>23.31051422828261</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-586427.1681960556</v>
+        <v>23.34937221751374</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-1454965.560152267</v>
+        <v>23.29435643036806</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-1005679.199526643</v>
+        <v>23.35114405633639</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-597973.2603277887</v>
+        <v>23.3220588829345</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-321062.0217052044</v>
+        <v>23.40509517645071</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-8807.315285351669</v>
+        <v>23.42519401632144</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-1537348.838981963</v>
+        <v>23.33532373549813</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>160319.1828227387</v>
+        <v>23.39182822704199</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>129295.5310502592</v>
+        <v>23.41614000400085</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-1606634.68768709</v>
+        <v>23.37703586857381</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>954756.3922729671</v>
+        <v>23.42361060478597</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>864504.2380244604</v>
+        <v>23.44162116439717</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>604352.3101206662</v>
+        <v>23.44798410093216</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>897296.1019268037</v>
+        <v>23.46942641269179</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>1056226.791759842</v>
+        <v>23.4903733195221</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>84411.71109140808</v>
+        <v>23.35369326556691</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>900104.1274360748</v>
+        <v>23.43337262319516</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>1031972.846525273</v>
+        <v>23.4669937148601</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-570915.6847497601</v>
+        <v>23.28894897033657</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-323125.14987588</v>
+        <v>23.41237942943516</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-24017.79324602972</v>
+        <v>23.44521715919877</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-657886.819003165</v>
+        <v>23.29078660404848</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-240199.8874268873</v>
+        <v>23.38193153983408</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>107091.8899165362</v>
+        <v>23.42094574808038</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>58935.02616719056</v>
+        <v>23.42476950960372</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-845080.492255517</v>
+        <v>23.31878469345846</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-339209.2679905837</v>
+        <v>23.40193591856995</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>39543.7721260946</v>
+        <v>23.42209294518181</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-1636842.314364022</v>
+        <v>23.33493358853004</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>249933.9041352088</v>
+        <v>23.39269916008746</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>448296.2846298302</v>
+        <v>23.41699068296385</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-1382373.616459953</v>
+        <v>23.37583860685962</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>1417709.232544917</v>
+        <v>23.42346285821564</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>1541903.107782836</v>
+        <v>23.44152874732372</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>906439.594889343</v>
+        <v>23.44821779402342</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>1115615.273957817</v>
+        <v>23.46967774577189</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>1531954.56550528</v>
+        <v>23.49109465161774</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-345766.1115765181</v>
+        <v>23.35348856155737</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>674633.3235306276</v>
+        <v>23.43483713299344</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>996502.4141772285</v>
+        <v>23.46840366357639</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-735640.2679102282</v>
+        <v>23.28640785664484</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-447086.6796917828</v>
+        <v>23.40975653641051</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-37120.21355350794</v>
+        <v>23.44268143561842</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-788715.5778253881</v>
+        <v>23.29297628846638</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-333755.983493486</v>
+        <v>23.38550004886562</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>247959.4243261743</v>
+        <v>23.42450639334321</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-1057068.437739497</v>
+        <v>23.35130975790842</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>191147.5569267058</v>
+        <v>23.42684690520843</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>-2463985.292841177</v>
+        <v>23.32555794413379</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-1494932.402435048</v>
+        <v>23.39124147492773</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-533604.0668787702</v>
+        <v>23.41133756109543</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-2423794.266412245</v>
+        <v>23.33604479865454</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-138624.679391203</v>
+        <v>23.37975450779803</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>621531.7665704526</v>
+        <v>23.40393072146135</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-3041218.779196125</v>
+        <v>23.36819126466112</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>713091.5054519314</v>
+        <v>23.40418089720449</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>1311252.650091051</v>
+        <v>23.4224370012299</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>156015.1608029011</v>
+        <v>23.4150420142955</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>367483.9680688761</v>
+        <v>23.43235301472</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>791081.6743080337</v>
+        <v>23.45215869003313</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>-1204417.086369637</v>
+        <v>23.33952025049529</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-215310.0326246898</v>
+        <v>23.4012811504266</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>923006.2564646532</v>
+        <v>23.43473900899317</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>-1372429.979796819</v>
+        <v>23.29298008292879</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-676147.4550422613</v>
+        <v>23.39090587928201</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-12591.58056095122</v>
+        <v>23.42256337604551</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-930999.0855217766</v>
+        <v>23.29253848216502</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-491993.5969395092</v>
+        <v>23.36371082170184</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>348286.9629470779</v>
+        <v>23.40125760134111</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>-1675812.229587285</v>
+        <v>23.33892698994716</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-129062.5191243516</v>
+        <v>23.39691602566615</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>-549182.9129132328</v>
+        <v>23.38049842229816</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-651612.1791743195</v>
+        <v>23.351845999464</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-122042.058236551</v>
+        <v>23.38630567651852</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>14220.0028944882</v>
+        <v>23.4173231620116</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>-724600.6884164902</v>
+        <v>23.24307400052671</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-706434.2928651979</v>
+        <v>23.34592029068344</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>-596533.669161904</v>
+        <v>23.39458944846712</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-474844.0801773101</v>
+        <v>23.2584035526207</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-465524.5251283979</v>
+        <v>23.37891265400434</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>63628.97784158801</v>
+        <v>23.41903459510991</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>-567318.1861977606</v>
+        <v>23.23873754824022</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-782732.1510428439</v>
+        <v>23.32849457221908</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>-439787.7333137269</v>
+        <v>23.37639225784581</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-1163039.385349262</v>
+        <v>23.31003129622342</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-545204.1673999524</v>
+        <v>23.38337325696225</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>177272.2955714015</v>
+        <v>23.41985031396894</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>-357050.0909421939</v>
+        <v>23.41223791329704</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>238887.638416668</v>
+        <v>23.45896250839599</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>573558.3568726117</v>
+        <v>23.49839544429449</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>-635813.8707339639</v>
+        <v>23.27529588469613</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-540491.3305385022</v>
+        <v>23.40577644552526</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>-219864.2917849773</v>
+        <v>23.46696494443462</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>550537.173252819</v>
+        <v>23.45408380017271</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>214009.1979892191</v>
+        <v>23.45554089653142</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>474376.4126508645</v>
+        <v>23.49593958771474</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>694878.5593361652</v>
+        <v>23.52958613626398</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>-258418.7677840836</v>
+        <v>23.32451807023714</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>379682.4083094324</v>
+        <v>23.45714906180315</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>424824.8810119917</v>
+        <v>23.50534915833883</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-154718.6758489595</v>
+        <v>23.31273217728427</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>216375.0506532847</v>
+        <v>23.45843405986553</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>579280.5836253857</v>
+        <v>23.49874289652076</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-416333.735293071</v>
+        <v>23.31531973276193</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>276931.9201742188</v>
+        <v>23.42939446426255</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>551082.1378809777</v>
+        <v>23.47735293571474</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-603100.9075564042</v>
+        <v>23.39318193253863</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>911977.2864956555</v>
+        <v>23.48661807062546</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1444016.897083946</v>
+        <v>23.52295393537565</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>1121562.728060149</v>
+        <v>23.55536893739466</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1297382.67666997</v>
+        <v>23.6090721687933</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>1554978.333629036</v>
+        <v>23.65138980105812</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>130285.4840132196</v>
+        <v>23.39281603479227</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>913648.8938011578</v>
+        <v>23.55719998549863</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1142330.233996926</v>
+        <v>23.61782856876238</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>927389.423641052</v>
+        <v>23.45625594756653</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>55200.70565742573</v>
+        <v>23.45842451881595</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>217246.0280122136</v>
+        <v>23.49849692140622</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>671698.5505468773</v>
+        <v>23.53274573965615</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>-496216.6593102271</v>
+        <v>23.32722125183843</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>269635.9211549258</v>
+        <v>23.46152950003341</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>460708.6798270959</v>
+        <v>23.50981585325212</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>-312497.8412981254</v>
+        <v>23.31604118931748</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>181207.2138496745</v>
+        <v>23.4613459819981</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>654792.4558678567</v>
+        <v>23.50150151082666</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>-547598.2781780997</v>
+        <v>23.32454032481519</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>294892.8415731544</v>
+        <v>23.43970000612863</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>764794.7127717952</v>
+        <v>23.48736277303418</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>-616271.3493131219</v>
+        <v>23.40029401863726</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>1103178.796180726</v>
+        <v>23.49465682242944</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>1822053.25807162</v>
+        <v>23.53086209223331</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>1186777.633280305</v>
+        <v>23.56519559092174</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>1279774.225399234</v>
+        <v>23.6182093187643</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>1736825.219321236</v>
+        <v>23.66094795230893</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>-138971.4634857308</v>
+        <v>23.40299178450589</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>848346.0417783342</v>
+        <v>23.56863217453473</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>1263703.846270288</v>
+        <v>23.62895417637008</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>890698.6213855857</v>
+        <v>23.42551287231477</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>-609098.4584291202</v>
+        <v>23.40837649657703</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>-227203.61869142</v>
+        <v>23.44121799439178</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>317618.1771423997</v>
+        <v>23.47233295956151</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>-853681.7149835702</v>
+        <v>23.30374219468217</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>145566.4465093606</v>
+        <v>23.40760752806751</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>461343.7541989053</v>
+        <v>23.45487619558104</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>-797159.7924943572</v>
+        <v>23.31135132061105</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>213907.1656552351</v>
+        <v>23.42734289751607</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>1108020.322117783</v>
+        <v>23.46578228236582</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>-657849.2131947785</v>
+        <v>23.31089296275447</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>279936.0702985072</v>
+        <v>23.40067308247183</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>1230813.545914824</v>
+        <v>23.44631268042305</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>-1177068.534932105</v>
+        <v>23.37220644204675</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>988391.9836070556</v>
+        <v>23.44566162597814</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>2347041.743020774</v>
+        <v>23.48064115148865</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>847091.673421019</v>
+        <v>23.48737196558955</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>1307043.66411403</v>
+        <v>23.53129602213797</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>2222595.901784704</v>
+        <v>23.57015770381829</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>-619045.4630592962</v>
+        <v>23.35672459533408</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>670041.7132060565</v>
+        <v>23.48637442400391</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>1540878.500212223</v>
+        <v>23.54487292231839</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>-1117154.774345249</v>
+        <v>23.31971860376354</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-1146458.997536285</v>
+        <v>23.38979397100744</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>25936.6160328427</v>
+        <v>23.4105348555534</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-1415757.880873484</v>
+        <v>23.32389063126828</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-105403.8723125972</v>
+        <v>23.36952728282899</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>200113.7283147957</v>
+        <v>23.39470487748786</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>-2073510.607156898</v>
+        <v>23.36092591847945</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>313128.7174996518</v>
+        <v>23.39850757902309</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>626396.9856326978</v>
+        <v>23.41738376764348</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>-920475.9030560848</v>
+        <v>23.40779803813859</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>-696179.9164412012</v>
+        <v>23.42729169933198</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>-523032.5587083428</v>
+        <v>23.44647110323268</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>-749212.0033962314</v>
+        <v>23.32743423709544</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-788103.3905283754</v>
+        <v>23.39173935540457</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>-98337.45945397306</v>
+        <v>23.42670580090657</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>-371621.9489204459</v>
+        <v>23.28972761402907</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-1342.293607755058</v>
+        <v>23.39431600262451</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>490904.0723950522</v>
+        <v>23.4267245262125</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>-338239.8846065521</v>
+        <v>23.2790823900553</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-185721.5226451095</v>
+        <v>23.35384821585053</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>81243.31404836282</v>
+        <v>23.39256229849156</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-1084969.089277201</v>
+        <v>23.33232996308607</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-71016.94676425513</v>
+        <v>23.39322672167337</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>-804743.7400778946</v>
+        <v>23.33910986665408</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>-241271.8924471768</v>
+        <v>23.4248881293363</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>190536.2667975778</v>
+        <v>23.44515884447158</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>-1545212.819650183</v>
+        <v>23.3560401179455</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>690120.2162898312</v>
+        <v>23.4164514852914</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>648590.5609995321</v>
+        <v>23.44098785873168</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>-1739922.779447173</v>
+        <v>23.39767077972035</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>1421403.218183805</v>
+        <v>23.4474952159538</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>1349181.1659518</v>
+        <v>23.46572009438716</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>807169.5153172321</v>
+        <v>23.47760240170744</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>1051032.266874367</v>
+        <v>23.5009667674715</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>1258037.477722329</v>
+        <v>23.52153482456877</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>-189424.9799634192</v>
+        <v>23.38068264011122</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>930630.3607496253</v>
+        <v>23.46533843241427</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>1076978.388604686</v>
+        <v>23.4993511841247</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>-232188.0187331702</v>
+        <v>23.32482731240607</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>387841.17189504</v>
+        <v>23.45186972640655</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>606181.6026879603</v>
+        <v>23.48455378249445</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>-401367.2780221627</v>
+        <v>23.33277240112504</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>516029.5504897945</v>
+        <v>23.42906130881158</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>730061.2596828796</v>
+        <v>23.46792436617852</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>1001510.602116643</v>
+        <v>23.47049954390235</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-1190499.190970633</v>
+        <v>23.33579806716434</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-340476.4181440214</v>
+        <v>23.42157357641965</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>139456.4899723886</v>
+        <v>23.44188269957472</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>-1734779.372632795</v>
+        <v>23.35548003671247</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>753999.7984581045</v>
+        <v>23.41699575513446</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>925419.1434443614</v>
+        <v>23.44148907910397</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>-1628515.73731637</v>
+        <v>23.39628491687178</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>1839649.217634847</v>
+        <v>23.44702850053526</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>1963184.536415074</v>
+        <v>23.46528904153431</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>1087918.185922255</v>
+        <v>23.47740958288513</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>1248309.764011495</v>
+        <v>23.50072808682186</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>1726008.008232662</v>
+        <v>23.5217469060564</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>-737408.1656926246</v>
+        <v>23.38017241476616</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>636974.6533711458</v>
+        <v>23.46629302187536</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>964421.5319849309</v>
+        <v>23.50021877140998</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>-396826.6716267691</v>
+        <v>23.32181539455052</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>310671.0283438108</v>
+        <v>23.44861870697688</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>617817.0217147858</v>
+        <v>23.48136965084563</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-515817.5285695778</v>
+        <v>23.33427097369734</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>492639.4893514109</v>
+        <v>23.4317296350921</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>919255.9401858309</v>
+        <v>23.47056171027747</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>-670203.2853178328</v>
+        <v>23.39204647099963</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>1208085.886330603</v>
+        <v>23.4717010950488</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-2863246.108538125</v>
+        <v>23.33969072064603</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>-1452925.562827824</v>
+        <v>23.40764975833622</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-193417.5429210729</v>
+        <v>23.42784480496363</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-2298721.275250659</v>
+        <v>23.35317807175316</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>754952.2422150949</v>
+        <v>23.40011964224346</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>1635764.514620843</v>
+        <v>23.42443193849272</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>-3085471.157177357</v>
+        <v>23.38530034587153</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>1539699.712502748</v>
+        <v>23.42397838836371</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>2299544.857288363</v>
+        <v>23.44237050709726</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>649304.4909652452</v>
+        <v>23.43969693267983</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>890534.2503728427</v>
+        <v>23.45859537112239</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>1465489.673902605</v>
+        <v>23.47805742424351</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>-1475833.927126474</v>
+        <v>23.36198066482812</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>-60738.52865780606</v>
+        <v>23.42786288694269</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>1254822.072686581</v>
+        <v>23.46157162447655</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>-1045129.434583118</v>
+        <v>23.32267896693883</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>224797.9500639288</v>
+        <v>23.42360186716304</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>819008.5929154555</v>
+        <v>23.45507973255179</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>-610121.6094839635</v>
+        <v>23.32726846574238</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>559540.0990176306</v>
+        <v>23.40269493327125</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>1256554.153289673</v>
+        <v>23.44005682599029</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-1207153.298113488</v>
+        <v>23.373261228204</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>1182058.898344775</v>
+        <v>23.4347997332553</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>375238.8294415707</v>
+        <v>23.42250052233243</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-75520.82822636953</v>
+        <v>23.40376977148585</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>578966.2377404262</v>
+        <v>23.44046392741972</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>750279.7371891787</v>
+        <v>23.47087077323063</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-464701.0323100525</v>
+        <v>23.29156247113916</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>-129740.9181632385</v>
+        <v>23.4006115346438</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-14676.51951051662</v>
+        <v>23.44928931891865</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>-514647.8008460103</v>
+        <v>23.28557737170127</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-254794.2543033817</v>
+        <v>23.40928351507246</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>437356.3313294391</v>
+        <v>23.44934358254558</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-466002.4638957208</v>
+        <v>23.27169458397185</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-328975.3512429296</v>
+        <v>23.36608003878251</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>111038.5225063132</v>
+        <v>23.41392478885678</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-1035623.484627223</v>
+        <v>23.34230974104918</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-2769.401602678659</v>
+        <v>23.41951426519627</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>866014.3122982371</v>
+        <v>23.45599389581292</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>5759.590315022313</v>
+        <v>23.45664896386542</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>836973.4886355563</v>
+        <v>23.50552465655315</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>1229185.170727558</v>
+        <v>23.54428077403487</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>-613659.9629026451</v>
+        <v>23.31660632776319</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>-140257.6224644915</v>
+        <v>23.45290229780208</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>221699.1239089384</v>
+        <v>23.51420148852969</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>1381749.007777206</v>
+        <v>23.49973057645879</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>822615.3682839554</v>
+        <v>23.51170076095823</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>1112309.004706028</v>
+        <v>23.55447602171054</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>1335615.03055178</v>
+        <v>23.58740754226453</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-20368.15609702639</v>
+        <v>23.3771272595058</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>961223.3151239364</v>
+        <v>23.51620828883338</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>923496.6731986665</v>
+        <v>23.56443946690933</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>-189705.0717163894</v>
+        <v>23.34211826811478</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>490370.0862589479</v>
+        <v>23.49109069163309</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>920592.3090222703</v>
+        <v>23.5313483186924</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>-358306.4044806872</v>
+        <v>23.3506662353015</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>757374.4382277336</v>
+        <v>23.46954546792768</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>1042182.864449897</v>
+        <v>23.51746734346673</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>-577260.3734730497</v>
+        <v>23.42773638813182</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>1419384.516644272</v>
+        <v>23.52518265411353</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>1996986.466603459</v>
+        <v>23.5615385331634</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>1434110.666392503</v>
+        <v>23.60246342287824</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>1763438.937411823</v>
+        <v>23.65845471329622</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>2036019.908561251</v>
+        <v>23.69999163469765</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>51976.78832149976</v>
+        <v>23.43673532044287</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>1274578.93789849</v>
+        <v>23.6071281764971</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>1474181.118338781</v>
+        <v>23.6679193929258</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1809450.285827535</v>
+        <v>23.50100656254662</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>704928.6900471218</v>
+        <v>23.51347475414508</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>887251.9207577384</v>
+        <v>23.55584356890844</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>1348675.377931044</v>
+        <v>23.58935428983271</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-269616.483333589</v>
+        <v>23.37887864575925</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>883001.5834088018</v>
+        <v>23.51936685104865</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-369462.4683814374</v>
+        <v>23.34499136790163</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>472931.7274854908</v>
+        <v>23.49341370298219</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>1002705.098425223</v>
+        <v>23.53349512030165</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-492688.3688504672</v>
+        <v>23.35921129981652</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>817290.780199497</v>
+        <v>23.47896999286989</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>1288015.329421157</v>
+        <v>23.52657013274633</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-609473.2833263725</v>
+        <v>23.43417549037235</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>1640028.999674759</v>
+        <v>23.53237712993465</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>2393205.497674848</v>
+        <v>23.56857942767117</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>1511795.740572507</v>
+        <v>23.61122013899507</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>1758569.429347843</v>
+        <v>23.66644376475487</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>2229834.676902077</v>
+        <v>23.70837828650028</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-244060.9025140785</v>
+        <v>23.44599499787071</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>1226198.793156642</v>
+        <v>23.6173790232845</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>1606283.509299424</v>
+        <v>23.67782396560621</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>2091134.269206336</v>
+        <v>23.46327786213432</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>193093.7594239839</v>
+        <v>23.45506921527296</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>711548.7015785337</v>
+        <v>23.48987247395781</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>1288123.43934102</v>
+        <v>23.52035854545241</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>-546101.4771474636</v>
+        <v>23.34747009036559</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>960963.9314505437</v>
+        <v>23.4566775453241</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>1211831.565135527</v>
+        <v>23.50388050457146</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-829422.1555886854</v>
+        <v>23.33583750846006</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>594502.8653530139</v>
+        <v>23.4545451740319</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>1640214.60907105</v>
+        <v>23.49287686984802</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-477653.3700899705</v>
+        <v>23.34031340191354</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>1009428.049776019</v>
+        <v>23.43406748556673</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>2038110.715934923</v>
+        <v>23.47960219463468</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-1018079.563123458</v>
+        <v>23.40102872934305</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>1782117.98897443</v>
+        <v>23.4778011611981</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>3270929.144720477</v>
+        <v>23.51273511547181</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>1371899.972183085</v>
+        <v>23.52680662492168</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>2126950.427350993</v>
+        <v>23.5726152877596</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>3104371.752584169</v>
+        <v>23.61078310285169</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>-588945.2627895782</v>
+        <v>23.39350986429439</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>1281745.440399412</v>
+        <v>23.52813727811482</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>2168539.410079396</v>
+        <v>23.58665843298845</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-799761.170404433</v>
+        <v>23.26947195634939</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>-1018608.64517657</v>
+        <v>23.36841445687763</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>-430458.2429796844</v>
+        <v>23.39600486789031</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-774380.3881445969</v>
+        <v>23.27236654857552</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>-392761.459365039</v>
+        <v>23.33589660739808</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>-229662.2104398357</v>
+        <v>23.36978117115815</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>-944064.8715852879</v>
+        <v>23.32836369941253</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>-114710.9374726623</v>
+        <v>23.38076584371962</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>62536.8798073721</v>
+        <v>23.40586839009805</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>-586461.4718140877</v>
+        <v>23.39194207245678</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>-548962.791475386</v>
+        <v>23.4199104567541</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>-375985.8427427067</v>
+        <v>23.44433206881732</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>-343101.5173828884</v>
+        <v>23.28001217294208</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>-532358.2495214598</v>
+        <v>23.37009232914189</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>-53863.42523526629</v>
+        <v>23.41670781113032</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>-166485.7881008868</v>
+        <v>23.25355863712253</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>129190.6004899015</v>
+        <v>23.40314632099702</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>251235.2641149539</v>
+        <v>23.44630845732127</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-405928.0848756623</v>
+        <v>23.23695097187179</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>-66494.36556783669</v>
+        <v>23.34344516613391</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>-47649.37013850651</v>
+        <v>23.39547781044561</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>-403111.9430648</v>
+        <v>23.31716318405982</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>305457.4849831395</v>
+        <v>23.4040384368639</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>-626932.8543322245</v>
+        <v>23.28790843474379</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>-679447.2390921742</v>
+        <v>23.40914046002909</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>-414257.9335239743</v>
+        <v>23.43590064684573</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>-767501.7804456871</v>
+        <v>23.30797262987164</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>-112303.7752819217</v>
+        <v>23.39240194447646</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>-129166.5880682156</v>
+        <v>23.42521632138716</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>-877487.1949870827</v>
+        <v>23.3710965578324</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>157229.4746231569</v>
+        <v>23.44083006119277</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>134785.8760318756</v>
+        <v>23.46486111808269</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>-50915.2511162492</v>
+        <v>23.47958505196893</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>-63350.78090077535</v>
+        <v>23.51311758192922</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>108322.5025725526</v>
+        <v>23.5393679962641</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-260083.5284626073</v>
+        <v>23.34428544235754</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>-60736.12999749075</v>
+        <v>23.46322605483221</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>87908.79373682365</v>
+        <v>23.50822851937554</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>3125.004418397973</v>
+        <v>23.29523410767371</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>349274.6007540842</v>
+        <v>23.47687963590384</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>352263.846275464</v>
+        <v>23.5201850759007</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>-294030.7820356531</v>
+        <v>23.30413187560156</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>291595.234690858</v>
+        <v>23.44128607511476</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>241567.491543991</v>
+        <v>23.49328026324293</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>-222417.3909052332</v>
+        <v>23.39337019580023</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>706336.7249341153</v>
+        <v>23.50556839983165</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>-850106.2320435999</v>
+        <v>23.28066095398157</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>-839224.0727524359</v>
+        <v>23.40188846960983</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-529631.7539982962</v>
+        <v>23.42875643356793</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>-886661.5200143678</v>
+        <v>23.30449130018854</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>-184365.2021265088</v>
+        <v>23.39050676822654</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-105953.8292449086</v>
+        <v>23.42331444580589</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>-932500.1560545933</v>
+        <v>23.3664394031712</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>166568.8475096936</v>
+        <v>23.43749142787758</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>237981.6170231743</v>
+        <v>23.46162249033219</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>28186.77564258779</v>
+        <v>23.47612391375251</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>-37221.57639860919</v>
+        <v>23.50955722333035</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>268779.9233461332</v>
+        <v>23.53655720679007</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>-526701.890276405</v>
+        <v>23.34028919223467</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>-262811.9064685274</v>
+        <v>23.4613250774952</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>-48702.86382363744</v>
+        <v>23.50629063396779</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>-81165.2633010345</v>
+        <v>23.28669038273268</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>294808.3977314487</v>
+        <v>23.46794338925451</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>336971.9208248191</v>
+        <v>23.51142609465966</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>-344092.1016706449</v>
+        <v>23.30174201379587</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>276353.3693052517</v>
+        <v>23.44052344995085</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>296199.1295117853</v>
+        <v>23.49256037687326</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>-216128.1303414882</v>
+        <v>23.38913163617713</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>762422.6492022332</v>
+        <v>23.5027134353585</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-1674731.71551434</v>
+        <v>23.29375934582623</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>-1486136.139214149</v>
+        <v>23.3897436016596</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>-779264.1001749125</v>
+        <v>23.41671474149194</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>-1263699.608464685</v>
+        <v>23.30979025564972</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>-338574.2049383418</v>
+        <v>23.37528939682127</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>56216.11703300026</v>
+        <v>23.4080988867313</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-1587448.118209912</v>
+        <v>23.35863085401753</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>-36091.99845498272</v>
+        <v>23.41267981871657</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>346960.4739085453</v>
+        <v>23.43723784594886</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>-105143.6344559285</v>
+        <v>23.43208940967925</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>-139424.4480840858</v>
+        <v>23.45913632073144</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>287012.6496819496</v>
+        <v>23.48426320774355</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-868304.4948805175</v>
+        <v>23.3236403012989</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>-591895.615215966</v>
+        <v>23.41607429070416</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>123198.3914602264</v>
+        <v>23.46115602769789</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-416205.1586164665</v>
+        <v>23.29171530201511</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>237752.218444236</v>
+        <v>23.43598009919241</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>356650.4834600579</v>
+        <v>23.47806121329353</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>-544297.3916861268</v>
+        <v>23.29638802904252</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>241508.5277123253</v>
+        <v>23.40377520572525</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>319587.9674161152</v>
+        <v>23.45413336488606</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-496336.5558896772</v>
+        <v>23.36603415719751</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>791665.318664888</v>
+        <v>23.45377452123679</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>382472.9985179437</v>
+        <v>23.44296785191322</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>126666.3820651021</v>
+        <v>23.42337052988919</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>355884.2367141508</v>
+        <v>23.47690149090014</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>366683.6228185401</v>
+        <v>23.51566165783132</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>-44601.18353497282</v>
+        <v>23.2664514534938</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>161318.6097179031</v>
+        <v>23.42221460935792</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>204212.5263140205</v>
+        <v>23.48666370302257</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>-134645.2544241494</v>
+        <v>23.25992528121314</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>76480.38697353906</v>
+        <v>23.43789817637186</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>443670.1363366762</v>
+        <v>23.49165566416858</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>-437172.2849896873</v>
+        <v>23.23901084873505</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>-107973.8636297651</v>
+        <v>23.3747503420481</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>112887.1850227773</v>
+        <v>23.43943686642616</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>-359946.5614101347</v>
+        <v>23.34432037009353</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>362348.4528952242</v>
+        <v>23.45552396661479</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>709420.7028319783</v>
+        <v>23.50442659601376</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>173785.9657190838</v>
+        <v>23.5151906741822</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>484862.2782690366</v>
+        <v>23.58660812203536</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>575062.2981538932</v>
+        <v>23.63707364568458</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>-132419.3717255714</v>
+        <v>23.31838674798825</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>189907.0981713952</v>
+        <v>23.51474082250318</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>342419.5870501847</v>
+        <v>23.59654559576438</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>712177.7468756307</v>
+        <v>23.54421079243362</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>489744.1363921118</v>
+        <v>23.56673696900693</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>565272.2900321484</v>
+        <v>23.62910117895439</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>582025.6112102696</v>
+        <v>23.6712193790973</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>120188.0516537352</v>
+        <v>23.37821532411512</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>560719.6904874729</v>
+        <v>23.57683675024069</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>488978.0723339752</v>
+        <v>23.64024992221301</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>12914.98738263394</v>
+        <v>23.33293167535883</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>-249303.052311616</v>
+        <v>23.34299320269859</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>435043.2028455969</v>
+        <v>23.51373405566552</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>511401.140702638</v>
+        <v>23.57823748823208</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>-167437.8510659488</v>
+        <v>23.45827566423092</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>891844.5771171501</v>
+        <v>23.59842820187075</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>1039467.71415466</v>
+        <v>23.64689376968665</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>701154.4569177103</v>
+        <v>23.71356717108294</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>818999.9387972953</v>
+        <v>23.79534509777445</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>875183.0530238586</v>
+        <v>23.8495268439712</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>145797.3373944184</v>
+        <v>23.48043125270751</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>748221.3185133089</v>
+        <v>23.72558721271703</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>754677.0385613129</v>
+        <v>23.80619568431977</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>844951.6617698248</v>
+        <v>23.5415387077584</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>465646.1557217012</v>
+        <v>23.56382551088931</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>495489.8233245024</v>
+        <v>23.62553915921285</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>593749.8150519076</v>
+        <v>23.66864821027819</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>17352.72689029139</v>
+        <v>23.3751773770161</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>531154.9575734776</v>
+        <v>23.57574655590845</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>497855.5766100319</v>
+        <v>23.63936401878052</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>-75270.35162111041</v>
+        <v>23.33238611435603</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>363284.0986734814</v>
+        <v>23.54565956367257</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>587492.6744374991</v>
+        <v>23.59924512137239</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>-300294.7467439086</v>
+        <v>23.35026113990119</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>489789.9397840252</v>
+        <v>23.52218524093951</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>605848.1327125176</v>
+        <v>23.58631872227894</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>-187463.4189535238</v>
+        <v>23.4625210042509</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>999227.5154053296</v>
+        <v>23.60368915192299</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>1182686.475466371</v>
+        <v>23.65201394602703</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>762030.3650074168</v>
+        <v>23.72011779425738</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>857078.851396138</v>
+        <v>23.80072480157448</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>977850.4786220512</v>
+        <v>23.85563928434627</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>48287.3025591584</v>
+        <v>23.48761543240527</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>783932.293292843</v>
+        <v>23.73408643144979</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>821556.7757009191</v>
+        <v>23.81433982415284</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>950034.4513928113</v>
+        <v>23.49179735062902</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>295941.4982879874</v>
+        <v>23.48502310053029</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>446802.5631192377</v>
+        <v>23.53566679873525</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>550548.8172488949</v>
+        <v>23.57501493120504</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>-112360.3196728073</v>
+        <v>23.33433107853547</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>575487.7935930855</v>
+        <v>23.49022328511585</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>593683.5044599182</v>
+        <v>23.55296839942135</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>-226756.3893835857</v>
+        <v>23.32169580170732</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>552441.2513105895</v>
+        <v>23.49234527260053</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>957806.5964566213</v>
+        <v>23.5439004713602</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>-379889.1787970619</v>
+        <v>23.3265509339966</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>658529.7610147598</v>
+        <v>23.46122761029514</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>936804.1607294061</v>
+        <v>23.52289380738026</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>-281130.5661962565</v>
+        <v>23.41746358442037</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>1316031.330638004</v>
+        <v>23.52790535377929</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>1723948.469148915</v>
+        <v>23.57484817154582</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>885573.4370760125</v>
+        <v>23.60238465240825</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>1191248.180361775</v>
+        <v>23.6692054140775</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>1399124.945136739</v>
+        <v>23.71931253298195</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>-17449.65757366813</v>
+        <v>23.41488636426097</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>1020931.093403151</v>
+        <v>23.60861125049524</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>1192298.709634394</v>
+        <v>23.68689453539421</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/plate_1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.539</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.91</v>
+        <v>15.336</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.33</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.375</v>
+        <v>17.699</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.728</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.411</v>
+        <v>5.815</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>23.32415289696252</v>
+        <v>15.50324099556792</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23.39490213414709</v>
+        <v>15.85104700617796</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>23.4155577878748</v>
+        <v>27.37464849120636</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>23.32719819009498</v>
+        <v>2.235592532171378</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.37334105629764</v>
+        <v>17.40282073174371</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.39839304480313</v>
+        <v>21.54921350683879</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>23.36508948273834</v>
+        <v>3.574801039869172</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.403079168517</v>
+        <v>27.93857762998781</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.42184503643855</v>
+        <v>32.01444431645967</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23.41362485552658</v>
+        <v>12.00899239397771</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>23.43297579790528</v>
+        <v>16.96971863297679</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>23.45216841165913</v>
+        <v>17.70394927385401</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>23.33286545346668</v>
+        <v>12.52674849703571</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>23.39781205345208</v>
+        <v>14.54308413737725</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>23.43266214449591</v>
+        <v>25.91423742705309</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>23.28641912140895</v>
+        <v>15.97042335864806</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.39199439971439</v>
+        <v>22.81410814337454</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>23.42469197313858</v>
+        <v>32.17083610773938</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>23.27310839600737</v>
+        <v>6.24846413874624</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>23.34869274388575</v>
+        <v>9.996701829239838</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>23.3877087156812</v>
+        <v>17.0999351389953</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>23.32798054477327</v>
+        <v>-0.2467417123733604</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>23.38952607274181</v>
+        <v>17.31898761943802</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>23.34497576961772</v>
+        <v>16.3974015906541</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.43157970385547</v>
+        <v>24.44036085322896</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>23.45175693471534</v>
+        <v>30.19472968768217</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>23.36090147661073</v>
+        <v>-0.8028093738038429</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23.42196837429494</v>
+        <v>29.42595416443426</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>23.44636756189328</v>
+        <v>30.39759007474898</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>23.40345685009185</v>
+        <v>5.25631497403192</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>23.45381159287435</v>
+        <v>43.23667292167276</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>23.47191580430994</v>
+        <v>44.04987120191592</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>23.48570458220434</v>
+        <v>44.61606915349014</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>23.50895917531087</v>
+        <v>51.92100115640666</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>23.5295480479123</v>
+        <v>53.12304137182588</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>23.38827673976105</v>
+        <v>24.44017656671462</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>23.47377391793189</v>
+        <v>48.05244207195423</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>23.50765440567884</v>
+        <v>52.67055589478676</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>23.32312902805952</v>
+        <v>17.45015677565074</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>23.45137860622702</v>
+        <v>32.1035677683222</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>23.4843856515332</v>
+        <v>38.82554403987774</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>23.32852954879576</v>
+        <v>5.733803101586815</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>23.42586057678387</v>
+        <v>28.65583256189251</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>23.46506264341641</v>
+        <v>36.94272600658737</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>23.38934576603958</v>
+        <v>5.995088820714059</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>23.46883537414769</v>
+        <v>42.51416950076197</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>23.34131760436748</v>
+        <v>11.73396832381364</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>23.42791824213579</v>
+        <v>22.45434664268339</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>23.44815101148505</v>
+        <v>28.76371887606484</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>23.36006298779112</v>
+        <v>-2.187620467329463</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>23.42224178450871</v>
+        <v>29.63366917879693</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>23.44661881342813</v>
+        <v>33.48586744907531</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>23.40177271454073</v>
+        <v>6.96161144779974</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>23.45305335637601</v>
+        <v>46.43756395929013</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>23.47121041445824</v>
+        <v>49.65570641356337</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>23.48515931464045</v>
+        <v>48.64796885265304</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>23.5083818949932</v>
+        <v>54.69665251850529</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>23.52943901916481</v>
+        <v>59.70378403668573</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>23.38740632408644</v>
+        <v>15.56007497251944</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>23.47438127414346</v>
+        <v>42.59377918598763</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>23.50819983218462</v>
+        <v>50.20137692840015</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>23.32006220217776</v>
+        <v>13.54362664247015</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>23.44807055244727</v>
+        <v>29.10630971453498</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>23.48115987437719</v>
+        <v>38.08352439013763</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>23.33011083563364</v>
+        <v>3.201422837901784</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>23.4286188934928</v>
+        <v>26.83144054324136</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>23.46780903568103</v>
+        <v>40.32554512294189</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>23.38958979442536</v>
+        <v>7.214922693008113</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>23.47008214945798</v>
+        <v>44.4396416316509</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>23.34352103747632</v>
+        <v>3.285451052323037</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>23.41213862384468</v>
+        <v>15.23960747149685</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>23.43228578625786</v>
+        <v>25.70143602541044</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>23.35612284177763</v>
+        <v>-1.093303099163627</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>23.4035817168227</v>
+        <v>26.85386734365591</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>23.42781422556997</v>
+        <v>35.88856638640789</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>23.3890065845807</v>
+        <v>0.9741360392339473</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>23.42810319745283</v>
+        <v>38.43064308600597</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>23.44642314166938</v>
+        <v>45.92248723815995</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>23.4449685265166</v>
+        <v>35.94257040598318</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>23.46376570700801</v>
+        <v>41.29184237672372</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>23.48327425803926</v>
+        <v>45.31958130022625</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>23.3668508801237</v>
+        <v>8.280491837371995</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>23.43339588226153</v>
+        <v>29.05091216157862</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>23.46704184867044</v>
+        <v>45.88488945257502</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>23.31986983851424</v>
+        <v>9.218839612216286</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>23.42175372210307</v>
+        <v>27.16534168198631</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>23.45354006482798</v>
+        <v>38.6152148706544</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>23.32227114046185</v>
+        <v>6.55067237563885</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>23.39852065371894</v>
+        <v>25.42251169511879</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>23.43620981152066</v>
+        <v>40.90284773026737</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>23.36970087856216</v>
+        <v>5.645547581153593</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23.43189508442358</v>
+        <v>38.49557143143209</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>23.41904340052364</v>
+        <v>26.57724549511068</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>23.39964236069222</v>
+        <v>17.75353271132908</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>23.43618377094421</v>
+        <v>31.28274856804526</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>23.46693158049026</v>
+        <v>34.40601858022371</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>23.28688835869275</v>
+        <v>4.289200425128701</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>23.39704502889559</v>
+        <v>16.68319653121461</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>23.44613231533044</v>
+        <v>22.06337768292792</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>23.28422854813215</v>
+        <v>13.52449884057597</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>23.40906675625525</v>
+        <v>19.82603799283041</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>23.44927061264563</v>
+        <v>29.46179942345638</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>23.26766121165594</v>
+        <v>3.201058834814738</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>23.36300595277818</v>
+        <v>7.481862007640467</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>23.41098967452581</v>
+        <v>13.81387230693587</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>23.34008242822685</v>
+        <v>-1.516428707816718</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>23.41805176245995</v>
+        <v>19.31240676894368</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>23.45463558130798</v>
+        <v>32.52394219327277</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>23.4554146402911</v>
+        <v>22.60637551964126</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>23.5040806426517</v>
+        <v>39.51036030074241</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>23.54314406823588</v>
+        <v>47.20163850255852</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>23.31468560326005</v>
+        <v>2.426527589187589</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>23.45226833309475</v>
+        <v>16.17604131007128</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>23.51381409345554</v>
+        <v>26.46833793030566</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>23.49833984056551</v>
+        <v>53.03232137327247</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>23.51025587325868</v>
+        <v>48.73112563857005</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>23.5529303478192</v>
+        <v>57.45729861547943</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>23.58624124573161</v>
+        <v>61.99678612748791</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>23.37498654674008</v>
+        <v>20.27047009066034</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>23.51548167851828</v>
+        <v>56.05066023544336</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>23.56416243055001</v>
+        <v>59.08675875775523</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>23.34295406040582</v>
+        <v>20.81392078017295</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>23.49329530499195</v>
+        <v>38.76437412668794</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>23.53371835941329</v>
+        <v>45.3407945288609</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>23.34899870990736</v>
+        <v>7.677712053138487</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>23.46907684649715</v>
+        <v>38.42205110380144</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>23.51716148174401</v>
+        <v>43.10955037414782</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>23.4279976905117</v>
+        <v>10.45896968677256</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>23.52640392182788</v>
+        <v>57.46891666091186</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>23.56288244230839</v>
+        <v>67.48386946527792</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>23.60473795300878</v>
+        <v>77.69193119272522</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>23.6605633173003</v>
+        <v>83.83975305625486</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>23.7024422170007</v>
+        <v>88.09397649522383</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>23.43815929884761</v>
+        <v>29.88862538346488</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>23.61016610207325</v>
+        <v>73.01574538943446</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>23.6712318856279</v>
+        <v>80.44545650873482</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>23.49967665599346</v>
+        <v>59.64385400208869</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>23.51208330204494</v>
+        <v>43.63361529631318</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>23.55437015561028</v>
+        <v>49.89406537393101</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>23.58827604891691</v>
+        <v>60.88201691819475</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>23.37678406169295</v>
+        <v>13.04850716776172</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>23.51869839668432</v>
+        <v>52.35025300957621</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>23.56745251177782</v>
+        <v>60.08593559529926</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>23.34578704960929</v>
+        <v>16.13675740287263</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>23.49557414538148</v>
+        <v>36.89569852643469</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>23.53584212952762</v>
+        <v>45.83881250944563</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>23.35765432261416</v>
+        <v>4.349112965698403</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>23.47861765915552</v>
+        <v>38.48547987475665</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>23.52640614051812</v>
+        <v>48.09245428079296</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>23.43449317080281</v>
+        <v>9.793340500557093</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>23.53366065481258</v>
+        <v>60.14453003046115</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>23.57000674721563</v>
+        <v>74.07608659084369</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>23.61356609948642</v>
+        <v>77.51923809424305</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>23.6686443821505</v>
+        <v>81.28085148620926</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>23.71094009398705</v>
+        <v>91.71824863052547</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>23.44748402999513</v>
+        <v>19.88611402606241</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>23.62049217634312</v>
+        <v>69.46879262736211</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>23.68124221096286</v>
+        <v>83.27587827133361</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>23.4606379476282</v>
+        <v>55.18298546869691</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>23.45188530617672</v>
+        <v>28.0741838147263</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>23.48659172422414</v>
+        <v>37.38907776497199</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>23.51743344101877</v>
+        <v>48.41921170059925</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>23.34373849299769</v>
+        <v>9.371192083765735</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>23.45406191398676</v>
+        <v>45.4228770478199</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>23.50170389918677</v>
+        <v>55.89288068937597</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>23.33499276802334</v>
+        <v>10.35635861216594</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>23.4547986866747</v>
+        <v>34.17630606865049</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>23.49331060697896</v>
+        <v>47.82795191402501</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>23.33729327918489</v>
+        <v>6.491554034413014</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>23.43200472204462</v>
+        <v>34.40808441711459</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>23.47772288929375</v>
+        <v>50.48354272952501</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>23.39959810224583</v>
+        <v>5.446504443240329</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>23.47713699949568</v>
+        <v>50.16065670858424</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>23.51221265655186</v>
+        <v>70.96071286450439</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>23.52650378425067</v>
+        <v>57.31806570354463</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>23.57216544356391</v>
+        <v>68.67949359378524</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>23.61066406200062</v>
+        <v>88.11374548485728</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>23.39252486657124</v>
+        <v>9.340228103894791</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>23.52843951816873</v>
+        <v>54.69324567518377</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>23.58725770556234</v>
+        <v>77.01851212279361</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>23.31847197816381</v>
+        <v>9.508445418454613</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>23.39731704844877</v>
+        <v>15.83677541976326</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>23.41910751993044</v>
+        <v>28.84453204534465</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>23.31758902008709</v>
+        <v>1.404054841427431</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>23.36824429801063</v>
+        <v>21.07814487694488</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>23.39502929644456</v>
+        <v>26.39305255851991</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>23.36335508467477</v>
+        <v>9.024229227624346</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>23.40508961375356</v>
+        <v>39.03019025347541</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>23.42487430984699</v>
+        <v>44.34243210863687</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>23.41670102424269</v>
+        <v>24.07260252041176</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>23.43948560996313</v>
+        <v>29.96653386687728</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>23.45825327638641</v>
+        <v>32.74942707108578</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>23.32672800373661</v>
+        <v>12.36488327110033</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>23.39915755495365</v>
+        <v>21.6671039881549</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>23.43549254484129</v>
+        <v>39.75149397226065</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>23.28755435382662</v>
+        <v>10.28849857836444</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>23.40666025741691</v>
+        <v>23.33731170249606</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>23.44137573871071</v>
+        <v>29.56707591489194</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>23.26763761554639</v>
+        <v>-5.194376973625115</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>23.35240974908456</v>
+        <v>9.563530487338619</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>23.39428247898417</v>
+        <v>13.85203204897693</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>23.33421518249782</v>
+        <v>-1.365616944581891</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>23.40331506149869</v>
+        <v>26.29589674390227</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>23.33450418623597</v>
+        <v>11.13178245962503</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>23.43118554288579</v>
+        <v>23.87247224397002</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>23.45231597941804</v>
+        <v>31.41445576134505</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>23.34706590630273</v>
+        <v>1.938392286169734</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>23.41445900143253</v>
+        <v>34.55114581105624</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>23.44039681118364</v>
+        <v>36.02975792453676</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>23.39862983104599</v>
+        <v>9.537612334745884</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>23.45424311487337</v>
+        <v>51.20918335539112</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>23.47317352165655</v>
+        <v>52.758849457114</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>23.48790588462429</v>
+        <v>49.1002797398198</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>23.51520196073894</v>
+        <v>53.31686928077123</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>23.53543296513196</v>
+        <v>57.85149662170734</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>23.37918235787629</v>
+        <v>18.42396604797618</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>23.47478204937106</v>
+        <v>46.78617384469527</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>23.50979096556721</v>
+        <v>54.90103311984511</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>23.32087900757586</v>
+        <v>15.91069320050835</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>23.46562438297219</v>
+        <v>35.69484858813269</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>23.50051852003465</v>
+        <v>39.99614580531336</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>23.32081566450562</v>
+        <v>-0.7776231758675323</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>23.4301247557125</v>
+        <v>31.55460150119564</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>23.47205011227082</v>
+        <v>35.1968068291079</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>23.39483679315867</v>
+        <v>6.166965542132928</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>23.48420116525095</v>
+        <v>50.92225154336316</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>23.32711986552969</v>
+        <v>4.73758175334504</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>23.42379097958884</v>
+        <v>18.345593257983</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>23.44502609942891</v>
+        <v>27.3485892499921</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>23.34272313181468</v>
+        <v>-0.6483128291922249</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>23.41137131777186</v>
+        <v>31.58808077942061</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>23.43732555551082</v>
+        <v>36.42410517738286</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>23.39334055206014</v>
+        <v>8.305412667633508</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>23.44999926845538</v>
+        <v>49.48702805464291</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>23.46902829179929</v>
+        <v>54.07239632625807</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>23.48328390999099</v>
+        <v>51.39522789179318</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>23.51047556532023</v>
+        <v>53.04447280597932</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>23.5313557426023</v>
+        <v>62.9089313619796</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>23.3741670320683</v>
+        <v>8.716427282708636</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>23.47140773432881</v>
+        <v>38.42517666462412</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>23.50642817208764</v>
+        <v>48.70945357153299</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>23.31270081168755</v>
+        <v>9.990568995543192</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>23.45712559458945</v>
+        <v>29.44755340844514</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>23.49217301076482</v>
+        <v>37.08749268662321</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>23.31766945790698</v>
+        <v>-4.170841108537193</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>23.42826539102378</v>
+        <v>27.33507552182159</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>23.4702384775021</v>
+        <v>36.30126436411654</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>23.3901707118772</v>
+        <v>4.956929858908453</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>23.4806320057672</v>
+        <v>48.80629268081827</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>23.33401750681071</v>
+        <v>-2.282980610246437</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>23.41051665403917</v>
+        <v>12.42550759596575</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>23.43184831017836</v>
+        <v>26.48376275977913</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>23.34388676395562</v>
+        <v>-1.506808348642775</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>23.39612000943126</v>
+        <v>27.6300194302507</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>23.42208758718777</v>
+        <v>38.31380463809818</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>23.38386312415282</v>
+        <v>4.417745638636184</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>23.42692366577739</v>
+        <v>43.80829928224686</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>23.44631063785032</v>
+        <v>53.62033720640011</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>23.4444832803365</v>
+        <v>45.132755106091</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>23.46647723733066</v>
+        <v>48.71348231861722</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>23.48592739700016</v>
+        <v>58.26353648878279</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>23.35737806134515</v>
+        <v>4.854643047325791</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>23.43163651935037</v>
+        <v>30.00582030089913</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>23.46684634810945</v>
+        <v>51.0656068685209</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>23.31549693469382</v>
+        <v>3.171549807140813</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>23.43038458029535</v>
+        <v>23.59770423268684</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>23.46423316406407</v>
+        <v>32.8433222036205</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>23.31316527659394</v>
+        <v>-5.392703698812742</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>23.39867273130094</v>
+        <v>20.30968799488037</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>23.43920191636201</v>
+        <v>30.97115167657869</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>23.37109367971503</v>
+        <v>0.3456282048968866</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>23.44091016675983</v>
+        <v>38.60149863947414</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>23.43461578597629</v>
+        <v>32.74197363347798</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>23.41685420161372</v>
+        <v>23.15219265000685</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>23.46010952656089</v>
+        <v>35.6618028916122</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>23.49028560138091</v>
+        <v>37.01969775342356</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>23.29108043577476</v>
+        <v>7.094203557808576</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>23.41589910971893</v>
+        <v>23.60825062421237</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>23.46709465525432</v>
+        <v>31.64465970184244</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>23.29155441895839</v>
+        <v>13.80340259313462</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>23.43353918279263</v>
+        <v>25.75171868037691</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>23.47642587529567</v>
+        <v>39.02701844583694</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>23.26752025868389</v>
+        <v>-7.309711936213599</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>23.37591882002227</v>
+        <v>9.893469976787909</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>23.42752833053765</v>
+        <v>20.55024553524359</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>23.35455980476931</v>
+        <v>1.538546249789679</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>23.44331600064362</v>
+        <v>34.6643532377245</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>23.48227945732951</v>
+        <v>49.3035894075817</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>23.48875147712909</v>
+        <v>30.27396727782861</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>23.54623301765892</v>
+        <v>46.21940637036217</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>23.58582951094874</v>
+        <v>53.78444005160202</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>23.33149661940417</v>
+        <v>6.254650233716401</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>23.48905927833065</v>
+        <v>29.22825779052092</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>23.55360837677468</v>
+        <v>42.87616162936132</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>23.51533422610576</v>
+        <v>57.40966323656959</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>23.53087183227977</v>
+        <v>52.92429726038461</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>23.58127004675644</v>
+        <v>59.96031205928408</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>23.61415273922441</v>
+        <v>62.31106655459079</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>23.3797833848516</v>
+        <v>19.79499678639801</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>23.53897712977709</v>
+        <v>59.12214567771093</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>23.58938676098766</v>
+        <v>62.73281447471761</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>23.34997806526596</v>
+        <v>20.11784056717942</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>23.52089584983534</v>
+        <v>42.17301187129303</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>23.56381059187149</v>
+        <v>50.15348247735218</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>23.3501409652766</v>
+        <v>0.3925865657569112</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>23.48656311129946</v>
+        <v>42.2273575401753</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>23.53806807699126</v>
+        <v>46.63703432783777</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>23.44540617550397</v>
+        <v>10.19441602507386</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>23.55733959646959</v>
+        <v>67.4631383630371</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>23.59598144869384</v>
+        <v>74.57236987263313</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>23.64682214606836</v>
+        <v>76.43254092841747</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>23.712659541612</v>
+        <v>81.89156620705543</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>23.75525833063633</v>
+        <v>88.33055369287879</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>23.46050630100854</v>
+        <v>28.12161596349009</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>23.6572115951468</v>
+        <v>78.75735054657517</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>23.72079071872025</v>
+        <v>82.98054865445715</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>23.51192326598987</v>
+        <v>60.37644380889243</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>23.52705953525845</v>
+        <v>47.41911605495473</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>23.57690850160386</v>
+        <v>51.32679433772186</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>23.6106473564301</v>
+        <v>60.0739729427077</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>23.37590633199915</v>
+        <v>11.01327526768424</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>23.53661728211356</v>
+        <v>53.11415590690121</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>23.58722342163507</v>
+        <v>60.8215752036958</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>23.34821183415593</v>
+        <v>13.05684610203251</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>23.51842849434329</v>
+        <v>37.40002373512127</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>23.56122813153166</v>
+        <v>47.4709176127418</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>23.35475268378813</v>
+        <v>-4.850186179101886</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>23.49210000590869</v>
+        <v>39.69847607086813</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>23.54333280283232</v>
+        <v>47.62605030768041</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>23.44754684310734</v>
+        <v>6.506519075118735</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>23.56027742372632</v>
+        <v>66.26351609399889</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>23.59882685845373</v>
+        <v>76.28348324990708</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>23.65060237950867</v>
+        <v>74.85104020589337</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>23.71547985349814</v>
+        <v>78.19119079197216</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>23.75872802755236</v>
+        <v>90.61462354004323</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>23.46481829695599</v>
+        <v>17.44044258469924</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>23.66252729761844</v>
+        <v>74.98642664935984</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>23.72586958266075</v>
+        <v>82.54900448368922</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>23.47148592077653</v>
+        <v>51.4740100842736</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>23.46371037265212</v>
+        <v>29.14012676805508</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>23.50460040298288</v>
+        <v>36.19342354172527</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>23.53538904293825</v>
+        <v>43.97709841695931</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>23.34299080827007</v>
+        <v>5.737128894538696</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>23.46786607533217</v>
+        <v>42.96863036575681</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>23.51775193267591</v>
+        <v>52.84414025799963</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>23.33853657222833</v>
+        <v>8.257016054758624</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>23.47468790564878</v>
+        <v>36.78281314429852</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>23.51583934500291</v>
+        <v>50.52253587067736</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>23.33574928373127</v>
+        <v>-3.899485673968311</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>23.44329761686287</v>
+        <v>36.55405251512225</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>23.49252387825004</v>
+        <v>49.59967893344255</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>23.41103209747451</v>
+        <v>4.84792184712413</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>23.49918588107186</v>
+        <v>60.6676698530668</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>23.53661184028781</v>
+        <v>76.76867283121163</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>23.55624862886157</v>
+        <v>61.70027591138957</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>23.61001350854685</v>
+        <v>73.5582058155196</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>23.64946045503588</v>
+        <v>87.99402266319295</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>23.40646916773874</v>
+        <v>11.39362102238013</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>23.56185819876354</v>
+        <v>68.55847665735401</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>23.62369517212217</v>
+        <v>82.6355177773182</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>23.3170574582657</v>
+        <v>8.301887338271722</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>23.3964744794646</v>
+        <v>11.530455635138</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>23.41802537957868</v>
+        <v>23.14630053566064</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>23.31616834620152</v>
+        <v>-2.46017843469836</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>23.36738112951294</v>
+        <v>12.565068058942</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>23.39391131391217</v>
+        <v>16.54307344931534</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>23.36222601978627</v>
+        <v>4.556226551727075</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>23.40442452630958</v>
+        <v>30.50186155092892</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>23.42398448555087</v>
+        <v>34.73043454321699</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>23.41744952469988</v>
+        <v>19.29158201725565</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>23.44026293584625</v>
+        <v>24.61867678125237</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>23.45875601057478</v>
+        <v>27.06679083176255</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>23.32632008218102</v>
+        <v>7.463372222791088</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>23.39950204872003</v>
+        <v>15.36557557298666</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>23.43546073949604</v>
+        <v>28.70857267295616</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>23.29751547154624</v>
+        <v>11.44586154124577</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>23.41764456729165</v>
+        <v>26.47969777527168</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>23.45198279034081</v>
+        <v>32.68954056488525</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>23.27864474005429</v>
+        <v>-5.131377606366332</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>23.36445254534702</v>
+        <v>11.87462258710598</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>23.40591717131924</v>
+        <v>16.38266027016866</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>23.34519797036609</v>
+        <v>0.01079981383196937</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>23.41515741966563</v>
+        <v>30.35811348156998</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>23.33339714021582</v>
+        <v>9.780094531309192</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>23.43074806017581</v>
+        <v>20.25323539802539</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>23.45161249383342</v>
+        <v>26.4490997482955</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>23.34603725670321</v>
+        <v>-0.8036195874817089</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>23.41408995930214</v>
+        <v>28.29020580464239</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>23.43974491040747</v>
+        <v>28.61806154817824</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>23.39789202652198</v>
+        <v>5.491660874924101</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>23.45405378760271</v>
+        <v>44.14782056838525</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>23.47273499607304</v>
+        <v>44.69283493098605</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>23.48939152377867</v>
+        <v>44.32118115656617</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>23.51673918335355</v>
+        <v>47.81903065017224</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>23.53665862732919</v>
+        <v>52.28513856587929</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>23.37936067760025</v>
+        <v>11.93294981841107</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>23.47585294876349</v>
+        <v>39.68393512062706</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>23.51044458732998</v>
+        <v>43.73081853099119</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>23.33235791027017</v>
+        <v>16.32188590672659</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>23.47828452712943</v>
+        <v>39.44864903939639</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>23.51276030790653</v>
+        <v>43.2534798950541</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>23.33355563934412</v>
+        <v>-0.6285238041393235</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>23.44406806594452</v>
+        <v>35.87095028589042</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>23.48554088184611</v>
+        <v>39.15115052212145</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>23.40751152408988</v>
+        <v>6.724409502913179</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>23.49787408555037</v>
+        <v>55.92614655691783</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>23.32613109494565</v>
+        <v>4.107347006003874</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>23.42346244180199</v>
+        <v>15.5302590147994</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>23.44443935595665</v>
+        <v>23.26067283436701</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>23.34183638559351</v>
+        <v>-2.367331079254466</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>23.41113663226959</v>
+        <v>26.49662179858779</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>23.43681635852681</v>
+        <v>30.2763718382989</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>23.39272838787671</v>
+        <v>5.291504306757073</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>23.44992910869628</v>
+        <v>43.57691579043215</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>23.46871633835231</v>
+        <v>47.23179791037846</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>23.48487191447743</v>
+        <v>47.53409766574158</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>23.5121174017411</v>
+        <v>48.48812851469845</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>23.53269208841997</v>
+        <v>58.38687484667115</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>23.37447159799823</v>
+        <v>3.01893407098456</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>23.47259516942848</v>
+        <v>31.97511965633974</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>23.5072103292897</v>
+        <v>38.51133640248596</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.3239975702751</v>
+        <v>11.51470233310609</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>23.46958531954889</v>
+        <v>34.61785035606012</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>23.50422571308399</v>
+        <v>41.45427305305574</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>23.33022913430305</v>
+        <v>-2.441067010339172</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.4420118921374</v>
+        <v>33.66145458757886</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>23.48354461316786</v>
+        <v>41.85914740118311</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>23.40265500693232</v>
+        <v>7.054697237236219</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>23.49410054030028</v>
+        <v>55.72168595346342</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>23.33289877799611</v>
+        <v>-2.067039164210176</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>23.40992595171759</v>
+        <v>9.665498214924614</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>23.43104745921212</v>
+        <v>22.68050969376709</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>23.34281954086654</v>
+        <v>-3.692797112533437</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>23.39557071974407</v>
+        <v>20.97687196260524</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>23.42131498015104</v>
+        <v>30.82835936813719</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>23.38303610588114</v>
+        <v>1.639683839862133</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>23.42652721109338</v>
+        <v>37.1190543175159</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>23.44571728469181</v>
+        <v>46.2726080638358</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>23.44540550533389</v>
+        <v>41.29454425666735</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>23.46743076246019</v>
+        <v>44.4207426324689</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>23.48663208201391</v>
+        <v>54.04240153741065</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>23.35724067539446</v>
+        <v>0.4560628944444041</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>23.43219894656865</v>
+        <v>23.96375470698044</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>23.46707779602763</v>
+        <v>40.9892549356793</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>23.32466109422381</v>
+        <v>5.950741141507226</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>23.44049062566313</v>
+        <v>29.28995202777389</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>23.47400519907236</v>
+        <v>37.98121966536021</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>23.32335057658705</v>
+        <v>-2.994108440638705</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>23.40981567067771</v>
+        <v>26.20305248484408</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>23.4499833726981</v>
+        <v>36.39285240808027</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>23.38122548518314</v>
+        <v>3.819221748805944</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>23.45183615233959</v>
+        <v>45.90908503007226</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>23.44610297273042</v>
+        <v>37.05076050185822</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>23.43305458453504</v>
+        <v>29.64884117459088</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>23.4764651240907</v>
+        <v>43.04767419755799</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>23.5061824118452</v>
+        <v>42.53501987884525</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>23.30556530960131</v>
+        <v>7.618454688677488</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>23.43178915464014</v>
+        <v>28.55632772600752</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>23.48237820624025</v>
+        <v>35.81399478263928</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>23.30297038247302</v>
+        <v>13.17759626847478</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>23.44609645126983</v>
+        <v>27.15077557796135</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>23.48857028252586</v>
+        <v>40.01179478324465</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>23.28001697315798</v>
+        <v>-9.58932936516489</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>23.38956979132214</v>
+        <v>10.12155734334931</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>23.44073801800593</v>
+        <v>19.87561315574215</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>23.36707780282031</v>
+        <v>-1.195922748786604</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>23.45679500746604</v>
+        <v>35.0082389095206</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>23.49537271963979</v>
+        <v>48.78236518028098</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>23.50700158163774</v>
+        <v>35.33558038068985</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>23.5647062768434</v>
+        <v>53.59192572973653</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>23.6037109197155</v>
+        <v>56.92343324967791</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>23.34781012508178</v>
+        <v>4.693949586758276</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>23.5069489877693</v>
+        <v>32.51875404279036</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>23.57083637811371</v>
+        <v>44.76741019414969</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>23.52861369160518</v>
+        <v>62.0453497934754</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>23.54948251394806</v>
+        <v>59.35936980747216</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>23.60007669116396</v>
+        <v>67.42591206227421</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>23.63244331356246</v>
+        <v>67.32914222348542</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>23.39645734769291</v>
+        <v>18.67831274133177</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>23.55728657021748</v>
+        <v>64.22735941292903</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>23.60702435474873</v>
+        <v>66.87650553510758</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>23.36314155624312</v>
+        <v>18.9954200830735</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>23.53537616956719</v>
+        <v>44.90475550187489</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>23.57783222097407</v>
+        <v>51.79733597448761</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>23.36461635689619</v>
+        <v>-0.4736016382387866</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>23.50237857375245</v>
+        <v>46.48732271529335</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>23.5533930548987</v>
+        <v>49.18955907183117</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>23.45986229864524</v>
+        <v>7.91084769712962</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>23.57291074012922</v>
+        <v>70.65294461187761</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>23.61112440224902</v>
+        <v>76.02931632964075</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>23.6678052092286</v>
+        <v>82.55224615377388</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>23.73391470176528</v>
+        <v>90.61430449277373</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>23.77584872767278</v>
+        <v>91.99534113113427</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>23.47931033128784</v>
+        <v>26.08652721614022</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>23.67784757415026</v>
+        <v>84.26458232437555</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>23.74069254931684</v>
+        <v>86.44514053394644</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>23.52500907007154</v>
+        <v>66.54272515626317</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>23.54537173198662</v>
+        <v>55.53537598797598</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>23.59541690620891</v>
+        <v>60.69339381345594</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>23.62865045458106</v>
+        <v>66.70899177289081</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>23.39231813127042</v>
+        <v>11.40963460466888</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>23.55464264793583</v>
+        <v>59.96177119619121</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>23.60459469140817</v>
+        <v>66.43121551574555</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>23.36117323954863</v>
+        <v>12.66749890819113</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>23.53268636415434</v>
+        <v>41.42334902219834</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>23.57503953007916</v>
+        <v>49.97482827211361</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>23.36903241991073</v>
+        <v>-4.223512508057546</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>23.50770142705492</v>
+        <v>46.20689955994325</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>23.55845665449355</v>
+        <v>51.89124151654588</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>23.4617938012012</v>
+        <v>5.649218378667587</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>23.57562379361125</v>
+        <v>71.54628757657569</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>23.61375650720318</v>
+        <v>79.32867206892007</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>23.67126067121932</v>
+        <v>82.56709732862269</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>23.73640882142367</v>
+        <v>88.83977068921516</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>23.77900634970976</v>
+        <v>95.79277168895575</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>23.48333956748765</v>
+        <v>16.71119340452359</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>23.68285568727223</v>
+        <v>82.58110619011418</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>23.74548297176925</v>
+        <v>87.59257600041602</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>23.48209759364972</v>
+        <v>58.34889665026026</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>23.4786182682592</v>
+        <v>38.28287447386425</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>23.51965643981149</v>
+        <v>46.67158272921343</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>23.55002996370539</v>
+        <v>52.17517095954328</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>23.35632924167436</v>
+        <v>7.76009882263395</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>23.4825044795457</v>
+        <v>50.31576606441482</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>23.53185166079489</v>
+        <v>58.8808971393095</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>23.34906472549191</v>
+        <v>8.181793803198335</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>23.48626646651064</v>
+        <v>40.22915315222772</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>23.52705199045504</v>
+        <v>52.73255550843338</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>23.34734488330275</v>
+        <v>-4.077030262673336</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>23.45596024460331</v>
+        <v>40.9034320105915</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>23.50479517596388</v>
+        <v>52.01893943850342</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>23.42260923981059</v>
+        <v>3.660249822095253</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>23.51165066153068</v>
+        <v>64.4113827624797</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>23.54873490006291</v>
+        <v>78.63767836901337</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>23.5730815214186</v>
+        <v>69.23639961167459</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>23.62705633688229</v>
+        <v>84.19823638063556</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>23.6659681646785</v>
+        <v>93.42400473617884</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>23.42153309252628</v>
+        <v>11.14091270967814</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>23.57837939553391</v>
+        <v>75.3448141213352</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>23.6396282727915</v>
+        <v>86.94262205028012</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>23.30453183382905</v>
+        <v>13.75262463903062</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>23.37195773042245</v>
+        <v>11.21058715436968</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>23.39255278524936</v>
+        <v>19.49442929222304</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>23.30521731467848</v>
+        <v>5.895024840321472</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>23.34711887699817</v>
+        <v>14.76695090646582</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>23.37210595726718</v>
+        <v>16.47913382581429</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>23.34226747362812</v>
+        <v>2.49206382238587</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>23.37674234125375</v>
+        <v>20.07211716983503</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>23.3954345843503</v>
+        <v>21.24344910204045</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>23.38063925636845</v>
+        <v>5.106202575695757</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>23.39832996942436</v>
+        <v>8.335288003726887</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>23.41782838362531</v>
+        <v>9.29284357857069</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>23.30282691778294</v>
+        <v>13.34585685848755</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>23.36235885484173</v>
+        <v>9.336883149475135</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>23.39699415368889</v>
+        <v>17.06468392220354</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>23.25715066671076</v>
+        <v>12.28621234527258</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>23.35824158085983</v>
+        <v>12.32318918199643</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>23.39079384808179</v>
+        <v>20.18038773037868</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>23.24067430881402</v>
+        <v>12.13448299713269</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>23.31051422828261</v>
+        <v>5.95198680824825</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>23.34937221751374</v>
+        <v>11.78866736470112</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>23.29435643036806</v>
+        <v>-1.537342913374925</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.35114405633639</v>
+        <v>5.974752213353973</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>23.3220588829345</v>
+        <v>16.15115855051798</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.40509517645071</v>
+        <v>19.22544546471871</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>23.42519401632144</v>
+        <v>22.69211789960911</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>23.33532373549813</v>
+        <v>3.462170532937964</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>23.39182822704199</v>
+        <v>24.80541154275333</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>23.41614000400085</v>
+        <v>24.41537929364458</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>23.37703586857381</v>
+        <v>4.787001388697469</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>23.42361060478597</v>
+        <v>33.48826827807004</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>23.44162116439717</v>
+        <v>32.47696188807942</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>23.44798410093216</v>
+        <v>33.00758671881839</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>23.46942641269179</v>
+        <v>37.96040544393615</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>23.4903733195221</v>
+        <v>40.6474564025775</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>23.35369326556691</v>
+        <v>24.24828029727197</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>23.43337262319516</v>
+        <v>38.34237648026155</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>23.4669937148601</v>
+        <v>40.62089516344314</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>23.28894897033657</v>
+        <v>11.823266887945</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>23.41237942943516</v>
+        <v>16.58295646882976</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>23.44521715919877</v>
+        <v>22.32836627490487</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>23.29078660404848</v>
+        <v>8.479349658636879</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>23.38193153983408</v>
+        <v>17.56484458289962</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>23.42094574808038</v>
+        <v>25.1191093725209</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>23.42476950960372</v>
+        <v>23.93229410665565</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.31878469345846</v>
+        <v>13.8593119982459</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>23.40193591856995</v>
+        <v>19.20523149365381</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>23.42209294518181</v>
+        <v>23.20779808369262</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>23.33493358853004</v>
+        <v>3.201743501766728</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>23.39269916008746</v>
+        <v>25.78084304497824</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>23.41699068296385</v>
+        <v>28.1546507551364</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>23.37583860685962</v>
+        <v>8.045434896171386</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>23.42346285821564</v>
+        <v>37.9112711790993</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>23.44152874732372</v>
+        <v>39.23592982143767</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>23.44821779402342</v>
+        <v>37.377443343845</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>23.46967774577189</v>
+        <v>40.74378309958638</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>23.49109465161774</v>
+        <v>47.44408169669913</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>23.35348856155737</v>
+        <v>17.10292439159515</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>23.43483713299344</v>
+        <v>33.88553971170853</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>23.46840366357639</v>
+        <v>39.17935402197196</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>23.28640785664484</v>
+        <v>9.339245826487826</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>23.40975653641051</v>
+        <v>14.61517576810835</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>23.44268143561842</v>
+        <v>22.11102555848302</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>23.29297628846638</v>
+        <v>6.459281342132709</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>23.38550004886562</v>
+        <v>15.87924342928983</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>23.42450639334321</v>
+        <v>27.92369123398667</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>23.35130975790842</v>
+        <v>3.282436765540421</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>23.42684690520843</v>
+        <v>26.31719424858511</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>23.32555794413379</v>
+        <v>4.121452646388523</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>23.39124147492773</v>
+        <v>11.46353709847987</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>23.41133756109543</v>
+        <v>18.74709602051625</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>23.33604479865454</v>
+        <v>1.994355784383838</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>23.37975450779803</v>
+        <v>21.600586820183</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>23.40393072146135</v>
+        <v>28.12255481219682</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.36819126466112</v>
+        <v>-0.4663398652811956</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>23.40418089720449</v>
+        <v>28.24301395553104</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>23.4224370012299</v>
+        <v>32.81717502408306</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>23.4150420142955</v>
+        <v>24.5900138263999</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>23.43235301472</v>
+        <v>27.02997283458061</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>23.45215869003313</v>
+        <v>31.91750708866678</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>23.33952025049529</v>
+        <v>8.587676012794837</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>23.4012811504266</v>
+        <v>20.25099585704114</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>23.43473900899317</v>
+        <v>33.67375622791996</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>23.29298008292879</v>
+        <v>4.798980420264868</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>23.39090587928201</v>
+        <v>13.92638900725056</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>23.42256337604551</v>
+        <v>22.62479141052746</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>23.29253848216502</v>
+        <v>8.969589439309317</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>23.36371082170184</v>
+        <v>15.48640954664172</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>23.40125760134111</v>
+        <v>27.95996031283818</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>23.33892698994716</v>
+        <v>0.6176526223946333</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>23.39691602566615</v>
+        <v>21.08225921103399</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>23.38049842229816</v>
+        <v>13.60739773872271</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>23.351845999464</v>
+        <v>6.350779702682562</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>23.38630567651852</v>
+        <v>19.71071263011352</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>23.4173231620116</v>
+        <v>23.14831593379023</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>23.24307400052671</v>
+        <v>4.107612164954439</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>23.34592029068344</v>
+        <v>4.575985586428885</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>23.39458944846712</v>
+        <v>7.409488303067461</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>23.2584035526207</v>
+        <v>13.84113532746768</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>23.37891265400434</v>
+        <v>14.01676526297583</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>23.41903459510991</v>
+        <v>23.98882885535964</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>23.23873754824022</v>
+        <v>10.68273885695215</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>23.32849457221908</v>
+        <v>6.0856700483609</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>23.37639225784581</v>
+        <v>13.40431852575552</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>23.31003129622342</v>
+        <v>0.6679838458910474</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.38337325696225</v>
+        <v>12.41959423260915</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>23.41985031396894</v>
+        <v>26.16154622847156</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>23.41223791329704</v>
+        <v>12.54249400109117</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>23.45896250839599</v>
+        <v>29.64534711141663</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>23.49839544429449</v>
+        <v>39.25008239850304</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>23.27529588469613</v>
+        <v>4.141134352461115</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>23.40577644552526</v>
+        <v>6.936933467330597</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>23.46696494443462</v>
+        <v>16.34088755114304</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>23.45408380017271</v>
+        <v>33.4630873371199</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>23.45554089653142</v>
+        <v>29.04971922604852</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>23.49593958771474</v>
+        <v>36.66602784486422</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>23.52958613626398</v>
+        <v>43.11619632114063</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>23.32451807023714</v>
+        <v>15.06399811857612</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>23.45714906180315</v>
+        <v>34.14013603798549</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>23.50534915833883</v>
+        <v>35.48967756456456</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>23.31273217728427</v>
+        <v>19.40882073894704</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>23.45843405986553</v>
+        <v>27.51776674662934</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>23.49874289652076</v>
+        <v>35.44778863219749</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>23.31531973276193</v>
+        <v>12.48747631457557</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>23.42939446426255</v>
+        <v>29.64222136490524</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>23.47735293571474</v>
+        <v>36.42602358150466</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>23.39318193253863</v>
+        <v>9.488407417546274</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>23.48661807062546</v>
+        <v>42.90307953797998</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>23.52295393537565</v>
+        <v>54.63708060319497</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>23.55536893739466</v>
+        <v>60.11171642942973</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>23.6090721687933</v>
+        <v>65.96248965155138</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>23.65138980105812</v>
+        <v>74.5345190702144</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>23.39281603479227</v>
+        <v>27.22019231422192</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>23.55719998549863</v>
+        <v>53.86122592901748</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>23.61782856876238</v>
+        <v>61.63834086074618</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>23.45625594756653</v>
+        <v>39.90390754267714</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>23.45842451881595</v>
+        <v>24.3265427164551</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>23.49849692140622</v>
+        <v>28.83858706711603</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>23.53274573965615</v>
+        <v>41.49251565418289</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>23.32722125183843</v>
+        <v>8.668975834411091</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>23.46152950003341</v>
+        <v>30.46236192447672</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>23.50981585325212</v>
+        <v>35.89959946503275</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>23.31604118931748</v>
+        <v>16.28977977179947</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>23.4613459819981</v>
+        <v>26.55875235986504</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>23.50150151082666</v>
+        <v>36.40923660686445</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>23.32454032481519</v>
+        <v>9.891527156423253</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>23.43970000612863</v>
+        <v>29.73549609164552</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>23.48736277303418</v>
+        <v>40.80352745252434</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>23.40029401863726</v>
+        <v>9.852100513250761</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>23.49465682242944</v>
+        <v>45.94903895488957</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>23.53086209223331</v>
+        <v>61.0405885797192</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>23.56519559092174</v>
+        <v>60.38122598379026</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>23.6182093187643</v>
+        <v>63.32694131119061</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>23.66094795230893</v>
+        <v>77.80426878656858</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>23.40299178450589</v>
+        <v>18.29066065235806</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>23.56863217453473</v>
+        <v>50.25187338269204</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>23.62895417637008</v>
+        <v>63.69773965953969</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>23.42551287231477</v>
+        <v>34.57442954327966</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>23.40837649657703</v>
+        <v>10.63024855290035</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>23.44121799439178</v>
+        <v>18.25402418956046</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>23.47233295956151</v>
+        <v>29.13031446950347</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>23.30374219468217</v>
+        <v>5.373021573274887</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>23.40760752806751</v>
+        <v>25.75950632188259</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>23.45487619558104</v>
+        <v>32.20193925821306</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>23.31135132061105</v>
+        <v>10.90220830876453</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>23.42734289751607</v>
+        <v>25.97968945882179</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>23.46578228236582</v>
+        <v>39.31310338746535</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>23.31089296275447</v>
+        <v>11.68066172419051</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>23.40067308247183</v>
+        <v>27.51704760882238</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>23.44631268042305</v>
+        <v>43.57452142283891</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>23.37220644204675</v>
+        <v>5.073549676431419</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>23.44566162597814</v>
+        <v>37.66626222829913</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>23.48064115148865</v>
+        <v>58.11552957264625</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>23.48737196558955</v>
+        <v>42.02691023004169</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>23.53129602213797</v>
+        <v>52.47232522770727</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>23.57015770381829</v>
+        <v>73.26432801935304</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>23.35672459533408</v>
+        <v>8.422213754974472</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>23.48637442400391</v>
+        <v>38.34059944668778</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>23.54487292231839</v>
+        <v>58.5518243722701</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>23.31971860376354</v>
+        <v>12.39699415151324</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>23.38979397100744</v>
+        <v>12.12437556557355</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>23.4105348555534</v>
+        <v>23.03122787315745</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>23.32389063126828</v>
+        <v>7.875090055606165</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>23.36952728282899</v>
+        <v>21.67949450816145</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>23.39470487748786</v>
+        <v>24.89808162193436</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>23.36092591847945</v>
+        <v>3.320522827959351</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>23.39850757902309</v>
+        <v>25.73008645375334</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>23.41738376764348</v>
+        <v>28.67154690575575</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>23.40779803813859</v>
+        <v>9.74909479980465</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>23.42729169933198</v>
+        <v>12.92678145475057</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>23.44647110323268</v>
+        <v>15.3798260067769</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>23.32743423709544</v>
+        <v>11.94213782006828</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>23.39173935540457</v>
+        <v>11.37903763146048</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>23.42670580090657</v>
+        <v>21.36601301404438</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>23.28972761402907</v>
+        <v>16.80819259616068</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>23.39431600262451</v>
+        <v>22.76817805914123</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>23.4267245262125</v>
+        <v>30.69132788249346</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>23.2790823900553</v>
+        <v>16.62458057599369</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>23.35384821585053</v>
+        <v>19.40455799395653</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>23.39256229849156</v>
+        <v>24.27057024227555</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>23.33232996308607</v>
+        <v>5.163767519754298</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>23.39322672167337</v>
+        <v>21.6360646299402</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>23.33910986665408</v>
+        <v>14.10909375499516</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>23.4248881293363</v>
+        <v>20.18729258106723</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>23.44515884447158</v>
+        <v>24.84522865657025</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>23.3560401179455</v>
+        <v>3.914532570077903</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>23.4164514852914</v>
+        <v>31.21994260047162</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>23.44098785873168</v>
+        <v>30.71264268234346</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>23.39767077972035</v>
+        <v>3.846672990920364</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>23.4474952159538</v>
+        <v>38.26528262836857</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>23.46572009438716</v>
+        <v>37.47897250886399</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>23.47760240170744</v>
+        <v>36.04941648457225</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>23.5009667674715</v>
+        <v>40.0554305473234</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>23.52153482456877</v>
+        <v>43.45597360043192</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>23.38068264011122</v>
+        <v>19.60962270771758</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>23.46533843241427</v>
+        <v>38.41357553739508</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>23.4993511841247</v>
+        <v>40.87052682584837</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>23.32482731240607</v>
+        <v>18.45628696728916</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>23.45186972640655</v>
+        <v>30.0281935324552</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>23.48455378249445</v>
+        <v>34.10318726294971</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>23.33277240112504</v>
+        <v>14.30688225307004</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>23.42906130881158</v>
+        <v>33.69581046181734</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>23.46792436617852</v>
+        <v>38.21931143213481</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>23.47049954390235</v>
+        <v>41.65528067259415</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>23.33579806716434</v>
+        <v>10.56599885200881</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>23.42157357641965</v>
+        <v>19.29394112175578</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>23.44188269957472</v>
+        <v>24.22184052551247</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>23.35548003671247</v>
+        <v>2.618796600089166</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>23.41699575513446</v>
+        <v>31.55699258321317</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>23.44148907910397</v>
+        <v>33.55016524317914</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>23.39628491687178</v>
+        <v>5.912938477543562</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>23.44702850053526</v>
+        <v>41.85495252572618</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>23.46528904153431</v>
+        <v>43.13519963643857</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>23.47740958288513</v>
+        <v>39.80126461718292</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>23.50072808682186</v>
+        <v>42.30926260906224</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>23.5217469060564</v>
+        <v>49.77889568770642</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>23.38017241476616</v>
+        <v>11.00569102291472</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>23.46629302187536</v>
+        <v>32.96891111121182</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>23.50021877140998</v>
+        <v>38.20165104543216</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>23.32181539455052</v>
+        <v>15.74001906954054</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>23.44861870697688</v>
+        <v>28.30889498125483</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>23.48136965084563</v>
+        <v>33.76542138073444</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>23.33427097369734</v>
+        <v>12.41270445010916</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>23.4317296350921</v>
+        <v>32.70039374238936</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>23.47056171027747</v>
+        <v>41.28287355828323</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>23.39204647099963</v>
+        <v>10.77265153629744</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>23.4717010950488</v>
+        <v>44.45134392484867</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>23.33969072064603</v>
+        <v>1.711980657334582</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>23.40764975833622</v>
+        <v>12.09416157925083</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>23.42784480496363</v>
+        <v>21.36612473333659</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>23.35317807175316</v>
+        <v>3.627076739187647</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>23.40011964224346</v>
+        <v>29.08348625110477</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>23.42443193849272</v>
+        <v>36.42622206789568</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>23.38530034587153</v>
+        <v>-0.1352442432555208</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>23.42397838836371</v>
+        <v>34.23003693934153</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>23.44237050709726</v>
+        <v>39.87572934542483</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>23.43969693267983</v>
+        <v>30.06909204787211</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>23.45859537112239</v>
+        <v>32.77346113873229</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>23.47805742424351</v>
+        <v>39.21914876796332</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>23.36198066482812</v>
+        <v>5.880993636568359</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>23.42786288694269</v>
+        <v>22.09399692315664</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>23.46157162447655</v>
+        <v>37.16661208138638</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>23.32267896693883</v>
+        <v>9.478239126605658</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>23.42360186716304</v>
+        <v>25.65307008440136</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>23.45507973255179</v>
+        <v>33.22142148594025</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>23.32726846574238</v>
+        <v>13.98985436278567</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>23.40269493327125</v>
+        <v>30.86023652976829</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>23.44005682599029</v>
+        <v>40.91347960497487</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>23.373261228204</v>
+        <v>7.271539325341578</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>23.4347997332553</v>
+        <v>37.98557931439489</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>23.42250052233243</v>
+        <v>28.88577339290072</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>23.40376977148585</v>
+        <v>20.9384212114221</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>23.44046392741972</v>
+        <v>36.98124222076303</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.47087077323063</v>
+        <v>41.18048763148765</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>23.29156247113916</v>
+        <v>11.14842689090753</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>23.4006115346438</v>
+        <v>19.53946005632577</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>23.44928931891865</v>
+        <v>22.42192021942082</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>23.28557737170127</v>
+        <v>13.36623050087812</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>23.40928351507246</v>
+        <v>18.12430105880891</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>23.44934358254558</v>
+        <v>30.79798347327598</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>23.27169458397185</v>
+        <v>13.1270727106916</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>23.36608003878251</v>
+        <v>15.96834281777964</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>23.41392478885678</v>
+        <v>25.092071997967</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>23.34230974104918</v>
+        <v>3.650454254398181</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>23.41951426519627</v>
+        <v>22.73854804237173</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>23.45599389581292</v>
+        <v>38.79447044705751</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>23.45664896386542</v>
+        <v>22.95011947766619</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>23.50552465655315</v>
+        <v>46.12830024579146</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>23.54428077403487</v>
+        <v>57.06501976559983</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>23.31660632776319</v>
+        <v>5.301627033300054</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>23.45290229780208</v>
+        <v>18.79248662029722</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>23.51420148852969</v>
+        <v>29.10740740706597</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>23.49973057645879</v>
+        <v>48.81787117445734</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>23.51170076095823</v>
+        <v>46.17000937613759</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>23.55447602171054</v>
+        <v>54.40372868077967</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>23.58740754226453</v>
+        <v>60.7505685995214</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>23.3771272595058</v>
+        <v>22.19785655958037</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>23.51620828883338</v>
+        <v>50.71004485131976</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>23.56443946690933</v>
+        <v>49.61420289493994</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>23.34211826811478</v>
+        <v>18.76195264202512</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>23.49109069163309</v>
+        <v>33.20093457067996</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>23.5313483186924</v>
+        <v>42.33517631872274</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>23.3506662353015</v>
+        <v>14.17494481234434</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>23.46954546792768</v>
+        <v>40.99893760838719</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>23.51746734346673</v>
+        <v>47.84650447588903</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>23.42773638813182</v>
+        <v>10.41957455179829</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>23.52518265411353</v>
+        <v>53.20559091598162</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>23.5615385331634</v>
+        <v>65.58299793776128</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>23.60246342287824</v>
+        <v>69.15829789693181</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>23.65845471329622</v>
+        <v>79.80641934504989</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>23.69999163469765</v>
+        <v>88.6197388826087</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>23.43673532044287</v>
+        <v>24.50689467235115</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>23.6071281764971</v>
+        <v>64.90600571985787</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>23.6679193929258</v>
+        <v>71.5015696616689</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>23.50100656254662</v>
+        <v>55.23411738156204</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>23.51347475414508</v>
+        <v>41.86086074240285</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>23.55584356890844</v>
+        <v>46.79348158947819</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>23.58935428983271</v>
+        <v>59.27695369180694</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>23.37887864575925</v>
+        <v>15.33491172634296</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>23.51936685104865</v>
+        <v>47.20357306124735</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>23.34499136790163</v>
+        <v>15.32299126470381</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>23.49341370298219</v>
+        <v>32.34746327921449</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>23.53349512030165</v>
+        <v>43.05398520427941</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>23.35921129981652</v>
+        <v>11.51416580857229</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>23.47896999286989</v>
+        <v>41.49380868592321</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>23.52657013274633</v>
+        <v>52.26661670313582</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>23.43417549037235</v>
+        <v>10.35787674159695</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>23.53237712993465</v>
+        <v>56.24238527814742</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>23.56857942767117</v>
+        <v>71.60539856031585</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>23.61122013899507</v>
+        <v>69.3175923145858</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>23.66644376475487</v>
+        <v>76.91248180397238</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>23.70837828650028</v>
+        <v>91.41648947644717</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>23.44599499787071</v>
+        <v>15.11292930657563</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>23.6173790232845</v>
+        <v>61.3573485889121</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>23.67782396560621</v>
+        <v>73.31224133872307</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>23.46327786213432</v>
+        <v>49.67201609681855</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>23.45506921527296</v>
+        <v>26.53506699040307</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>23.48987247395781</v>
+        <v>36.59132021990277</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>23.52035854545241</v>
+        <v>47.77489876691382</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>23.34747009036559</v>
+        <v>11.96436702113955</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>23.4566775453241</v>
+        <v>41.8388195958195</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>23.50388050457146</v>
+        <v>46.81175121662815</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>23.33583750846006</v>
+        <v>10.77206432746823</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>23.4545451740319</v>
+        <v>31.4037571595173</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>23.49287686984802</v>
+        <v>46.55540009714026</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>23.34031340191354</v>
+        <v>14.9525142192937</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>23.43406748556673</v>
+        <v>39.35231471979284</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>23.47960219463468</v>
+        <v>56.23077981073845</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>23.40102872934305</v>
+        <v>7.901321270569312</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>23.4778011611981</v>
+        <v>48.85168594654573</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>23.51273511547181</v>
+        <v>70.62420685878794</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>23.52680662492168</v>
+        <v>53.06118701412466</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>23.5726152877596</v>
+        <v>69.72168719399808</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>23.61078310285169</v>
+        <v>91.28889247597922</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>23.39350986429439</v>
+        <v>9.508670327370712</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>23.52813727811482</v>
+        <v>51.69354098982997</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>23.58665843298845</v>
+        <v>71.69112201775049</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>23.26947195634939</v>
+        <v>6.545688447143487</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>23.36841445687763</v>
+        <v>2.10066374776871</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>23.39600486789031</v>
+        <v>14.04662322221184</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>23.27236654857552</v>
+        <v>4.978524964544082</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>23.33589660739808</v>
+        <v>13.75593391198528</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>23.36978117115815</v>
+        <v>17.5072908255832</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>23.32836369941253</v>
+        <v>3.436347106791416</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>23.38076584371962</v>
+        <v>20.43810815228907</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>23.40586839009805</v>
+        <v>24.07168955979307</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>23.39194207245678</v>
+        <v>4.649480389703111</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>23.4199104567541</v>
+        <v>5.809360077494404</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>23.44433206881732</v>
+        <v>11.15974701055019</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>23.28001217294208</v>
+        <v>11.943612962477</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>23.37009232914189</v>
+        <v>5.960999171197702</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>23.41670781113032</v>
+        <v>21.08674768478161</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>23.25355863712253</v>
+        <v>16.93875615927381</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>23.40314632099702</v>
+        <v>27.32932648531716</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>23.44630845732127</v>
+        <v>31.61818318557123</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>23.23695097187179</v>
+        <v>6.635408964875051</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>23.34344516613391</v>
+        <v>20.14311218291453</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>23.39547781044561</v>
+        <v>20.89304535373714</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>23.31716318405982</v>
+        <v>8.491523917879896</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>23.4040384368639</v>
+        <v>33.62349269499266</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>23.28790843474379</v>
+        <v>8.02469349713709</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>23.40914046002909</v>
+        <v>6.787925174979609</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>23.43590064684573</v>
+        <v>13.03340884580355</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>23.30797262987164</v>
+        <v>2.320701682781888</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>23.39240194447646</v>
+        <v>19.79446398887535</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>23.42521632138716</v>
+        <v>19.34474225572352</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>23.3710965578324</v>
+        <v>1.931629926164856</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>23.44083006119277</v>
+        <v>26.52697256084868</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>23.46486111808269</v>
+        <v>25.99348545899679</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>23.47958505196893</v>
+        <v>20.96324250648785</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>23.51311758192922</v>
+        <v>20.51723857892497</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>23.5393679962641</v>
+        <v>26.67435130459687</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>23.34428544235754</v>
+        <v>13.25630797845332</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>23.46322605483221</v>
+        <v>20.56311496921543</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>23.50822851937554</v>
+        <v>26.01149190438338</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>23.29523410767371</v>
+        <v>22.91655755956889</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>23.47687963590384</v>
+        <v>37.0212624167935</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>23.5201850759007</v>
+        <v>37.14306647570655</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>23.30413187560156</v>
+        <v>9.221694674273405</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>23.44128607511476</v>
+        <v>36.2441197751934</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>23.49328026324293</v>
+        <v>33.93569954873038</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>23.39337019580023</v>
+        <v>13.64196879345533</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>23.50556839983165</v>
+        <v>51.8383557966133</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>23.28066095398157</v>
+        <v>3.732316393317809</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>23.40188846960983</v>
+        <v>3.976268051321444</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>23.42875643356793</v>
+        <v>10.91657809866151</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>23.30449130018854</v>
+        <v>0.2808754114902925</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>23.39050676822654</v>
+        <v>18.10929608149985</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>23.42331444580589</v>
+        <v>20.09983896979372</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>23.3664394031712</v>
+        <v>1.6907757191961</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>23.43749142787758</v>
+        <v>26.55844112871495</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>23.46162249033219</v>
+        <v>28.17423490733098</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>23.47612391375251</v>
+        <v>23.75164553018413</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>23.50955722333035</v>
+        <v>21.51865838662134</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>23.53655720679007</v>
+        <v>31.96529698119564</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>23.34028919223467</v>
+        <v>4.412949724254918</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>23.4613250774952</v>
+        <v>13.61995928077893</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>23.50629063396779</v>
+        <v>21.09013292406831</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>23.28669038273268</v>
+        <v>19.64116288812269</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>23.46794338925451</v>
+        <v>34.22380505192447</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>23.51142609465966</v>
+        <v>35.85917378479646</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>23.30174201379587</v>
+        <v>7.675919465494712</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>23.44052344995085</v>
+        <v>34.92715531955277</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>23.49256037687326</v>
+        <v>35.79882175502608</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>23.38913163617713</v>
+        <v>14.32845765518477</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>23.5027134353585</v>
+        <v>52.63593249616868</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>23.29375934582623</v>
+        <v>-4.127014030121941</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>23.3897436016596</v>
+        <v>-1.095848504142932</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>23.41671474149194</v>
+        <v>10.26521413607532</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>23.30979025564972</v>
+        <v>-0.2101560311207642</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>23.37528939682127</v>
+        <v>16.62753531080208</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>23.4080988867313</v>
+        <v>23.81289370739779</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>23.35863085401753</v>
+        <v>-2.961513061535989</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>23.41267981871657</v>
+        <v>22.20430280493576</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>23.43723784594886</v>
+        <v>28.41811010807203</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>23.43208940967925</v>
+        <v>20.21608489385877</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>23.45913632073144</v>
+        <v>19.3770237837957</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>23.48426320774355</v>
+        <v>29.81454689817117</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>23.3236403012989</v>
+        <v>1.069711688789578</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>23.41607429070416</v>
+        <v>7.983835211121574</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>23.46115602769789</v>
+        <v>25.87127898007243</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>23.29171530201511</v>
+        <v>11.21572352488226</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>23.43598009919241</v>
+        <v>29.40090740578691</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>23.47806121329353</v>
+        <v>32.70721893047929</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>23.29638802904252</v>
+        <v>5.64953229734704</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>23.40377520572525</v>
+        <v>30.39452531788152</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>23.45413336488606</v>
+        <v>32.8532433585864</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>23.36603415719751</v>
+        <v>8.859037236991735</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>23.45377452123679</v>
+        <v>45.0088547076557</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>23.44296785191322</v>
+        <v>36.35512548197615</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>23.42337052988919</v>
+        <v>29.56766208891026</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>23.47690149090014</v>
+        <v>41.83458128449216</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>23.51566165783132</v>
+        <v>42.41252577711172</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>23.2664514534938</v>
+        <v>20.34954263288321</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>23.42221460935792</v>
+        <v>31.61186169197773</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>23.48666370302257</v>
+        <v>33.95784780029942</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>23.25992528121314</v>
+        <v>17.40653307965091</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>23.43789817637186</v>
+        <v>25.84669158540629</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>23.49165566416858</v>
+        <v>40.52581661160751</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>23.23901084873505</v>
+        <v>2.998196538794648</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>23.3747503420481</v>
+        <v>17.90110901257701</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>23.43943686642616</v>
+        <v>27.89955573458576</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>23.34432037009353</v>
+        <v>8.265806975065914</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>23.45552396661479</v>
+        <v>37.40956806214378</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>23.50442659601376</v>
+        <v>51.41352839937358</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>23.5151906741822</v>
+        <v>33.36883531996543</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>23.58660812203536</v>
+        <v>52.30713057255397</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>23.63707364568458</v>
+        <v>57.79849889425654</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>23.31838674798825</v>
+        <v>14.54985314316995</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>23.51474082250318</v>
+        <v>34.60438759581099</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>23.59654559576438</v>
+        <v>44.0934220013787</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>23.54421079243362</v>
+        <v>52.07857646510591</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>23.56673696900693</v>
+        <v>53.17894872158126</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>23.62910117895439</v>
+        <v>57.86571570161313</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>23.6712193790973</v>
+        <v>58.90531363588417</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>23.37821532411512</v>
+        <v>30.41069653351543</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>23.57683675024069</v>
+        <v>58.34798616627752</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>23.64024992221301</v>
+        <v>53.79833254688427</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>23.33293167535883</v>
+        <v>23.38775500089924</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>23.34299320269859</v>
+        <v>9.702606927959877</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>23.51373405566552</v>
+        <v>45.62512188967077</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>23.57823748823208</v>
+        <v>49.63328171292372</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>23.45827566423092</v>
+        <v>14.95547211431507</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>23.59842820187075</v>
+        <v>64.51420357657359</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>23.64689376968665</v>
+        <v>71.42078034157002</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>23.71356717108294</v>
+        <v>72.28396816923728</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>23.79534509777445</v>
+        <v>80.6028376363316</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>23.8495268439712</v>
+        <v>84.56887847261208</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>23.48043125270751</v>
+        <v>33.306759775279</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>23.72558721271703</v>
+        <v>76.76741774789193</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>23.80619568431977</v>
+        <v>77.23315259538658</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>23.5415387077584</v>
+        <v>55.86670818882916</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>23.56382551088931</v>
+        <v>50.29301190967732</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>23.62553915921285</v>
+        <v>52.05578053394525</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>23.66864821027819</v>
+        <v>57.85967946296316</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>23.3751773770161</v>
+        <v>23.83627335495302</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>23.57574655590845</v>
+        <v>54.85198677173959</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>23.63936401878052</v>
+        <v>52.84186693332393</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>23.33238611435603</v>
+        <v>19.46798609317986</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>23.54565956367257</v>
+        <v>38.81835280446359</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>23.59924512137239</v>
+        <v>48.71112246609653</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>23.35026113990119</v>
+        <v>7.784661176094446</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>23.52218524093951</v>
+        <v>47.26156720421582</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>23.58631872227894</v>
+        <v>53.0604625051307</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>23.4625210042509</v>
+        <v>14.44072920910295</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>23.60368915192299</v>
+        <v>67.28825533362097</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>23.65201394602703</v>
+        <v>75.45832885814863</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>23.72011779425738</v>
+        <v>73.9924286274824</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>23.80072480157448</v>
+        <v>80.37910930340769</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>23.85563928434627</v>
+        <v>88.49422872413375</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>23.48761543240527</v>
+        <v>26.10451728728643</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>23.73408643144979</v>
+        <v>76.62191275803319</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>23.81433982415284</v>
+        <v>79.20561941155844</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>23.49179735062902</v>
+        <v>49.45373584812857</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>23.48502310053029</v>
+        <v>35.32170622056156</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>23.53566679873525</v>
+        <v>41.71036572705955</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>23.57501493120504</v>
+        <v>46.10380874995114</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>23.33433107853547</v>
+        <v>17.92634378810772</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>23.49022328511585</v>
+        <v>47.69558712129668</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>23.55296839942135</v>
+        <v>48.4830757164804</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>23.32169580170732</v>
+        <v>15.61620085136249</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>23.49234527260053</v>
+        <v>40.26539707860556</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>23.5439004713602</v>
+        <v>53.08875461255145</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>23.3265509339966</v>
+        <v>9.180658918077235</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>23.46122761029514</v>
+        <v>46.37968075201856</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>23.52289380738026</v>
+        <v>56.34823493949119</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>23.41746358442037</v>
+        <v>13.81338718110942</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>23.52790535377929</v>
+        <v>64.80813332528838</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>23.57484817154582</v>
+        <v>77.83225502982899</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>23.60238465240825</v>
+        <v>65.4513297408803</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>23.6692054140775</v>
+        <v>80.17713352694579</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>23.71931253298195</v>
+        <v>90.19154432468824</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>23.41488636426097</v>
+        <v>21.92991775812587</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>23.60861125049524</v>
+        <v>73.05320297899313</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>23.68689453539421</v>
+        <v>81.49025799370513</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/plate_1/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.50324099556792</v>
+        <v>15.50324099556801</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15.85104700617796</v>
+        <v>15.85104700617777</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.37464849120636</v>
+        <v>27.37464849120563</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.235592532171378</v>
+        <v>2.23559253217163</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>17.40282073174371</v>
+        <v>17.40282073174401</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21.54921350683879</v>
+        <v>21.54921350683857</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.574801039869172</v>
+        <v>3.574801039869097</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.93857762998781</v>
+        <v>27.93857762998793</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.01444431645967</v>
+        <v>32.01444431645989</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12.00899239397771</v>
+        <v>12.00899239397773</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>16.96971863297679</v>
+        <v>16.96971863297637</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>17.70394927385401</v>
+        <v>17.70394927385379</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.52674849703571</v>
+        <v>12.52674849703551</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>14.54308413737725</v>
+        <v>14.54308413737682</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25.91423742705309</v>
+        <v>25.91423742705311</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15.97042335864806</v>
+        <v>15.97042335864808</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.81410814337454</v>
+        <v>22.81410814337464</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.17083610773938</v>
+        <v>32.17083610773904</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.24846413874624</v>
+        <v>6.248464138746517</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.996701829239838</v>
+        <v>9.996701829239294</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17.0999351389953</v>
+        <v>17.09993513899537</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.2467417123733604</v>
+        <v>-0.246741712373737</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>17.31898761943802</v>
+        <v>17.31898761943812</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>16.3974015906541</v>
+        <v>16.39740159065423</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.44036085322896</v>
+        <v>24.44036085322902</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30.19472968768217</v>
+        <v>30.19472968768174</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-0.8028093738038429</v>
+        <v>-0.8028093738035587</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.42595416443426</v>
+        <v>29.42595416443424</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>30.39759007474898</v>
+        <v>30.39759007474871</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5.25631497403192</v>
+        <v>5.256314974032204</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>43.23667292167276</v>
+        <v>43.23667292167268</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>44.04987120191592</v>
+        <v>44.04987120191635</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>44.61606915349014</v>
+        <v>44.6160691534906</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>51.92100115640666</v>
+        <v>51.92100115640689</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>53.12304137182588</v>
+        <v>53.12304137182605</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>24.44017656671462</v>
+        <v>24.44017656671409</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>48.05244207195423</v>
+        <v>48.05244207195435</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>52.67055589478676</v>
+        <v>52.67055589478672</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>17.45015677565074</v>
+        <v>17.45015677565097</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.1035677683222</v>
+        <v>32.10356776832229</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>38.82554403987774</v>
+        <v>38.82554403987735</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5.733803101586815</v>
+        <v>5.733803101586663</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.65583256189251</v>
+        <v>28.65583256189239</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.94272600658737</v>
+        <v>36.94272600658743</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5.995088820714059</v>
+        <v>5.995088820714127</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>42.51416950076197</v>
+        <v>42.5141695007618</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>11.73396832381364</v>
+        <v>11.73396832381393</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.45434664268339</v>
+        <v>22.4543466426839</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.76371887606484</v>
+        <v>28.7637188760649</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-2.187620467329463</v>
+        <v>-2.187620467329456</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.63366917879693</v>
+        <v>29.63366917879643</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>33.48586744907531</v>
+        <v>33.48586744907593</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6.96161144779974</v>
+        <v>6.961611447799477</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>46.43756395929013</v>
+        <v>46.43756395929029</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>49.65570641356337</v>
+        <v>49.65570641356382</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>48.64796885265304</v>
+        <v>48.64796885265396</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>54.69665251850529</v>
+        <v>54.69665251850549</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>59.70378403668573</v>
+        <v>59.70378403668541</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>15.56007497251944</v>
+        <v>15.56007497251956</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>42.59377918598763</v>
+        <v>42.59377918598805</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>50.20137692840015</v>
+        <v>50.20137692840089</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>13.54362664247015</v>
+        <v>13.54362664247035</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.10630971453498</v>
+        <v>29.10630971453503</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>38.08352439013763</v>
+        <v>38.08352439013787</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3.201422837901784</v>
+        <v>3.201422837901813</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.83144054324136</v>
+        <v>26.83144054324172</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>40.32554512294189</v>
+        <v>40.32554512294209</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>7.214922693008113</v>
+        <v>7.214922693007797</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>44.4396416316509</v>
+        <v>44.43964163165105</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3.285451052323037</v>
+        <v>3.285451052323275</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>15.23960747149685</v>
+        <v>15.23960747149695</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.70143602541044</v>
+        <v>25.70143602541055</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-1.093303099163627</v>
+        <v>-1.093303099163517</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>26.85386734365591</v>
+        <v>26.85386734365563</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>35.88856638640789</v>
+        <v>35.88856638640848</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.9741360392339473</v>
+        <v>0.9741360392345086</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>38.43064308600597</v>
+        <v>38.43064308600576</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.92248723815995</v>
+        <v>45.92248723816017</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>35.94257040598318</v>
+        <v>35.94257040598353</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>41.29184237672372</v>
+        <v>41.2918423767237</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>45.31958130022625</v>
+        <v>45.31958130022653</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>8.280491837371995</v>
+        <v>8.280491837371656</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.05091216157862</v>
+        <v>29.05091216157873</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>45.88488945257502</v>
+        <v>45.88488945257512</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>9.218839612216286</v>
+        <v>9.218839612216211</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>27.16534168198631</v>
+        <v>27.16534168198613</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>38.6152148706544</v>
+        <v>38.61521487065448</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6.55067237563885</v>
+        <v>6.550672375638971</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>25.42251169511879</v>
+        <v>25.42251169511874</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>40.90284773026737</v>
+        <v>40.90284773026724</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>5.645547581153593</v>
+        <v>5.645547581153881</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>38.49557143143209</v>
+        <v>38.49557143143161</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>26.57724549511068</v>
+        <v>26.57724549511075</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>17.75353271132908</v>
+        <v>17.75353271132939</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>31.28274856804526</v>
+        <v>31.28274856804513</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>34.40601858022371</v>
+        <v>34.40601858022323</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>4.289200425128701</v>
+        <v>4.289200425128403</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>16.68319653121461</v>
+        <v>16.68319653121442</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>22.06337768292792</v>
+        <v>22.06337768292806</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>13.52449884057597</v>
+        <v>13.52449884057621</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>19.82603799283041</v>
+        <v>19.82603799283017</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.46179942345638</v>
+        <v>29.46179942345621</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>3.201058834814738</v>
+        <v>3.201058834814983</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>7.481862007640467</v>
+        <v>7.481862007640386</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>13.81387230693587</v>
+        <v>13.81387230693626</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-1.516428707816718</v>
+        <v>-1.516428707816974</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>19.31240676894368</v>
+        <v>19.31240676894377</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>32.52394219327277</v>
+        <v>32.5239421932726</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>22.60637551964126</v>
+        <v>22.6063755196414</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>39.51036030074241</v>
+        <v>39.51036030074238</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>47.20163850255852</v>
+        <v>47.20163850255817</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2.426527589187589</v>
+        <v>2.426527589187554</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>16.17604131007128</v>
+        <v>16.1760413100709</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>26.46833793030566</v>
+        <v>26.46833793030551</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>53.03232137327247</v>
+        <v>53.03232137327268</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>48.73112563857005</v>
+        <v>48.73112563856994</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>57.45729861547943</v>
+        <v>57.45729861547937</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>61.99678612748791</v>
+        <v>61.99678612748815</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>20.27047009066034</v>
+        <v>20.27047009065997</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>56.05066023544336</v>
+        <v>56.05066023544332</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>59.08675875775523</v>
+        <v>59.08675875775496</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>20.81392078017295</v>
+        <v>20.81392078017339</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>38.76437412668794</v>
+        <v>38.76437412668793</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>45.3407945288609</v>
+        <v>45.34079452886084</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>7.677712053138487</v>
+        <v>7.677712053138157</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>38.42205110380144</v>
+        <v>38.42205110380129</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>43.10955037414782</v>
+        <v>43.10955037414818</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>10.45896968677256</v>
+        <v>10.45896968677234</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>57.46891666091186</v>
+        <v>57.46891666091203</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>67.48386946527792</v>
+        <v>67.48386946527799</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>77.69193119272522</v>
+        <v>77.69193119272494</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>83.83975305625486</v>
+        <v>83.83975305625498</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>88.09397649522383</v>
+        <v>88.0939764952238</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.88862538346488</v>
+        <v>29.8886253834649</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>73.01574538943446</v>
+        <v>73.01574538943463</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>80.44545650873482</v>
+        <v>80.44545650873472</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>59.64385400208869</v>
+        <v>59.6438540020885</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>43.63361529631318</v>
+        <v>43.63361529631341</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>49.89406537393101</v>
+        <v>49.89406537393059</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>60.88201691819475</v>
+        <v>60.88201691819485</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.04850716776172</v>
+        <v>13.04850716776168</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>52.35025300957621</v>
+        <v>52.35025300957604</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>60.08593559529926</v>
+        <v>60.08593559529912</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>16.13675740287263</v>
+        <v>16.13675740287303</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.89569852643469</v>
+        <v>36.89569852643442</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>45.83881250944563</v>
+        <v>45.83881250944569</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>4.349112965698403</v>
+        <v>4.349112965698577</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>38.48547987475665</v>
+        <v>38.485479874757</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>48.09245428079296</v>
+        <v>48.09245428079302</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>9.793340500557093</v>
+        <v>9.7933405005572</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>60.14453003046115</v>
+        <v>60.14453003046118</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>74.07608659084369</v>
+        <v>74.07608659084347</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>77.51923809424305</v>
+        <v>77.51923809424308</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>81.28085148620926</v>
+        <v>81.28085148620899</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>91.71824863052547</v>
+        <v>91.71824863052532</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>19.88611402606241</v>
+        <v>19.88611402606198</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>69.46879262736211</v>
+        <v>69.46879262736208</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>83.27587827133361</v>
+        <v>83.27587827133357</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>55.18298546869691</v>
+        <v>55.18298546869707</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.0741838147263</v>
+        <v>28.07418381472629</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.38907776497199</v>
+        <v>37.38907776497133</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>48.41921170059925</v>
+        <v>48.41921170059885</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>9.371192083765735</v>
+        <v>9.37119208376529</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>45.4228770478199</v>
+        <v>45.42287704781986</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>55.89288068937597</v>
+        <v>55.89288068937607</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>10.35635861216594</v>
+        <v>10.35635861216577</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>34.17630606865049</v>
+        <v>34.17630606865018</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>47.82795191402501</v>
+        <v>47.82795191402485</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>6.491554034413014</v>
+        <v>6.491554034413301</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.40808441711459</v>
+        <v>34.40808441711452</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>50.48354272952501</v>
+        <v>50.48354272952486</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>5.446504443240329</v>
+        <v>5.446504443240492</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>50.16065670858424</v>
+        <v>50.16065670858458</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>70.96071286450439</v>
+        <v>70.96071286450456</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>57.31806570354463</v>
+        <v>57.31806570354458</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>68.67949359378524</v>
+        <v>68.67949359378488</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>88.11374548485728</v>
+        <v>88.11374548485747</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>9.340228103894791</v>
+        <v>9.340228103894557</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>54.69324567518377</v>
+        <v>54.69324567518363</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>77.01851212279361</v>
+        <v>77.01851212279354</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>9.508445418454613</v>
+        <v>9.508445418454539</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>15.83677541976326</v>
+        <v>15.83677541976318</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.84453204534465</v>
+        <v>28.84453204534453</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1.404054841427431</v>
+        <v>1.404054841427889</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>21.07814487694488</v>
+        <v>21.07814487694463</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>26.39305255851991</v>
+        <v>26.39305255852</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>9.024229227624346</v>
+        <v>9.024229227624208</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>39.03019025347541</v>
+        <v>39.03019025347508</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>44.34243210863687</v>
+        <v>44.34243210863677</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>24.07260252041176</v>
+        <v>24.07260252041152</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.96653386687728</v>
+        <v>29.96653386687731</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>32.74942707108578</v>
+        <v>32.74942707108549</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>12.36488327110033</v>
+        <v>12.3648832711003</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>21.6671039881549</v>
+        <v>21.66710398815523</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>39.75149397226065</v>
+        <v>39.75149397226097</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>10.28849857836444</v>
+        <v>10.28849857836446</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>23.33731170249606</v>
+        <v>23.33731170249601</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.56707591489194</v>
+        <v>29.56707591489182</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-5.194376973625115</v>
+        <v>-5.194376973624866</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>9.563530487338619</v>
+        <v>9.563530487338364</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>13.85203204897693</v>
+        <v>13.85203204897701</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-1.365616944581891</v>
+        <v>-1.365616944581696</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>26.29589674390227</v>
+        <v>26.29589674390234</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>11.13178245962503</v>
+        <v>11.13178245962484</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>23.87247224397002</v>
+        <v>23.87247224397011</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>31.41445576134505</v>
+        <v>31.41445576134504</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1.938392286169734</v>
+        <v>1.938392286169698</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>34.55114581105624</v>
+        <v>34.55114581105621</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>36.02975792453676</v>
+        <v>36.02975792453698</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>9.537612334745884</v>
+        <v>9.537612334745873</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>51.20918335539112</v>
+        <v>51.20918335539073</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>52.758849457114</v>
+        <v>52.75884945711401</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>49.1002797398198</v>
+        <v>49.10027973981984</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>53.31686928077123</v>
+        <v>53.3168692807711</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>57.85149662170734</v>
+        <v>57.85149662170681</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>18.42396604797618</v>
+        <v>18.42396604797611</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>46.78617384469527</v>
+        <v>46.78617384469523</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>54.90103311984511</v>
+        <v>54.90103311984487</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>15.91069320050835</v>
+        <v>15.91069320050841</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>35.69484858813269</v>
+        <v>35.69484858813267</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>39.99614580531336</v>
+        <v>39.99614580531314</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-0.7776231758675323</v>
+        <v>-0.7776231758674079</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>31.55460150119564</v>
+        <v>31.55460150119543</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>35.1968068291079</v>
+        <v>35.1968068291078</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>6.166965542132928</v>
+        <v>6.166965542133035</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>50.92225154336316</v>
+        <v>50.92225154336332</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>4.73758175334504</v>
+        <v>4.737581753344831</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>18.345593257983</v>
+        <v>18.34559325798326</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>27.3485892499921</v>
+        <v>27.34858924999223</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-0.6483128291922249</v>
+        <v>-0.6483128291920863</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>31.58808077942061</v>
+        <v>31.58808077942027</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>36.42410517738286</v>
+        <v>36.42410517738305</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>8.305412667633508</v>
+        <v>8.305412667633648</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>49.48702805464291</v>
+        <v>49.48702805464274</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>54.07239632625807</v>
+        <v>54.07239632625777</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>51.39522789179318</v>
+        <v>51.39522789179297</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>53.04447280597932</v>
+        <v>53.04447280597969</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>62.9089313619796</v>
+        <v>62.9089313619795</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>8.716427282708636</v>
+        <v>8.716427282708429</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>38.42517666462412</v>
+        <v>38.42517666462409</v>
       </c>
     </row>
     <row r="242">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>9.990568995543192</v>
+        <v>9.990568995543128</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.44755340844514</v>
+        <v>29.44755340844516</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>37.08749268662321</v>
+        <v>37.08749268662315</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-4.170841108537193</v>
+        <v>-4.1708411085372</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>27.33507552182159</v>
+        <v>27.33507552182165</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>36.30126436411654</v>
+        <v>36.30126436411653</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>4.956929858908453</v>
+        <v>4.956929858908534</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>48.80629268081827</v>
+        <v>48.80629268081832</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-2.282980610246437</v>
+        <v>-2.282980610246256</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>12.42550759596575</v>
+        <v>12.42550759596603</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>26.48376275977913</v>
+        <v>26.48376275977922</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-1.506808348642775</v>
+        <v>-1.506808348642839</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>27.6300194302507</v>
+        <v>27.63001943025098</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>38.31380463809818</v>
+        <v>38.31380463809828</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>4.417745638636184</v>
+        <v>4.417745638635989</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>43.80829928224686</v>
+        <v>43.80829928224664</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>53.62033720640011</v>
+        <v>53.62033720639961</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>45.132755106091</v>
+        <v>45.13275510609061</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>48.71348231861722</v>
+        <v>48.71348231861749</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>58.26353648878279</v>
+        <v>58.26353648878286</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>4.854643047325791</v>
+        <v>4.854643047325414</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>30.00582030089913</v>
+        <v>30.00582030089868</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>51.0656068685209</v>
+        <v>51.06560686852063</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>3.171549807140813</v>
+        <v>3.171549807140668</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>23.59770423268684</v>
+        <v>23.59770423268676</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>32.8433222036205</v>
+        <v>32.84332220362062</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-5.392703698812742</v>
+        <v>-5.392703698812678</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>20.30968799488037</v>
+        <v>20.30968799488011</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>30.97115167657869</v>
+        <v>30.97115167657842</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0.3456282048968866</v>
+        <v>0.3456282048965669</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>38.60149863947414</v>
+        <v>38.60149863947382</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>32.74197363347798</v>
+        <v>32.74197363347781</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>23.15219265000685</v>
+        <v>23.15219265000677</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>35.6618028916122</v>
+        <v>35.6618028916123</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>37.01969775342356</v>
+        <v>37.01969775342334</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>7.094203557808576</v>
+        <v>7.094203557808505</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>23.60825062421237</v>
+        <v>23.60825062421206</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>31.64465970184244</v>
+        <v>31.64465970184245</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>13.80340259313462</v>
+        <v>13.80340259313456</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>25.75171868037691</v>
+        <v>25.75171868037716</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>39.02701844583694</v>
+        <v>39.02701844583683</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-7.309711936213599</v>
+        <v>-7.309711936213365</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>9.893469976787909</v>
+        <v>9.893469976788083</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>20.55024553524359</v>
+        <v>20.55024553524355</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>1.538546249789679</v>
+        <v>1.538546249789693</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>34.6643532377245</v>
+        <v>34.66435323772427</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>49.3035894075817</v>
+        <v>49.30358940758173</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>30.27396727782861</v>
+        <v>30.27396727782897</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>46.21940637036217</v>
+        <v>46.21940637036194</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>53.78444005160202</v>
+        <v>53.78444005160168</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>6.254650233716401</v>
+        <v>6.254650233716173</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.22825779052092</v>
+        <v>29.22825779052034</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>42.87616162936132</v>
+        <v>42.87616162936115</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>57.40966323656959</v>
+        <v>57.40966323656995</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>52.92429726038461</v>
+        <v>52.92429726038481</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>59.96031205928408</v>
+        <v>59.96031205928406</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>62.31106655459079</v>
+        <v>62.31106655459088</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>19.79499678639801</v>
+        <v>19.79499678639803</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>59.12214567771093</v>
+        <v>59.12214567771092</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>62.73281447471761</v>
+        <v>62.73281447471754</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>20.11784056717942</v>
+        <v>20.11784056717941</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>42.17301187129303</v>
+        <v>42.17301187129321</v>
       </c>
     </row>
     <row r="305">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0.3925865657569112</v>
+        <v>0.3925865657567442</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>42.2273575401753</v>
+        <v>42.22735754017506</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>46.63703432783777</v>
+        <v>46.6370343278377</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>10.19441602507386</v>
+        <v>10.19441602507393</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>67.4631383630371</v>
+        <v>67.46313836303679</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>74.57236987263313</v>
+        <v>74.57236987263305</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>76.43254092841747</v>
+        <v>76.43254092841785</v>
       </c>
     </row>
     <row r="313">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>88.33055369287879</v>
+        <v>88.33055369287888</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.12161596349009</v>
+        <v>28.12161596348989</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>78.75735054657517</v>
+        <v>78.75735054657514</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>82.98054865445715</v>
+        <v>82.98054865445722</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>60.37644380889243</v>
+        <v>60.37644380889233</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>47.41911605495473</v>
+        <v>47.4191160549549</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>51.32679433772186</v>
+        <v>51.32679433772172</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>60.0739729427077</v>
+        <v>60.07397294270754</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>11.01327526768424</v>
+        <v>11.01327526768404</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>53.11415590690121</v>
+        <v>53.1141559069011</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>60.8215752036958</v>
+        <v>60.82157520369547</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>13.05684610203251</v>
+        <v>13.05684610203223</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>37.40002373512127</v>
+        <v>37.40002373512091</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>47.4709176127418</v>
+        <v>47.47091761274179</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-4.850186179101886</v>
+        <v>-4.850186179101726</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>39.69847607086813</v>
+        <v>39.69847607086834</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>47.62605030768041</v>
+        <v>47.6260503076808</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>6.506519075118735</v>
+        <v>6.506519075118742</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>66.26351609399889</v>
+        <v>66.26351609399853</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>76.28348324990708</v>
+        <v>76.28348324990702</v>
       </c>
     </row>
     <row r="334">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>78.19119079197216</v>
+        <v>78.19119079197213</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>90.61462354004323</v>
+        <v>90.61462354004303</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>17.44044258469924</v>
+        <v>17.44044258469904</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>74.98642664935984</v>
+        <v>74.9864266493601</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>82.54900448368922</v>
+        <v>82.54900448368949</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>51.4740100842736</v>
+        <v>51.47401008427326</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.14012676805508</v>
+        <v>29.14012676805548</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>36.19342354172527</v>
+        <v>36.1934235417251</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>43.97709841695931</v>
+        <v>43.97709841695891</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>5.737128894538696</v>
+        <v>5.737128894538824</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>42.96863036575681</v>
+        <v>42.9686303657565</v>
       </c>
     </row>
     <row r="346">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>8.257016054758624</v>
+        <v>8.257016054758697</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>36.78281314429852</v>
+        <v>36.78281314429849</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>50.52253587067736</v>
+        <v>50.52253587067749</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-3.899485673968311</v>
+        <v>-3.899485673968691</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>36.55405251512225</v>
+        <v>36.55405251512231</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>49.59967893344255</v>
+        <v>49.59967893344263</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>4.84792184712413</v>
+        <v>4.847921847124031</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>60.6676698530668</v>
+        <v>60.66766985306666</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>76.76867283121163</v>
+        <v>76.76867283121157</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>61.70027591138957</v>
+        <v>61.70027591138968</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>73.5582058155196</v>
+        <v>73.55820581551937</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>87.99402266319295</v>
+        <v>87.99402266319299</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>11.39362102238013</v>
+        <v>11.39362102237994</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>68.55847665735401</v>
+        <v>68.55847665735392</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>82.6355177773182</v>
+        <v>82.63551777731803</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>8.301887338271722</v>
+        <v>8.301887338271708</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>11.530455635138</v>
+        <v>11.53045563513783</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>23.14630053566064</v>
+        <v>23.14630053566046</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-2.46017843469836</v>
+        <v>-2.460178434698154</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>12.565068058942</v>
+        <v>12.56506805894214</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>16.54307344931534</v>
+        <v>16.54307344931552</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>4.556226551727075</v>
+        <v>4.556226551727359</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>30.50186155092892</v>
+        <v>30.50186155092889</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>34.73043454321699</v>
+        <v>34.73043454321684</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>19.29158201725565</v>
+        <v>19.29158201725492</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>24.61867678125237</v>
+        <v>24.61867678125206</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>27.06679083176255</v>
+        <v>27.06679083176238</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>7.463372222791088</v>
+        <v>7.463372222791147</v>
       </c>
     </row>
     <row r="375">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.70857267295616</v>
+        <v>28.70857267295636</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>11.44586154124577</v>
+        <v>11.44586154124625</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>26.47969777527168</v>
+        <v>26.47969777527167</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>32.68954056488525</v>
+        <v>32.68954056488531</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-5.131377606366332</v>
+        <v>-5.131377606366467</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>11.87462258710598</v>
+        <v>11.8746225871057</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>16.38266027016866</v>
+        <v>16.38266027016877</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.01079981383196937</v>
+        <v>0.0107998138318699</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>30.35811348156998</v>
+        <v>30.35811348156994</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>9.780094531309192</v>
+        <v>9.780094531309288</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>20.25323539802539</v>
+        <v>20.25323539802538</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>26.4490997482955</v>
+        <v>26.44909974829547</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-0.8036195874817089</v>
+        <v>-0.8036195874818155</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.29020580464239</v>
+        <v>28.29020580464269</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.61806154817824</v>
+        <v>28.61806154817845</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>5.491660874924101</v>
+        <v>5.49166087492404</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>44.14782056838525</v>
+        <v>44.14782056838506</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>44.69283493098605</v>
+        <v>44.69283493098573</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>44.32118115656617</v>
+        <v>44.32118115656601</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>47.81903065017224</v>
+        <v>47.81903065017202</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>52.28513856587929</v>
+        <v>52.28513856587934</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>11.93294981841107</v>
+        <v>11.93294981841106</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>39.68393512062706</v>
+        <v>39.68393512062721</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>43.73081853099119</v>
+        <v>43.73081853099129</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>16.32188590672659</v>
+        <v>16.32188590672665</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>39.44864903939639</v>
+        <v>39.44864903939627</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>43.2534798950541</v>
+        <v>43.25347989505403</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-0.6285238041393235</v>
+        <v>-0.6285238041394656</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>35.87095028589042</v>
+        <v>35.87095028589077</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>39.15115052212145</v>
+        <v>39.15115052212168</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>6.724409502913179</v>
+        <v>6.724409502913108</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>55.92614655691783</v>
+        <v>55.9261465569176</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>4.107347006003874</v>
+        <v>4.107347006003785</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>15.5302590147994</v>
+        <v>15.53025901479936</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>23.26067283436701</v>
+        <v>23.26067283436717</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-2.367331079254466</v>
+        <v>-2.367331079254647</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>26.49662179858779</v>
+        <v>26.49662179858783</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>30.2763718382989</v>
+        <v>30.27637183829864</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>5.291504306757073</v>
+        <v>5.291504306757066</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>43.57691579043215</v>
+        <v>43.57691579043231</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>47.23179791037846</v>
+        <v>47.23179791037839</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>47.53409766574158</v>
+        <v>47.53409766574164</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>48.48812851469845</v>
+        <v>48.48812851469863</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>58.38687484667115</v>
+        <v>58.3868748466712</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>3.01893407098456</v>
+        <v>3.018934070984621</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>31.97511965633974</v>
+        <v>31.97511965634003</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>38.51133640248596</v>
+        <v>38.51133640248634</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>11.51470233310609</v>
+        <v>11.5147023331061</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>34.61785035606012</v>
+        <v>34.61785035605985</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>41.45427305305574</v>
+        <v>41.45427305305572</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-2.441067010339172</v>
+        <v>-2.441067010339228</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>33.66145458757886</v>
+        <v>33.66145458757863</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>41.85914740118311</v>
+        <v>41.85914740118291</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>7.054697237236219</v>
+        <v>7.054697237236166</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>55.72168595346342</v>
+        <v>55.72168595346334</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-2.067039164210176</v>
+        <v>-2.067039164210087</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>9.665498214924614</v>
+        <v>9.665498214924641</v>
       </c>
     </row>
     <row r="433">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-3.692797112533437</v>
+        <v>-3.692797112533576</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>20.97687196260524</v>
+        <v>20.9768719626052</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>30.82835936813719</v>
+        <v>30.82835936813711</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>1.639683839862133</v>
+        <v>1.639683839861956</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>37.1190543175159</v>
+        <v>37.11905431751598</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>46.2726080638358</v>
+        <v>46.27260806383592</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>41.29454425666735</v>
+        <v>41.29454425666718</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>44.4207426324689</v>
+        <v>44.42074263246859</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>54.04240153741065</v>
+        <v>54.04240153741068</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>0.4560628944444041</v>
+        <v>0.4560628944441127</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>23.96375470698044</v>
+        <v>23.96375470698004</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>40.9892549356793</v>
+        <v>40.98925493567911</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>5.950741141507226</v>
+        <v>5.950741141507375</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.28995202777389</v>
+        <v>29.28995202777391</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>37.98121966536021</v>
+        <v>37.98121966536035</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-2.994108440638705</v>
+        <v>-2.994108440638815</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>26.20305248484408</v>
+        <v>26.20305248484397</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>36.39285240808027</v>
+        <v>36.39285240808006</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>3.819221748805944</v>
+        <v>3.819221748805735</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>45.90908503007226</v>
+        <v>45.9090850300723</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>37.05076050185822</v>
+        <v>37.0507605018582</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.64884117459088</v>
+        <v>29.64884117459082</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>43.04767419755799</v>
+        <v>43.04767419755783</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>42.53501987884525</v>
+        <v>42.53501987884522</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>7.618454688677488</v>
+        <v>7.618454688677232</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.55632772600752</v>
+        <v>28.55632772600785</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>35.81399478263928</v>
+        <v>35.81399478263936</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>13.17759626847478</v>
+        <v>13.17759626847492</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.15077557796135</v>
+        <v>27.15077557796134</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>40.01179478324465</v>
+        <v>40.01179478324444</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-9.58932936516489</v>
+        <v>-9.589329365164783</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>10.12155734334931</v>
+        <v>10.12155734334951</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>19.87561315574215</v>
+        <v>19.87561315574219</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-1.195922748786604</v>
+        <v>-1.195922748786625</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.0082389095206</v>
+        <v>35.00823890952076</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>48.78236518028098</v>
+        <v>48.78236518028122</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>35.33558038068985</v>
+        <v>35.33558038068963</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>53.59192572973653</v>
+        <v>53.59192572973627</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>56.92343324967791</v>
+        <v>56.92343324967806</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>4.693949586758276</v>
+        <v>4.693949586758063</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>32.51875404279036</v>
+        <v>32.51875404278981</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>44.76741019414969</v>
+        <v>44.76741019414975</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>62.0453497934754</v>
+        <v>62.04534979347547</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>59.35936980747216</v>
+        <v>59.35936980747226</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>67.42591206227421</v>
+        <v>67.42591206227411</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>67.32914222348542</v>
+        <v>67.32914222348509</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>18.67831274133177</v>
+        <v>18.67831274133152</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>64.22735941292903</v>
+        <v>64.22735941292895</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>66.87650553510758</v>
+        <v>66.87650553510746</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>18.9954200830735</v>
+        <v>18.99542008307359</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>44.90475550187489</v>
+        <v>44.9047555018748</v>
       </c>
     </row>
     <row r="485">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-0.4736016382387866</v>
+        <v>-0.4736016382390495</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>46.48732271529335</v>
+        <v>46.48732271529322</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>49.18955907183117</v>
+        <v>49.18955907183081</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>7.91084769712962</v>
+        <v>7.910847697129537</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>70.65294461187761</v>
+        <v>70.6529446118773</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>76.02931632964075</v>
+        <v>76.02931632964081</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>82.55224615377388</v>
+        <v>82.55224615377428</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>90.61430449277373</v>
+        <v>90.61430449277401</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>91.99534113113427</v>
+        <v>91.99534113113455</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>26.08652721614022</v>
+        <v>26.08652721613992</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>84.26458232437555</v>
+        <v>84.26458232437565</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>86.44514053394644</v>
+        <v>86.44514053394637</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>66.54272515626317</v>
+        <v>66.54272515626332</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>55.53537598797598</v>
+        <v>55.53537598797594</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>60.69339381345594</v>
+        <v>60.69339381345593</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>66.70899177289081</v>
+        <v>66.70899177289078</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>11.40963460466888</v>
+        <v>11.40963460466863</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>59.96177119619121</v>
+        <v>59.96177119619135</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>66.43121551574555</v>
+        <v>66.43121551574561</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>12.66749890819113</v>
+        <v>12.66749890819085</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>41.42334902219834</v>
+        <v>41.42334902219822</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>49.97482827211361</v>
+        <v>49.97482827211351</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-4.223512508057546</v>
+        <v>-4.223512508057443</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>46.20689955994325</v>
+        <v>46.20689955994285</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>51.89124151654588</v>
+        <v>51.89124151654624</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>5.649218378667587</v>
+        <v>5.649218378667488</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>71.54628757657569</v>
+        <v>71.54628757657575</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>79.32867206892007</v>
+        <v>79.32867206892001</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>82.56709732862269</v>
+        <v>82.56709732862259</v>
       </c>
     </row>
     <row r="515">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>95.79277168895575</v>
+        <v>95.79277168895584</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>16.71119340452359</v>
+        <v>16.71119340452336</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>82.58110619011418</v>
+        <v>82.58110619011462</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>87.59257600041602</v>
+        <v>87.59257600041641</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>58.34889665026026</v>
+        <v>58.34889665026017</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>38.28287447386425</v>
+        <v>38.28287447386434</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>46.67158272921343</v>
+        <v>46.67158272921314</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>52.17517095954328</v>
+        <v>52.17517095954311</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>7.76009882263395</v>
+        <v>7.760098822634069</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>50.31576606441482</v>
+        <v>50.31576606441459</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>58.8808971393095</v>
+        <v>58.88089713930945</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>8.181793803198335</v>
+        <v>8.181793803198275</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>40.22915315222772</v>
+        <v>40.22915315222748</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>52.73255550843338</v>
+        <v>52.73255550843343</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-4.077030262673336</v>
+        <v>-4.077030262673727</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>40.9034320105915</v>
+        <v>40.90343201059169</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>52.01893943850342</v>
+        <v>52.01893943850359</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>3.660249822095253</v>
+        <v>3.660249822095025</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>64.4113827624797</v>
+        <v>64.41138276247948</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>78.63767836901337</v>
+        <v>78.63767836901297</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>69.23639961167459</v>
+        <v>69.23639961167463</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>84.19823638063556</v>
+        <v>84.19823638063527</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>93.42400473617884</v>
+        <v>93.42400473617869</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>11.14091270967814</v>
+        <v>11.14091270967795</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>75.3448141213352</v>
+        <v>75.34481412133491</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>86.94262205028012</v>
+        <v>86.94262205027999</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>13.75262463903062</v>
+        <v>13.75262463903042</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>11.21058715436968</v>
+        <v>11.21058715436957</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>19.49442929222304</v>
+        <v>19.49442929222283</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>5.895024840321472</v>
+        <v>5.895024840321092</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>14.76695090646582</v>
+        <v>14.76695090646573</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>16.47913382581429</v>
+        <v>16.47913382581444</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>2.49206382238587</v>
+        <v>2.492063822385937</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>20.07211716983503</v>
+        <v>20.07211716983446</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>21.24344910204045</v>
+        <v>21.2434491020397</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>5.106202575695757</v>
+        <v>5.106202575695686</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>8.335288003726887</v>
+        <v>8.335288003726554</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>9.29284357857069</v>
+        <v>9.292843578570807</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>13.34585685848755</v>
+        <v>13.34585685848741</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>9.336883149475135</v>
+        <v>9.336883149475435</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>17.06468392220354</v>
+        <v>17.06468392220305</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>12.28621234527258</v>
+        <v>12.28621234527241</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>12.32318918199643</v>
+        <v>12.3231891819962</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>20.18038773037868</v>
+        <v>20.18038773037849</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>12.13448299713269</v>
+        <v>12.13448299713194</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>5.95198680824825</v>
+        <v>5.951986808247884</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>11.78866736470112</v>
+        <v>11.78866736470061</v>
       </c>
     </row>
     <row r="563">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>5.974752213353973</v>
+        <v>5.974752213354193</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.15115855051798</v>
+        <v>16.15115855051763</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>19.22544546471871</v>
+        <v>19.22544546471864</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>22.69211789960911</v>
+        <v>22.69211789960906</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>3.462170532937964</v>
+        <v>3.462170532937915</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>24.80541154275333</v>
+        <v>24.80541154275354</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>24.41537929364458</v>
+        <v>24.41537929364482</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>4.787001388697469</v>
+        <v>4.787001388697629</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>33.48826827807004</v>
+        <v>33.48826827807032</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>32.47696188807942</v>
+        <v>32.47696188807929</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>33.00758671881839</v>
+        <v>33.00758671881817</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>37.96040544393615</v>
+        <v>37.96040544393553</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>40.6474564025775</v>
+        <v>40.64745640257753</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>24.24828029727197</v>
+        <v>24.24828029727187</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>38.34237648026155</v>
+        <v>38.34237648026183</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>40.62089516344314</v>
+        <v>40.62089516344264</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>11.823266887945</v>
+        <v>11.82326688794523</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>16.58295646882976</v>
+        <v>16.58295646882994</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>22.32836627490487</v>
+        <v>22.32836627490506</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>8.479349658636879</v>
+        <v>8.479349658636842</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>17.56484458289962</v>
+        <v>17.5648445828995</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>25.1191093725209</v>
+        <v>25.11910937252084</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>23.93229410665565</v>
+        <v>23.93229410665526</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>13.8593119982459</v>
+        <v>13.85931199824582</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>19.20523149365381</v>
+        <v>19.20523149365415</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>23.20779808369262</v>
+        <v>23.20779808369277</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>3.201743501766728</v>
+        <v>3.201743501766398</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.78084304497824</v>
+        <v>25.78084304497767</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.1546507551364</v>
+        <v>28.15465075513579</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>8.045434896171386</v>
+        <v>8.045434896171709</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>37.9112711790993</v>
+        <v>37.91127117909909</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>39.23592982143767</v>
+        <v>39.23592982143802</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>37.377443343845</v>
+        <v>37.37744334384471</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>40.74378309958638</v>
+        <v>40.74378309958558</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>47.44408169669913</v>
+        <v>47.44408169669839</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>17.10292439159515</v>
+        <v>17.10292439159512</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>33.88553971170853</v>
+        <v>33.88553971170862</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>39.17935402197196</v>
+        <v>39.17935402197256</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>9.339245826487826</v>
+        <v>9.339245826487819</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>14.61517576810835</v>
+        <v>14.61517576810842</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>22.11102555848302</v>
+        <v>22.111025558483</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>6.459281342132709</v>
+        <v>6.459281342132574</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>15.87924342928983</v>
+        <v>15.87924342928941</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.92369123398667</v>
+        <v>27.9236912339866</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>3.282436765540421</v>
+        <v>3.282436765540471</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>26.31719424858511</v>
+        <v>26.31719424858537</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>4.121452646388523</v>
+        <v>4.121452646388502</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>11.46353709847987</v>
+        <v>11.46353709847999</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>18.74709602051625</v>
+        <v>18.74709602051663</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>1.994355784383838</v>
+        <v>1.994355784383984</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>21.600586820183</v>
+        <v>21.60058682018302</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.12255481219682</v>
+        <v>28.1225548121964</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-0.4663398652811956</v>
+        <v>-0.4663398652811281</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.24301395553104</v>
+        <v>28.2430139555311</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>32.81717502408306</v>
+        <v>32.81717502408258</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>24.5900138263999</v>
+        <v>24.59001382639996</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>27.02997283458061</v>
+        <v>27.02997283457987</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>31.91750708866678</v>
+        <v>31.91750708866657</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>8.587676012794837</v>
+        <v>8.587676012794731</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>20.25099585704114</v>
+        <v>20.25099585704108</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>33.67375622791996</v>
+        <v>33.67375622792033</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>4.798980420264868</v>
+        <v>4.798980420264808</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>13.92638900725056</v>
+        <v>13.92638900725077</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>22.62479141052746</v>
+        <v>22.62479141052727</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>8.969589439309317</v>
+        <v>8.969589439309363</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>15.48640954664172</v>
+        <v>15.48640954664158</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>27.95996031283818</v>
+        <v>27.95996031283777</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>0.6176526223946333</v>
+        <v>0.6176526223947185</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>21.08225921103399</v>
+        <v>21.08225921103382</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>13.60739773872271</v>
+        <v>13.60739773872249</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>6.350779702682562</v>
+        <v>6.350779702682892</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>19.71071263011352</v>
+        <v>19.71071263011318</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>23.14831593379023</v>
+        <v>23.14831593379056</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>4.107612164954439</v>
+        <v>4.107612164954229</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>4.575985586428885</v>
+        <v>4.575985586428917</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>7.409488303067461</v>
+        <v>7.40948830306713</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>13.84113532746768</v>
+        <v>13.84113532746772</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>14.01676526297583</v>
+        <v>14.01676526297575</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>23.98882885535964</v>
+        <v>23.98882885535971</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>10.68273885695215</v>
+        <v>10.68273885695173</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>6.0856700483609</v>
+        <v>6.085670048360448</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>13.40431852575552</v>
+        <v>13.40431852575543</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>0.6679838458910474</v>
+        <v>0.6679838458911895</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>12.41959423260915</v>
+        <v>12.41959423260909</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>26.16154622847156</v>
+        <v>26.16154622847177</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>12.54249400109117</v>
+        <v>12.54249400109114</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.64534711141663</v>
+        <v>29.64534711141689</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>39.25008239850304</v>
+        <v>39.25008239850271</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>4.141134352461115</v>
+        <v>4.141134352460575</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>6.936933467330597</v>
+        <v>6.936933467329741</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>16.34088755114304</v>
+        <v>16.34088755114277</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>33.4630873371199</v>
+        <v>33.46308733711978</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.04971922604852</v>
+        <v>29.04971922604893</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>36.66602784486422</v>
+        <v>36.66602784486433</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>43.11619632114063</v>
+        <v>43.11619632114054</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>15.06399811857612</v>
+        <v>15.06399811857627</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>34.14013603798549</v>
+        <v>34.14013603798514</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>35.48967756456456</v>
+        <v>35.48967756456473</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>19.40882073894704</v>
+        <v>19.40882073894711</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>27.51776674662934</v>
+        <v>27.51776674662922</v>
       </c>
     </row>
     <row r="664">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>12.48747631457557</v>
+        <v>12.48747631457515</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.64222136490524</v>
+        <v>29.64222136490533</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.42602358150466</v>
+        <v>36.42602358150448</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>9.488407417546274</v>
+        <v>9.488407417545929</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>42.90307953797998</v>
+        <v>42.90307953797964</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>54.63708060319497</v>
+        <v>54.63708060319481</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>60.11171642942973</v>
+        <v>60.11171642942985</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>65.96248965155138</v>
+        <v>65.96248965155105</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>74.5345190702144</v>
+        <v>74.53451907021359</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>27.22019231422192</v>
+        <v>27.22019231422218</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>53.86122592901748</v>
+        <v>53.86122592901694</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>61.63834086074618</v>
+        <v>61.63834086074617</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>39.90390754267714</v>
+        <v>39.90390754267716</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>24.3265427164551</v>
+        <v>24.32654271645535</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.83858706711603</v>
+        <v>28.8385870671155</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>41.49251565418289</v>
+        <v>41.49251565418267</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>8.668975834411091</v>
+        <v>8.668975834410496</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>30.46236192447672</v>
+        <v>30.46236192447662</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>35.89959946503275</v>
+        <v>35.89959946503291</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>16.28977977179947</v>
+        <v>16.28977977179952</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>26.55875235986504</v>
+        <v>26.55875235986531</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>36.40923660686445</v>
+        <v>36.40923660686433</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>9.891527156423253</v>
+        <v>9.891527156422814</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.73549609164552</v>
+        <v>29.73549609164538</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>40.80352745252434</v>
+        <v>40.80352745252424</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>9.852100513250761</v>
+        <v>9.852100513250786</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>45.94903895488957</v>
+        <v>45.9490389548892</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>61.0405885797192</v>
+        <v>61.04058857971911</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>60.38122598379026</v>
+        <v>60.38122598378968</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>63.32694131119061</v>
+        <v>63.32694131119013</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>77.80426878656858</v>
+        <v>77.80426878656839</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>18.29066065235806</v>
+        <v>18.29066065235769</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>50.25187338269204</v>
+        <v>50.2518733826916</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>63.69773965953969</v>
+        <v>63.69773965953965</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>34.57442954327966</v>
+        <v>34.57442954327991</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>10.63024855290035</v>
+        <v>10.63024855290046</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>18.25402418956046</v>
+        <v>18.25402418956009</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.13031446950347</v>
+        <v>29.13031446950314</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>5.373021573274887</v>
+        <v>5.373021573274592</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>25.75950632188259</v>
+        <v>25.75950632188269</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>32.20193925821306</v>
+        <v>32.20193925821351</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>10.90220830876453</v>
+        <v>10.90220830876417</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>25.97968945882179</v>
+        <v>25.9796894588218</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.31310338746535</v>
+        <v>39.31310338746539</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>11.68066172419051</v>
+        <v>11.68066172419011</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>27.51704760882238</v>
+        <v>27.51704760882196</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>43.57452142283891</v>
+        <v>43.57452142283831</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>5.073549676431419</v>
+        <v>5.073549676430886</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>37.66626222829913</v>
+        <v>37.66626222829883</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>58.11552957264625</v>
+        <v>58.115529572646</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>42.02691023004169</v>
+        <v>42.02691023004132</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>52.47232522770727</v>
+        <v>52.47232522770673</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>73.26432801935304</v>
+        <v>73.26432801935245</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>8.422213754974472</v>
+        <v>8.422213754974315</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>38.34059944668778</v>
+        <v>38.34059944668765</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>58.5518243722701</v>
+        <v>58.55182437227025</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>12.39699415151324</v>
+        <v>12.39699415151348</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>12.12437556557355</v>
+        <v>12.12437556557356</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>23.03122787315745</v>
+        <v>23.03122787315725</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>7.875090055606165</v>
+        <v>7.875090055606417</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>21.67949450816145</v>
+        <v>21.67949450816146</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>24.89808162193436</v>
+        <v>24.8980816219342</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>3.320522827959351</v>
+        <v>3.320522827958992</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>25.73008645375334</v>
+        <v>25.73008645375364</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>28.67154690575575</v>
+        <v>28.67154690575587</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>9.74909479980465</v>
+        <v>9.749094799804372</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>12.92678145475057</v>
+        <v>12.92678145475054</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>15.3798260067769</v>
+        <v>15.37982600677608</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>11.94213782006828</v>
+        <v>11.94213782006834</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>11.37903763146048</v>
+        <v>11.37903763146021</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>21.36601301404438</v>
+        <v>21.36601301404411</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>16.80819259616068</v>
+        <v>16.80819259616024</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>22.76817805914123</v>
+        <v>22.76817805914062</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>30.69132788249346</v>
+        <v>30.69132788249316</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>16.62458057599369</v>
+        <v>16.62458057599325</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>19.40455799395653</v>
+        <v>19.4045579939561</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>24.27057024227555</v>
+        <v>24.27057024227562</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>5.163767519754298</v>
+        <v>5.163767519754284</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>21.6360646299402</v>
+        <v>21.63606462994019</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>14.10909375499516</v>
+        <v>14.10909375499523</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>20.18729258106723</v>
+        <v>20.18729258106687</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>24.84522865657025</v>
+        <v>24.84522865657003</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>3.914532570077903</v>
+        <v>3.914532570078261</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>31.21994260047162</v>
+        <v>31.21994260047171</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>30.71264268234346</v>
+        <v>30.71264268234328</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>3.846672990920364</v>
+        <v>3.846672990919686</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>38.26528262836857</v>
+        <v>38.2652826283688</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>37.47897250886399</v>
+        <v>37.4789725088644</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>36.04941648457225</v>
+        <v>36.04941648457199</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>40.0554305473234</v>
+        <v>40.05543054732334</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>43.45597360043192</v>
+        <v>43.45597360043202</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>19.60962270771758</v>
+        <v>19.60962270771749</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>38.41357553739508</v>
+        <v>38.4135755373951</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>40.87052682584837</v>
+        <v>40.87052682584828</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>18.45628696728916</v>
+        <v>18.45628696728908</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>30.0281935324552</v>
+        <v>30.0281935324553</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>34.10318726294971</v>
+        <v>34.10318726294978</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>14.30688225307004</v>
+        <v>14.30688225306968</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>33.69581046181734</v>
+        <v>33.69581046181732</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>38.21931143213481</v>
+        <v>38.21931143213455</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>41.65528067259415</v>
+        <v>41.65528067259405</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>10.56599885200881</v>
+        <v>10.56599885200906</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>19.29394112175578</v>
+        <v>19.29394112175509</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>24.22184052551247</v>
+        <v>24.22184052551231</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>2.618796600089166</v>
+        <v>2.61879660008918</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>31.55699258321317</v>
+        <v>31.55699258321283</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>33.55016524317914</v>
+        <v>33.55016524317895</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>5.912938477543562</v>
+        <v>5.912938477543584</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>41.85495252572618</v>
+        <v>41.85495252572643</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>43.13519963643857</v>
+        <v>43.13519963643834</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>39.80126461718292</v>
+        <v>39.80126461718311</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>42.30926260906224</v>
+        <v>42.30926260906207</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>49.77889568770642</v>
+        <v>49.7788956877061</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>11.00569102291472</v>
+        <v>11.00569102291478</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>32.96891111121182</v>
+        <v>32.96891111121202</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>38.20165104543216</v>
+        <v>38.20165104543204</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>15.74001906954054</v>
+        <v>15.74001906954038</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.30889498125483</v>
+        <v>28.30889498125437</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.76542138073444</v>
+        <v>33.76542138073441</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>12.41270445010916</v>
+        <v>12.41270445010911</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>32.70039374238936</v>
+        <v>32.70039374238897</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>41.28287355828323</v>
+        <v>41.28287355828363</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>10.77265153629744</v>
+        <v>10.77265153629671</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>44.45134392484867</v>
+        <v>44.45134392484855</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>1.711980657334582</v>
+        <v>1.711980657334628</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>12.09416157925083</v>
+        <v>12.09416157925059</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>21.36612473333659</v>
+        <v>21.36612473333662</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>3.627076739187647</v>
+        <v>3.627076739187761</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.08348625110477</v>
+        <v>29.08348625110429</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>36.42622206789568</v>
+        <v>36.42622206789571</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>-0.1352442432555208</v>
+        <v>-0.1352442432555847</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>34.23003693934153</v>
+        <v>34.23003693934207</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>39.87572934542483</v>
+        <v>39.87572934542501</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>30.06909204787211</v>
+        <v>30.06909204787209</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>32.77346113873229</v>
+        <v>32.77346113873255</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>39.21914876796332</v>
+        <v>39.21914876796322</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>5.880993636568359</v>
+        <v>5.880993636568505</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>22.09399692315664</v>
+        <v>22.09399692315624</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>37.16661208138638</v>
+        <v>37.16661208138657</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>9.478239126605658</v>
+        <v>9.478239126605482</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.65307008440136</v>
+        <v>25.6530700844007</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>33.22142148594025</v>
+        <v>33.22142148593989</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>13.98985436278567</v>
+        <v>13.98985436278615</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>30.86023652976829</v>
+        <v>30.86023652976748</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>40.91347960497487</v>
+        <v>40.91347960497518</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>7.271539325341578</v>
+        <v>7.271539325341568</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>37.98557931439489</v>
+        <v>37.98557931439453</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>28.88577339290072</v>
+        <v>28.88577339290083</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>20.9384212114221</v>
+        <v>20.93842121142216</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>36.98124222076303</v>
+        <v>36.98124222076329</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>41.18048763148765</v>
+        <v>41.18048763148751</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>11.14842689090753</v>
+        <v>11.14842689090718</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>19.53946005632577</v>
+        <v>19.53946005632558</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>22.42192021942082</v>
+        <v>22.42192021942108</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>13.36623050087812</v>
+        <v>13.36623050087784</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>18.12430105880891</v>
+        <v>18.12430105880897</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>30.79798347327598</v>
+        <v>30.7979834732761</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>13.1270727106916</v>
+        <v>13.12707271069129</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>15.96834281777964</v>
+        <v>15.96834281777902</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.092071997967</v>
+        <v>25.0920719979674</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>3.650454254398181</v>
+        <v>3.650454254398152</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>22.73854804237173</v>
+        <v>22.73854804237148</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>38.79447044705751</v>
+        <v>38.79447044705779</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>22.95011947766619</v>
+        <v>22.95011947766631</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>46.12830024579146</v>
+        <v>46.12830024579111</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>57.06501976559983</v>
+        <v>57.0650197655997</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>5.301627033300054</v>
+        <v>5.30162703330036</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>18.79248662029722</v>
+        <v>18.79248662029716</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.10740740706597</v>
+        <v>29.10740740706591</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>48.81787117445734</v>
+        <v>48.81787117445735</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>46.17000937613759</v>
+        <v>46.17000937613771</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>54.40372868077967</v>
+        <v>54.40372868077941</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>60.7505685995214</v>
+        <v>60.75056859952127</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>22.19785655958037</v>
+        <v>22.1978565595803</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>50.71004485131976</v>
+        <v>50.71004485131949</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>49.61420289493994</v>
+        <v>49.61420289494045</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>18.76195264202512</v>
+        <v>18.76195264202497</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>33.20093457067996</v>
+        <v>33.20093457068018</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>42.33517631872274</v>
+        <v>42.33517631872286</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>14.17494481234434</v>
+        <v>14.17494481234428</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>40.99893760838719</v>
+        <v>40.99893760838742</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>47.84650447588903</v>
+        <v>47.84650447588838</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>10.41957455179829</v>
+        <v>10.41957455179817</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>53.20559091598162</v>
+        <v>53.20559091598167</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>65.58299793776128</v>
+        <v>65.58299793776132</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>69.15829789693181</v>
+        <v>69.15829789693153</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>79.80641934504989</v>
+        <v>79.80641934504962</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>88.6197388826087</v>
+        <v>88.61973888260844</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>24.50689467235115</v>
+        <v>24.50689467235077</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>64.90600571985787</v>
+        <v>64.90600571985725</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>71.5015696616689</v>
+        <v>71.50156966166877</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>55.23411738156204</v>
+        <v>55.23411738156194</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>41.86086074240285</v>
+        <v>41.86086074240268</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>46.79348158947819</v>
+        <v>46.79348158947811</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>59.27695369180694</v>
+        <v>59.27695369180658</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>15.33491172634296</v>
+        <v>15.33491172634286</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>47.20357306124735</v>
+        <v>47.20357306124753</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>15.32299126470381</v>
+        <v>15.32299126470393</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>32.34746327921449</v>
+        <v>32.34746327921465</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>43.05398520427941</v>
+        <v>43.05398520427937</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>11.51416580857229</v>
+        <v>11.51416580857218</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>41.49380868592321</v>
+        <v>41.49380868592272</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>52.26661670313582</v>
+        <v>52.26661670313595</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>10.35787674159695</v>
+        <v>10.35787674159675</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>56.24238527814742</v>
+        <v>56.24238527814748</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>71.60539856031585</v>
+        <v>71.60539856031592</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>69.3175923145858</v>
+        <v>69.31759231458555</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>76.91248180397238</v>
+        <v>76.91248180397217</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>91.41648947644717</v>
+        <v>91.416489476447</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>15.11292930657563</v>
+        <v>15.11292930657557</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>61.3573485889121</v>
+        <v>61.35734858891196</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>73.31224133872307</v>
+        <v>73.31224133872317</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>49.67201609681855</v>
+        <v>49.67201609681847</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>26.53506699040307</v>
+        <v>26.5350669904034</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>36.59132021990277</v>
+        <v>36.59132021990276</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>47.77489876691382</v>
+        <v>47.77489876691384</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>11.96436702113955</v>
+        <v>11.96436702113954</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>41.8388195958195</v>
+        <v>41.83881959581895</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>46.81175121662815</v>
+        <v>46.81175121662828</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>10.77206432746823</v>
+        <v>10.77206432746818</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>31.4037571595173</v>
+        <v>31.40375715951677</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>46.55540009714026</v>
+        <v>46.55540009714008</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>14.9525142192937</v>
+        <v>14.95251421929372</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>39.35231471979284</v>
+        <v>39.35231471979299</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>56.23077981073845</v>
+        <v>56.23077981073861</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>7.901321270569312</v>
+        <v>7.901321270569134</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>48.85168594654573</v>
+        <v>48.8516859465457</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>70.62420685878794</v>
+        <v>70.62420685878735</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>53.06118701412466</v>
+        <v>53.06118701412444</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>69.72168719399808</v>
+        <v>69.7216871939977</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>91.28889247597922</v>
+        <v>91.28889247597905</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>9.508670327370712</v>
+        <v>9.508670327370776</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>51.69354098982997</v>
+        <v>51.69354098982983</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>71.69112201775049</v>
+        <v>71.69112201775039</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>6.545688447143487</v>
+        <v>6.54568844714348</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>2.10066374776871</v>
+        <v>2.100663747768909</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>14.04662322221184</v>
+        <v>14.04662322221205</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>4.978524964544082</v>
+        <v>4.978524964543798</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>13.75593391198528</v>
+        <v>13.75593391198521</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>17.5072908255832</v>
+        <v>17.50729082558282</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>3.436347106791416</v>
+        <v>3.436347106791143</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>20.43810815228907</v>
+        <v>20.43810815228915</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>24.07168955979307</v>
+        <v>24.07168955979279</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>4.649480389703111</v>
+        <v>4.649480389703196</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>5.809360077494404</v>
+        <v>5.809360077494372</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>11.15974701055019</v>
+        <v>11.15974701055039</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>11.943612962477</v>
+        <v>11.94361296247691</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>5.960999171197702</v>
+        <v>5.960999171197489</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>21.08674768478161</v>
+        <v>21.08674768478151</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>16.93875615927381</v>
+        <v>16.93875615927383</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>27.32932648531716</v>
+        <v>27.32932648531715</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>31.61818318557123</v>
+        <v>31.61818318557118</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>6.635408964875051</v>
+        <v>6.635408964875065</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>20.14311218291453</v>
+        <v>20.14311218291461</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>20.89304535373714</v>
+        <v>20.89304535373756</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>8.491523917879896</v>
+        <v>8.491523917879814</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>33.62349269499266</v>
+        <v>33.62349269499273</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>8.02469349713709</v>
+        <v>8.024693497137207</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>6.787925174979609</v>
+        <v>6.787925174979371</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>13.03340884580355</v>
+        <v>13.03340884580359</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>2.320701682781888</v>
+        <v>2.32070168278204</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>19.79446398887535</v>
+        <v>19.79446398887509</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>19.34474225572352</v>
+        <v>19.34474225572359</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>1.931629926164856</v>
+        <v>1.931629926165009</v>
       </c>
     </row>
     <row r="929">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>25.99348545899679</v>
+        <v>25.99348545899704</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>20.96324250648785</v>
+        <v>20.96324250648807</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>20.51723857892497</v>
+        <v>20.51723857892485</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>26.67435130459687</v>
+        <v>26.67435130459679</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>13.25630797845332</v>
+        <v>13.25630797845339</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>20.56311496921543</v>
+        <v>20.56311496921539</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>26.01149190438338</v>
+        <v>26.01149190438356</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>22.91655755956889</v>
+        <v>22.91655755956862</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>37.0212624167935</v>
+        <v>37.02126241679366</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>37.14306647570655</v>
+        <v>37.14306647570648</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>9.221694674273405</v>
+        <v>9.221694674273111</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>36.2441197751934</v>
+        <v>36.24411977519319</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>33.93569954873038</v>
+        <v>33.93569954873057</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>13.64196879345533</v>
+        <v>13.6419687934554</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>51.8383557966133</v>
+        <v>51.83835579661336</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>3.732316393317809</v>
+        <v>3.732316393317554</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>3.976268051321444</v>
+        <v>3.976268051321281</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>10.91657809866151</v>
+        <v>10.91657809866166</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>0.2808754114902925</v>
+        <v>0.2808754114901788</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>18.10929608149985</v>
+        <v>18.10929608149987</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>20.09983896979372</v>
+        <v>20.09983896979384</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>1.6907757191961</v>
+        <v>1.690775719196115</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>26.55844112871495</v>
+        <v>26.55844112871472</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>28.17423490733098</v>
+        <v>28.17423490733031</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>23.75164553018413</v>
+        <v>23.75164553018379</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>21.51865838662134</v>
+        <v>21.51865838662169</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>31.96529698119564</v>
+        <v>31.96529698119565</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>4.412949724254918</v>
+        <v>4.412949724254947</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>13.61995928077893</v>
+        <v>13.61995928077934</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>21.09013292406831</v>
+        <v>21.09013292406813</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>19.64116288812269</v>
+        <v>19.64116288812274</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>34.22380505192447</v>
+        <v>34.22380505192465</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>35.85917378479646</v>
+        <v>35.85917378479638</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>7.675919465494712</v>
+        <v>7.675919465494252</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>34.92715531955277</v>
+        <v>34.92715531955287</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>35.79882175502608</v>
+        <v>35.7988217550261</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>14.32845765518477</v>
+        <v>14.32845765518502</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>52.63593249616868</v>
+        <v>52.63593249616851</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-4.127014030121941</v>
+        <v>-4.127014030122165</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>-1.095848504142932</v>
+        <v>-1.095848504142886</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>10.26521413607532</v>
+        <v>10.26521413607539</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>-0.2101560311207642</v>
+        <v>-0.2101560311207251</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>16.62753531080208</v>
+        <v>16.62753531080217</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>23.81289370739779</v>
+        <v>23.81289370739792</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-2.961513061535989</v>
+        <v>-2.961513061536184</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>22.20430280493576</v>
+        <v>22.20430280493603</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>28.41811010807203</v>
+        <v>28.4181101080719</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>20.21608489385877</v>
+        <v>20.21608489385869</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>19.3770237837957</v>
+        <v>19.37702378379564</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>29.81454689817117</v>
+        <v>29.81454689817107</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>1.069711688789578</v>
+        <v>1.069711688789493</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>7.983835211121574</v>
+        <v>7.98383521112147</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>25.87127898007243</v>
+        <v>25.87127898007245</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>11.21572352488226</v>
+        <v>11.21572352488223</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.40090740578691</v>
+        <v>29.4009074057869</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>32.70721893047929</v>
+        <v>32.70721893047902</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>5.64953229734704</v>
+        <v>5.649532297346727</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>30.39452531788152</v>
+        <v>30.3945253178815</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>32.8532433585864</v>
+        <v>32.85324335858613</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>8.859037236991735</v>
+        <v>8.859037236991711</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>45.0088547076557</v>
+        <v>45.00885470765542</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>36.35512548197615</v>
+        <v>36.35512548197608</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>29.56766208891026</v>
+        <v>29.56766208891025</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>41.83458128449216</v>
+        <v>41.83458128449212</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>42.41252577711172</v>
+        <v>42.41252577711154</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>20.34954263288321</v>
+        <v>20.34954263288313</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>31.61186169197773</v>
+        <v>31.61186169197786</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>33.95784780029942</v>
+        <v>33.95784780029944</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>17.40653307965091</v>
+        <v>17.4065330796509</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>25.84669158540629</v>
+        <v>25.84669158540628</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>40.52581661160751</v>
+        <v>40.5258166116076</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>2.998196538794648</v>
+        <v>2.998196538794573</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>17.90110901257701</v>
+        <v>17.90110901257691</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>27.89955573458576</v>
+        <v>27.89955573458553</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>8.265806975065914</v>
+        <v>8.265806975065921</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>37.40956806214378</v>
+        <v>37.40956806214369</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>51.41352839937358</v>
+        <v>51.41352839937355</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>33.36883531996543</v>
+        <v>33.36883531996536</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>52.30713057255397</v>
+        <v>52.30713057255346</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>57.79849889425654</v>
+        <v>57.79849889425645</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>14.54985314316995</v>
+        <v>14.54985314316979</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>34.60438759581099</v>
+        <v>34.60438759581081</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>44.0934220013787</v>
+        <v>44.0934220013785</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>52.07857646510591</v>
+        <v>52.07857646510583</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>53.17894872158126</v>
+        <v>53.17894872158152</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>57.86571570161313</v>
+        <v>57.86571570161318</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>58.90531363588417</v>
+        <v>58.90531363588386</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>30.41069653351543</v>
+        <v>30.41069653351557</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>58.34798616627752</v>
+        <v>58.34798616627776</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>53.79833254688427</v>
+        <v>53.79833254688434</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>23.38775500089924</v>
+        <v>23.38775500089926</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>9.702606927959877</v>
+        <v>9.702606927959458</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>45.62512188967077</v>
+        <v>45.62512188967071</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>49.63328171292372</v>
+        <v>49.63328171292396</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>14.95547211431507</v>
+        <v>14.95547211431475</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>64.51420357657359</v>
+        <v>64.51420357657352</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>71.42078034157002</v>
+        <v>71.42078034157014</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>72.28396816923728</v>
+        <v>72.28396816923701</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>80.6028376363316</v>
+        <v>80.60283763633124</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>84.56887847261208</v>
+        <v>84.56887847261223</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>33.306759775279</v>
+        <v>33.30675977527883</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>76.76741774789193</v>
+        <v>76.76741774789205</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>77.23315259538658</v>
+        <v>77.23315259538671</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>55.86670818882916</v>
+        <v>55.86670818882948</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>50.29301190967732</v>
+        <v>50.29301190967745</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>52.05578053394525</v>
+        <v>52.0557805339452</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>57.85967946296316</v>
+        <v>57.85967946296329</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>23.83627335495302</v>
+        <v>23.83627335495297</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>54.85198677173959</v>
+        <v>54.85198677173948</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>52.84186693332393</v>
+        <v>52.84186693332406</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>19.46798609317986</v>
+        <v>19.46798609317982</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>38.81835280446359</v>
+        <v>38.81835280446372</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>48.71112246609653</v>
+        <v>48.71112246609654</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>7.784661176094446</v>
+        <v>7.784661176094406</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>47.26156720421582</v>
+        <v>47.26156720421575</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>53.0604625051307</v>
+        <v>53.06046250513067</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>14.44072920910295</v>
+        <v>14.44072920910306</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>67.28825533362097</v>
+        <v>67.28825533362078</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>75.45832885814863</v>
+        <v>75.45832885814883</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>73.9924286274824</v>
+        <v>73.99242862748251</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>80.37910930340769</v>
+        <v>80.37910930340774</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>88.49422872413375</v>
+        <v>88.49422872413379</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>26.10451728728643</v>
+        <v>26.10451728728648</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>76.62191275803319</v>
+        <v>76.62191275803329</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>79.20561941155844</v>
+        <v>79.20561941155837</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>49.45373584812857</v>
+        <v>49.45373584812839</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>35.32170622056156</v>
+        <v>35.32170622056167</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>41.71036572705955</v>
+        <v>41.7103657270593</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>46.10380874995114</v>
+        <v>46.10380874995109</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>17.92634378810772</v>
+        <v>17.92634378810762</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>47.69558712129668</v>
+        <v>47.69558712129655</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>48.4830757164804</v>
+        <v>48.48307571648051</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>15.61620085136249</v>
+        <v>15.61620085136266</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>40.26539707860556</v>
+        <v>40.2653970786053</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>53.08875461255145</v>
+        <v>53.08875461255165</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>9.180658918077235</v>
+        <v>9.180658918076762</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>46.37968075201856</v>
+        <v>46.37968075201819</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>56.34823493949119</v>
+        <v>56.34823493949096</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>13.81338718110942</v>
+        <v>13.81338718110903</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>64.80813332528838</v>
+        <v>64.80813332528824</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>77.83225502982899</v>
+        <v>77.8322550298287</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>65.4513297408803</v>
+        <v>65.45132974088044</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>80.17713352694579</v>
+        <v>80.17713352694571</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>90.19154432468824</v>
+        <v>90.19154432468818</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>21.92991775812587</v>
+        <v>21.92991775812567</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>73.05320297899313</v>
+        <v>73.0532029789933</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>81.49025799370513</v>
+        <v>81.49025799370519</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/plate_1/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.619</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.336</v>
+        <v>15.685</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.647</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.699</v>
+        <v>17.785</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.949</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.815</v>
+        <v>3.024</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.50324099556801</v>
+        <v>15.03689600729869</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15.85104700617777</v>
+        <v>16.79055475613891</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.37464849120563</v>
+        <v>29.34886159788717</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.23559253217163</v>
+        <v>1.04660964951476</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>17.40282073174401</v>
+        <v>19.98296228031125</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21.54921350683857</v>
+        <v>25.4619336391841</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.574801039869097</v>
+        <v>7.520884981541428</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.93857762998793</v>
+        <v>35.55465812947051</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.01444431645989</v>
+        <v>42.04151106660226</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12.00899239397773</v>
+        <v>16.28420845289094</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>16.96971863297637</v>
+        <v>19.14540479932693</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>17.70394927385379</v>
+        <v>18.85084772556366</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.52674849703551</v>
+        <v>10.68101683965247</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>14.54308413737682</v>
+        <v>14.1766969266193</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25.91423742705311</v>
+        <v>33.24290244559143</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15.97042335864808</v>
+        <v>12.66672897139495</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.81410814337464</v>
+        <v>24.58834074328327</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.17083610773904</v>
+        <v>34.37545159930418</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.248464138746517</v>
+        <v>1.863011888406959</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.996701829239294</v>
+        <v>8.793731134262107</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17.09993513899537</v>
+        <v>13.49025784255112</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.246741712373737</v>
+        <v>2.259223111727319</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>17.31898761943812</v>
+        <v>15.32266818329782</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>16.39740159065423</v>
+        <v>20.0676151166599</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.44036085322902</v>
+        <v>27.76035473299011</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30.19472968768174</v>
+        <v>29.14088096042305</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-0.8028093738035587</v>
+        <v>0.7508833231510224</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.42595416443424</v>
+        <v>31.70504765392583</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>30.39759007474871</v>
+        <v>31.21591609617423</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5.256314974032204</v>
+        <v>6.64074783738457</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>43.23667292167268</v>
+        <v>45.76314553797599</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>44.04987120191635</v>
+        <v>46.16564545787462</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>44.6160691534906</v>
+        <v>47.90541688385224</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>51.92100115640689</v>
+        <v>53.62807755111339</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>53.12304137182605</v>
+        <v>53.15834055365664</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>24.44017656671409</v>
+        <v>23.36549886668409</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>48.05244207195435</v>
+        <v>42.51003447488917</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>52.67055589478672</v>
+        <v>54.0720096420948</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>17.45015677565097</v>
+        <v>17.20696183544923</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.10356776832229</v>
+        <v>32.94073632483352</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>38.82554403987735</v>
+        <v>35.26488995545698</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5.733803101586663</v>
+        <v>2.528379497079946</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.65583256189239</v>
+        <v>27.13441849327584</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.94272600658743</v>
+        <v>34.92719790810972</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5.995088820714127</v>
+        <v>2.88927738439369</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>42.5141695007618</v>
+        <v>44.43779101009065</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>11.73396832381393</v>
+        <v>10.80267969047505</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.4543466426839</v>
+        <v>23.40144165816512</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.7637188760649</v>
+        <v>28.06360990526603</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-2.187620467329456</v>
+        <v>-0.2000161666752085</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.63366917879643</v>
+        <v>31.51494448237493</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>33.48586744907593</v>
+        <v>35.2735093492748</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6.961611447799477</v>
+        <v>8.51971549731126</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>46.43756395929029</v>
+        <v>48.89207673184585</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>49.65570641356382</v>
+        <v>52.46897708588216</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>48.64796885265396</v>
+        <v>54.43133950445596</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>54.69665251850549</v>
+        <v>57.79960773300046</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>59.70378403668541</v>
+        <v>59.82860919748315</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>15.56007497251956</v>
+        <v>13.54904357166673</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>42.59377918598805</v>
+        <v>35.4760878811026</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>50.20137692840089</v>
+        <v>51.20479363529233</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>13.54362664247035</v>
+        <v>10.5916142139869</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.10630971453503</v>
+        <v>30.1246447307543</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>38.08352439013787</v>
+        <v>34.30136656259506</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3.201422837901813</v>
+        <v>1.67583773877865</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.83144054324172</v>
+        <v>23.14408909825856</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>40.32554512294209</v>
+        <v>38.49991825428314</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>7.214922693007797</v>
+        <v>4.849404162974558</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>44.43964163165105</v>
+        <v>44.470430939718</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3.285451052323275</v>
+        <v>5.528485433331198</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>15.23960747149695</v>
+        <v>14.34456594357092</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.70143602541055</v>
+        <v>22.97912160030942</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-1.093303099163517</v>
+        <v>-0.4188072977142596</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>26.85386734365563</v>
+        <v>28.04672599269832</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>35.88856638640848</v>
+        <v>35.40597017575855</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.9741360392345086</v>
+        <v>1.72585874887405</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>38.43064308600576</v>
+        <v>41.951921537354</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.92248723816017</v>
+        <v>49.80474266285584</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>35.94257040598353</v>
+        <v>39.04380812027426</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>41.2918423767237</v>
+        <v>42.1117557784535</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>45.31958130022653</v>
+        <v>47.74904352388496</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>8.280491837371656</v>
+        <v>6.100982258440638</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.05091216157873</v>
+        <v>23.15522665731921</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>45.88488945257512</v>
+        <v>48.5037551781233</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>9.218839612216211</v>
+        <v>6.495027714175034</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>27.16534168198613</v>
+        <v>26.82271716590716</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>38.61521487065448</v>
+        <v>35.60938484601466</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6.550672375638971</v>
+        <v>1.996226855899987</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>25.42251169511874</v>
+        <v>22.7610022903489</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>40.90284773026724</v>
+        <v>38.86301081640048</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>5.645547581153881</v>
+        <v>0.9546432686249418</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>38.49557143143161</v>
+        <v>37.67284444008386</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>26.57724549511075</v>
+        <v>21.13062695179845</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>17.75353271132939</v>
+        <v>17.61762444849876</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>31.28274856804513</v>
+        <v>30.40298990563682</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>34.40601858022323</v>
+        <v>35.29170947561379</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>4.289200425128403</v>
+        <v>3.852703923182467</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>16.68319653121442</v>
+        <v>11.75585442783408</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>22.06337768292806</v>
+        <v>19.39460159580515</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>13.52449884057621</v>
+        <v>10.06937973849759</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>19.82603799283017</v>
+        <v>20.06455524336612</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.46179942345621</v>
+        <v>32.84532222005748</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>3.201058834814983</v>
+        <v>0.5572792376925015</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>7.481862007640386</v>
+        <v>6.147888681550441</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>13.81387230693626</v>
+        <v>11.66177012386443</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-1.516428707816974</v>
+        <v>2.211595872952262</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>19.31240676894377</v>
+        <v>15.2412412163769</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>32.5239421932726</v>
+        <v>34.60249364111992</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>22.6063755196414</v>
+        <v>18.97217638210231</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>39.51036030074238</v>
+        <v>39.50136556147029</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>47.20163850255817</v>
+        <v>44.64300313391031</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2.426527589187554</v>
+        <v>2.862866763321026</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>16.1760413100709</v>
+        <v>14.50589462350645</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>26.46833793030551</v>
+        <v>27.31518888629871</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>53.03232137327268</v>
+        <v>54.21628288888087</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>48.73112563856994</v>
+        <v>52.1394403834429</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>57.45729861547937</v>
+        <v>60.23094854359063</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>61.99678612748815</v>
+        <v>61.46111976397941</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>20.27047009065997</v>
+        <v>19.3719318346571</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>56.05066023544332</v>
+        <v>54.64898989197374</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>59.08675875775496</v>
+        <v>59.99302558190413</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>20.81392078017339</v>
+        <v>21.92576206948113</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>38.76437412668793</v>
+        <v>37.01061100979785</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>45.34079452886084</v>
+        <v>43.58446344308918</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>7.677712053138157</v>
+        <v>3.876550231512482</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>38.42205110380129</v>
+        <v>39.07525962506467</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>43.10955037414818</v>
+        <v>43.50682832148584</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>10.45896968677234</v>
+        <v>6.21139617892279</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>57.46891666091203</v>
+        <v>62.4501403345557</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>67.48386946527799</v>
+        <v>65.98911472861786</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>77.69193119272494</v>
+        <v>79.34920521863928</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>83.83975305625498</v>
+        <v>82.40156716914501</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>88.0939764952238</v>
+        <v>84.56646130052899</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.8886253834649</v>
+        <v>31.06320349217657</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>73.01574538943463</v>
+        <v>73.29714452953725</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>80.44545650873472</v>
+        <v>78.4226265427782</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>59.6438540020885</v>
+        <v>59.26163094261344</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>43.63361529631341</v>
+        <v>43.20336092879226</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>49.89406537393059</v>
+        <v>50.89110436035365</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>60.88201691819485</v>
+        <v>60.52601381976088</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.04850716776168</v>
+        <v>11.02543189729374</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>52.35025300957604</v>
+        <v>51.55779339506574</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>60.08593559529912</v>
+        <v>59.4488654552748</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>16.13675740287303</v>
+        <v>13.5871256486509</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.89569852643442</v>
+        <v>34.67513477057575</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>45.83881250944569</v>
+        <v>42.43367298605722</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>4.349112965698577</v>
+        <v>2.068813353021472</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>38.485479874757</v>
+        <v>36.89551391753341</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>48.09245428079302</v>
+        <v>46.85580203491402</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>9.7933405005572</v>
+        <v>6.862348266463329</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>60.14453003046118</v>
+        <v>62.97332097287817</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>74.07608659084347</v>
+        <v>72.11593430593328</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>77.51923809424308</v>
+        <v>79.49266826132219</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>81.28085148620899</v>
+        <v>80.77399088676069</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>91.71824863052532</v>
+        <v>88.27175689149814</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>19.88611402606198</v>
+        <v>16.96707182376664</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>69.46879262736208</v>
+        <v>68.39185965035196</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>83.27587827133357</v>
+        <v>82.41597979301112</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>55.18298546869707</v>
+        <v>57.64293616641294</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.07418381472629</v>
+        <v>25.06788427798531</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.38907776497133</v>
+        <v>33.36053206689658</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>48.41921170059885</v>
+        <v>44.53983675753106</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>9.37119208376529</v>
+        <v>5.219095429388833</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>45.42287704781986</v>
+        <v>47.88515570901021</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>55.89288068937607</v>
+        <v>58.98558419475937</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>10.35635861216577</v>
+        <v>8.798359166136066</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>34.17630606865018</v>
+        <v>33.20105167315207</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>47.82795191402485</v>
+        <v>45.02908502894656</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>6.491554034413301</v>
+        <v>2.785195818589685</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.40808441711452</v>
+        <v>33.59117920290976</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>50.48354272952486</v>
+        <v>48.71079231598942</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>5.446504443240492</v>
+        <v>0.9517723918495378</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>50.16065670858458</v>
+        <v>52.41205067798249</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>70.96071286450456</v>
+        <v>71.95105591681353</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>57.31806570354458</v>
+        <v>59.39297319301723</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>68.67949359378488</v>
+        <v>67.83844875983851</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>88.11374548485747</v>
+        <v>88.04500971225825</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>9.340228103894557</v>
+        <v>5.032509620278557</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>54.69324567518363</v>
+        <v>54.83476814667429</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>77.01851212279354</v>
+        <v>77.86687949665786</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>9.508445418454539</v>
+        <v>13.42946409540542</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>15.83677541976318</v>
+        <v>16.80617487543469</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.84453204534453</v>
+        <v>29.98672208341006</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1.404054841427889</v>
+        <v>-0.01353946724997002</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>21.07814487694463</v>
+        <v>23.1977313069449</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>26.39305255852</v>
+        <v>26.18789535100073</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>9.024229227624208</v>
+        <v>6.788022420782987</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>39.03019025347508</v>
+        <v>44.51783483834311</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>44.34243210863677</v>
+        <v>46.76064391028551</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>24.07260252041152</v>
+        <v>20.06020801326218</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.96653386687731</v>
+        <v>25.36299412985946</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>32.74942707108549</v>
+        <v>25.27928395405946</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>12.3648832711003</v>
+        <v>20.35212031979739</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>21.66710398815523</v>
+        <v>19.48326258340223</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>39.75149397226097</v>
+        <v>45.90338907056992</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>10.28849857836446</v>
+        <v>9.246903852550595</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>23.33731170249601</v>
+        <v>25.70033796115321</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.56707591489182</v>
+        <v>29.87950051397271</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-5.194376973624866</v>
+        <v>-3.280943168654886</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>9.563530487338364</v>
+        <v>9.256067010169382</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>13.85203204897701</v>
+        <v>13.66663890952986</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-1.365616944581696</v>
+        <v>-0.90576318980224</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>26.29589674390234</v>
+        <v>27.28093327669414</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>11.13178245962484</v>
+        <v>16.31341040108101</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>23.87247224397011</v>
+        <v>22.63007357947626</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>31.41445576134504</v>
+        <v>30.11993813451291</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1.938392286169698</v>
+        <v>0.2184539426882921</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>34.55114581105621</v>
+        <v>32.44525218141522</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>36.02975792453698</v>
+        <v>33.14062685112974</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>9.537612334745873</v>
+        <v>6.84891883540287</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>51.20918335539073</v>
+        <v>49.60785226282434</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>52.75884945711401</v>
+        <v>51.56339343495284</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>49.10027973981984</v>
+        <v>49.26813025407802</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>53.3168692807711</v>
+        <v>55.71998401194577</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>57.85149662170681</v>
+        <v>55.61686197308862</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>18.42396604797611</v>
+        <v>23.10389411007934</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>46.78617384469523</v>
+        <v>46.23141429015654</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>54.90103311984487</v>
+        <v>54.66309098876962</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>15.91069320050841</v>
+        <v>16.75821343245654</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>35.69484858813267</v>
+        <v>32.16018295593847</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>39.99614580531314</v>
+        <v>35.97176214625538</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-0.7776231758674079</v>
+        <v>-1.450196981945034</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>31.55460150119543</v>
+        <v>32.78337472965107</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>35.1968068291078</v>
+        <v>34.41813449458433</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>6.166965542133035</v>
+        <v>1.59594668358773</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>50.92225154336332</v>
+        <v>52.51680513423296</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>4.737581753344831</v>
+        <v>5.409915313840941</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>18.34559325798326</v>
+        <v>16.67626264542456</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>27.34858924999223</v>
+        <v>27.4827364806089</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-0.6483128291920863</v>
+        <v>-0.9252295972159281</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>31.58808077942027</v>
+        <v>31.51796889028014</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>36.42410517738305</v>
+        <v>34.2071500326324</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>8.305412667633648</v>
+        <v>6.273835878247141</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>49.48702805464274</v>
+        <v>48.29009814473047</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>54.07239632625777</v>
+        <v>54.94730635215478</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>51.39522789179297</v>
+        <v>53.88284206630093</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>53.04447280597969</v>
+        <v>57.22010922378328</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>62.9089313619795</v>
+        <v>63.87582774752524</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>8.716427282708429</v>
+        <v>7.645564859201439</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>38.42517666462409</v>
+        <v>34.51687919739379</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>48.70945357153299</v>
+        <v>44.43755834436998</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>9.990568995543128</v>
+        <v>8.190451303140186</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.44755340844516</v>
+        <v>28.85007624463249</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>37.08749268662315</v>
+        <v>33.9109776548559</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-4.1708411085372</v>
+        <v>-2.405036086202671</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>27.33507552182165</v>
+        <v>26.74772308489557</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>36.30126436411653</v>
+        <v>36.28374791748432</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>4.956929858908534</v>
+        <v>2.318270079981616</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>48.80629268081832</v>
+        <v>48.23283113868612</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-2.282980610246256</v>
+        <v>1.913537983793784</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>12.42550759596603</v>
+        <v>11.9327931963488</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>26.48376275977922</v>
+        <v>25.78973385012473</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-1.506808348642839</v>
+        <v>-1.442373473503753</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>27.63001943025098</v>
+        <v>30.14900517496153</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>38.31380463809828</v>
+        <v>36.98616943474909</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>4.417745638635989</v>
+        <v>-0.1066782428661099</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>43.80829928224664</v>
+        <v>45.70395619636499</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>53.62033720639961</v>
+        <v>54.09824404092128</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>45.13275510609061</v>
+        <v>52.40976686349629</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>48.71348231861749</v>
+        <v>56.29720537213569</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>58.26353648878286</v>
+        <v>62.06664646221066</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>4.854643047325414</v>
+        <v>2.249623886623073</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>30.00582030089868</v>
+        <v>27.93357937791043</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>51.06560686852063</v>
+        <v>49.95159839917761</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>3.171549807140668</v>
+        <v>4.629639415869541</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>23.59770423268676</v>
+        <v>25.53941671543862</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>32.84332220362062</v>
+        <v>32.05502313829164</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-5.392703698812678</v>
+        <v>-2.367697811539177</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>20.30968799488011</v>
+        <v>22.80171081708179</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>30.97115167657842</v>
+        <v>32.31207032719288</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0.3456282048965669</v>
+        <v>-0.2334534054819244</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>38.60149863947382</v>
+        <v>38.64822458549101</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>32.74197363347781</v>
+        <v>28.77035437492773</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>23.15219265000677</v>
+        <v>21.38432032239089</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>35.6618028916123</v>
+        <v>39.36683549968191</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>37.01969775342334</v>
+        <v>39.5814500158721</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>7.094203557808505</v>
+        <v>7.916843836710289</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>23.60825062421206</v>
+        <v>19.13966289985304</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>31.64465970184245</v>
+        <v>27.3064611023313</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>13.80340259313456</v>
+        <v>11.42972743372569</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>25.75171868037716</v>
+        <v>25.18384518548887</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>39.02701844583683</v>
+        <v>37.21492119956848</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-7.309711936213365</v>
+        <v>-3.295559663079935</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>9.893469976788083</v>
+        <v>7.812500386811656</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>20.55024553524355</v>
+        <v>18.77676966808168</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>1.538546249789693</v>
+        <v>0.5517664639672653</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>34.66435323772427</v>
+        <v>28.23146137799404</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>49.30358940758173</v>
+        <v>52.47626449994158</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>30.27396727782897</v>
+        <v>26.65693300557086</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>46.21940637036194</v>
+        <v>46.59886468984691</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>53.78444005160168</v>
+        <v>55.31021046830027</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>6.254650233716173</v>
+        <v>6.962167861069862</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.22825779052034</v>
+        <v>24.69484222943365</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>42.87616162936115</v>
+        <v>41.34575067635522</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>57.40966323656995</v>
+        <v>58.37352866336033</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>52.92429726038481</v>
+        <v>55.11574642301572</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>59.96031205928406</v>
+        <v>62.49966530130045</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>62.31106655459088</v>
+        <v>61.57993329596417</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>19.79499678639803</v>
+        <v>21.89219220359355</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>59.12214567771092</v>
+        <v>58.14503683482157</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>62.73281447471754</v>
+        <v>61.51336572497372</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>20.11784056717941</v>
+        <v>22.06335564671186</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>42.17301187129321</v>
+        <v>37.45085436977975</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>50.15348247735218</v>
+        <v>45.18933320604758</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0.3925865657567442</v>
+        <v>-0.3658501848045752</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>42.22735754017506</v>
+        <v>44.28764037972969</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>46.6370343278377</v>
+        <v>45.46440806083278</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>10.19441602507393</v>
+        <v>5.199323673687985</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>67.46313836303679</v>
+        <v>67.14097689315039</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>74.57236987263305</v>
+        <v>72.0135320037773</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>76.43254092841785</v>
+        <v>76.16520954382459</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>81.89156620705543</v>
+        <v>80.91306661730786</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>88.33055369287888</v>
+        <v>85.36199326073158</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.12161596348989</v>
+        <v>29.81265704632958</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>78.75735054657514</v>
+        <v>77.72338373236676</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>82.98054865445722</v>
+        <v>80.5356807919421</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>60.37644380889233</v>
+        <v>60.47709173183057</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>47.4191160549549</v>
+        <v>48.98212698436987</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>51.32679433772172</v>
+        <v>52.59174507056078</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>60.07397294270754</v>
+        <v>60.49540155549479</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>11.01327526768404</v>
+        <v>9.622357382248328</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>53.1141559069011</v>
+        <v>50.55984330778839</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>60.82157520369547</v>
+        <v>57.89149661361415</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>13.05684610203223</v>
+        <v>11.4427141610923</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>37.40002373512091</v>
+        <v>34.21435897468102</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>47.47091761274179</v>
+        <v>43.7467059659686</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-4.850186179101726</v>
+        <v>-2.898844570957962</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>39.69847607086834</v>
+        <v>39.34498529994752</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>47.6260503076808</v>
+        <v>45.87644734321826</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>6.506519075118742</v>
+        <v>4.304849829956805</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>66.26351609399853</v>
+        <v>64.68452854765279</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>76.28348324990702</v>
+        <v>74.92220882426862</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>74.85104020589337</v>
+        <v>74.24671905660182</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>78.19119079197213</v>
+        <v>79.55542628444682</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>90.61462354004303</v>
+        <v>89.46491067444887</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>17.44044258469904</v>
+        <v>12.44581929870702</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>74.9864266493601</v>
+        <v>75.16611509989757</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>82.54900448368949</v>
+        <v>81.6639662716955</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>51.47401008427326</v>
+        <v>53.76936038417334</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.14012676805548</v>
+        <v>28.05119366318799</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>36.1934235417251</v>
+        <v>34.58354683130544</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>43.97709841695891</v>
+        <v>41.17463057614924</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>5.737128894538824</v>
+        <v>5.440518005783854</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>42.9686303657565</v>
+        <v>44.5092516218635</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>52.84414025799963</v>
+        <v>52.62451837774634</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>8.257016054758697</v>
+        <v>6.240106277219947</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>36.78281314429849</v>
+        <v>33.08043153715719</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>50.52253587067749</v>
+        <v>44.86857847795735</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-3.899485673968691</v>
+        <v>-2.152700616977274</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>36.55405251512231</v>
+        <v>36.67274100289595</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>49.59967893344263</v>
+        <v>45.53750579236929</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>4.847921847124031</v>
+        <v>-0.480198872957633</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>60.66766985306666</v>
+        <v>59.88572099598225</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>76.76867283121157</v>
+        <v>74.79501253068359</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>61.70027591138968</v>
+        <v>64.38985576901298</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>73.55820581551937</v>
+        <v>77.17274077264562</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>87.99402266319299</v>
+        <v>88.49184681979675</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>11.39362102237994</v>
+        <v>6.846067344313443</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>68.55847665735392</v>
+        <v>71.84452251069254</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>82.63551777731803</v>
+        <v>82.44981071066817</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>8.301887338271708</v>
+        <v>7.478384710282111</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>11.53045563513783</v>
+        <v>10.3452904631723</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>23.14630053566046</v>
+        <v>21.46070408836725</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-2.460178434698154</v>
+        <v>-1.146322893830167</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>12.56506805894214</v>
+        <v>12.25520206295695</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>16.54307344931552</v>
+        <v>13.2611246102633</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>4.556226551727359</v>
+        <v>3.459697813172767</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>30.50186155092889</v>
+        <v>28.63914462027571</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>34.73043454321684</v>
+        <v>30.91734253398954</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>19.29158201725492</v>
+        <v>13.48231316450441</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>24.61867678125206</v>
+        <v>18.02301903261493</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>27.06679083176238</v>
+        <v>18.11884944081198</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>7.463372222791147</v>
+        <v>13.92649940003979</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>15.36557557298666</v>
+        <v>12.70622473032823</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.70857267295636</v>
+        <v>30.64798738849153</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>11.44586154124625</v>
+        <v>9.735022207030672</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>26.47969777527167</v>
+        <v>26.29648530401181</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>32.68954056488531</v>
+        <v>30.44197971008676</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-5.131377606366467</v>
+        <v>-3.224053212198534</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>11.8746225871057</v>
+        <v>8.63821298720266</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>16.38266027016877</v>
+        <v>15.79234849116369</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.0107998138318699</v>
+        <v>-0.663917408143142</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>30.35811348156994</v>
+        <v>28.98644804245863</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>9.780094531309288</v>
+        <v>10.9940176229545</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>20.25323539802538</v>
+        <v>17.60433530804896</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>26.44909974829547</v>
+        <v>23.20836530308623</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-0.8036195874818155</v>
+        <v>-1.071255126621761</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.29020580464269</v>
+        <v>26.05605114749948</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.61806154817845</v>
+        <v>26.59828221237268</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>5.49166087492404</v>
+        <v>3.16312175819256</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>44.14782056838506</v>
+        <v>40.37173100505751</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>44.69283493098573</v>
+        <v>41.31042429411861</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>44.32118115656601</v>
+        <v>40.53955480494737</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>47.81903065017202</v>
+        <v>48.44058786310502</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>52.28513856587934</v>
+        <v>48.87146801593469</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>11.93294981841106</v>
+        <v>15.31271702794613</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>39.68393512062721</v>
+        <v>38.27035461876655</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>43.73081853099129</v>
+        <v>43.01839966203231</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>16.32188590672665</v>
+        <v>16.95373908257637</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>39.44864903939627</v>
+        <v>33.72611103469107</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>43.25347989505403</v>
+        <v>37.4349563924852</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-0.6285238041394656</v>
+        <v>-1.831608727504818</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>35.87095028589077</v>
+        <v>34.91558128677784</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>39.15115052212168</v>
+        <v>37.69610670590593</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>6.724409502913108</v>
+        <v>0.5349122684614898</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>55.9261465569176</v>
+        <v>55.9806530742753</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>4.107347006003785</v>
+        <v>2.644746108968608</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>15.53025901479936</v>
+        <v>12.42806182990199</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>23.26067283436717</v>
+        <v>22.02382386210254</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-2.367331079254647</v>
+        <v>-1.821541377276599</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>26.49662179858783</v>
+        <v>24.8184654698596</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>30.27637183829864</v>
+        <v>27.08363939815046</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>5.291504306757066</v>
+        <v>5.234759165126285</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>43.57691579043231</v>
+        <v>41.28913570365009</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>47.23179791037839</v>
+        <v>46.2452420700353</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>47.53409766574164</v>
+        <v>44.73305923463896</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>48.48812851469863</v>
+        <v>48.45544090487331</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>58.3868748466712</v>
+        <v>57.26658756989539</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>3.018934070984621</v>
+        <v>3.080821388785441</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>31.97511965634003</v>
+        <v>26.8595346367416</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>38.51133640248634</v>
+        <v>33.82136763594397</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>11.5147023331061</v>
+        <v>9.897862898320286</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>34.61785035605985</v>
+        <v>32.67418263289932</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>41.45427305305572</v>
+        <v>36.85802384275959</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-2.441067010339228</v>
+        <v>-2.064297346900506</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>33.66145458757863</v>
+        <v>30.98039260502132</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>41.85914740118291</v>
+        <v>38.96080994712176</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>7.054697237236166</v>
+        <v>3.247308658460188</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>55.72168595346334</v>
+        <v>54.91915921646782</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-2.067039164210087</v>
+        <v>0.1472907188174126</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>9.665498214924641</v>
+        <v>7.943324814233211</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>22.68050969376709</v>
+        <v>21.78305039698223</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-3.692797112533576</v>
+        <v>-2.306954015560713</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>20.9768719626052</v>
+        <v>19.12204127156777</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>30.82835936813711</v>
+        <v>29.60201637990075</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>1.639683839861956</v>
+        <v>-1.370825634147028</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>37.11905431751598</v>
+        <v>33.59950089263804</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>46.27260806383592</v>
+        <v>44.38463956671974</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>41.29454425666718</v>
+        <v>39.25322462901202</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>44.42074263246859</v>
+        <v>43.4460227249935</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>54.04240153741068</v>
+        <v>53.22131821331011</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>0.4560628944441127</v>
+        <v>0.1481655792116285</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>23.96375470698004</v>
+        <v>21.58195526981855</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>40.98925493567911</v>
+        <v>39.9376525172302</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>5.950741141507375</v>
+        <v>5.929717251456651</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.28995202777391</v>
+        <v>29.14978154827475</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>37.98121966536035</v>
+        <v>34.40992128510539</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-2.994108440638815</v>
+        <v>-2.270248605256725</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>26.20305248484397</v>
+        <v>25.9447470981929</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>36.39285240808006</v>
+        <v>35.00546853121134</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>3.819221748805735</v>
+        <v>-0.6200855682520974</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>45.9090850300723</v>
+        <v>43.55075945271135</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>37.0507605018582</v>
+        <v>33.23955446191498</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.64884117459082</v>
+        <v>23.37514886235578</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>43.04767419755783</v>
+        <v>42.17569988622967</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>42.53501987884522</v>
+        <v>42.49596674912429</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>7.618454688677232</v>
+        <v>8.417834080328891</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.55632772600785</v>
+        <v>22.73770189924879</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>35.81399478263936</v>
+        <v>31.83913960533815</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>13.17759626847492</v>
+        <v>12.50952704918727</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.15077557796134</v>
+        <v>26.79742241904668</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>40.01179478324444</v>
+        <v>40.50439947665772</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-9.589329365164783</v>
+        <v>-3.515093289671984</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>10.12155734334951</v>
+        <v>6.418846191676014</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>19.87561315574219</v>
+        <v>15.99763327668001</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-1.195922748786625</v>
+        <v>-0.4336766326374537</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.00823890952076</v>
+        <v>27.49909882611606</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>48.78236518028122</v>
+        <v>51.37727785973266</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>35.33558038068963</v>
+        <v>29.41108730752792</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>53.59192572973627</v>
+        <v>51.3805086669382</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>56.92343324967806</v>
+        <v>58.20263596217899</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>4.693949586758063</v>
+        <v>6.141873089522385</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>32.51875404278981</v>
+        <v>23.78458382821128</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>44.76741019414975</v>
+        <v>40.36528739696276</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>62.04534979347547</v>
+        <v>61.4292742833704</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>59.35936980747226</v>
+        <v>58.16353304652149</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>67.42591206227411</v>
+        <v>65.19904185658822</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>67.32914222348509</v>
+        <v>64.18476114346011</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>18.67831274133152</v>
+        <v>20.65376760519413</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>64.22735941292895</v>
+        <v>61.61789575033688</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>66.87650553510746</v>
+        <v>65.11708238577164</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>18.99542008307359</v>
+        <v>22.52978462003668</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>44.9047555018748</v>
+        <v>39.10222214999031</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>51.79733597448761</v>
+        <v>48.23030134720375</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-0.4736016382390495</v>
+        <v>-1.084824754524263</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>46.48732271529322</v>
+        <v>48.86391739452034</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>49.18955907183081</v>
+        <v>49.00526553619748</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>7.910847697129537</v>
+        <v>2.831400257893538</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>70.6529446118773</v>
+        <v>72.59404203155445</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>76.02931632964081</v>
+        <v>75.68356102751046</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>82.55224615377428</v>
+        <v>81.21528874065423</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>90.61430449277401</v>
+        <v>86.63247564800535</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>91.99534113113455</v>
+        <v>88.48874616362826</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>26.08652721613992</v>
+        <v>28.55014981980776</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>84.26458232437565</v>
+        <v>83.13379895645515</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>86.44514053394637</v>
+        <v>85.64500485896251</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>66.54272515626332</v>
+        <v>65.56168678385569</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>55.53537598797594</v>
+        <v>54.61135554292299</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>60.69339381345593</v>
+        <v>59.50133341492383</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>66.70899177289078</v>
+        <v>65.07858703063037</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>11.40963460466863</v>
+        <v>11.2569286607821</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>59.96177119619135</v>
+        <v>57.21384580536199</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>66.43121551574561</v>
+        <v>63.88812824867028</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>12.66749890819085</v>
+        <v>12.96032096677244</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>41.42334902219822</v>
+        <v>36.98538261741481</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>49.97482827211351</v>
+        <v>47.21249912361186</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-4.223512508057443</v>
+        <v>-3.175651362064112</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>46.20689955994285</v>
+        <v>45.12150743289159</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>51.89124151654624</v>
+        <v>48.67062190474971</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>5.649218378667488</v>
+        <v>3.449769399161525</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>71.54628757657575</v>
+        <v>73.17888173479967</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>79.32867206892001</v>
+        <v>80.00535802726196</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>82.56709732862259</v>
+        <v>82.35470251973648</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>88.83977068921516</v>
+        <v>88.19798623912114</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>95.79277168895584</v>
+        <v>93.28524162261256</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>16.71119340452336</v>
+        <v>12.4741150981771</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>82.58110619011462</v>
+        <v>83.8821875879723</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>87.59257600041641</v>
+        <v>88.62779159971204</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>58.34889665026017</v>
+        <v>57.86906766060908</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>38.28287447386434</v>
+        <v>33.68754001673686</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>46.67158272921314</v>
+        <v>41.17617647821075</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>52.17517095954311</v>
+        <v>48.17484994530102</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>7.760098822634069</v>
+        <v>7.110998295401643</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>50.31576606441459</v>
+        <v>48.67523504958586</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>58.88089713930945</v>
+        <v>56.10218033908484</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>8.181793803198275</v>
+        <v>6.64325479746714</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>40.22915315222748</v>
+        <v>35.10938062060428</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>52.73255550843343</v>
+        <v>47.31438928655014</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-4.077030262673727</v>
+        <v>-2.232511800665382</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>40.90343201059169</v>
+        <v>40.60427108698109</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>52.01893943850359</v>
+        <v>47.41563930769567</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>3.660249822095025</v>
+        <v>-1.154023991584623</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>64.41138276247948</v>
+        <v>66.05837210421312</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>78.63767836901297</v>
+        <v>78.17640097728041</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>69.23639961167463</v>
+        <v>72.08086013248776</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>84.19823638063527</v>
+        <v>85.42501744757455</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>93.42400473617869</v>
+        <v>93.86226247284446</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>11.14091270967795</v>
+        <v>7.18907813629863</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>75.34481412133491</v>
+        <v>79.77209893817327</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>86.94262205027999</v>
+        <v>87.14975606608637</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>13.75262463903042</v>
+        <v>11.71449518134804</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>11.21058715436957</v>
+        <v>13.79901271232948</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>19.49442929222283</v>
+        <v>23.3126536972055</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>5.895024840321092</v>
+        <v>3.309629664435757</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>14.76695090646573</v>
+        <v>16.67921690164513</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>16.47913382581444</v>
+        <v>21.0980038844133</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>2.492063822385937</v>
+        <v>7.195759772572355</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>20.07211716983446</v>
+        <v>27.61751686411404</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>21.2434491020397</v>
+        <v>30.67461026966411</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>5.106202575695686</v>
+        <v>13.66134543584245</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>8.335288003726554</v>
+        <v>15.50902625627019</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>9.292843578570807</v>
+        <v>15.67671156771786</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>13.34585685848741</v>
+        <v>10.4231116458454</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>9.336883149475435</v>
+        <v>10.31319750145373</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>17.06468392220305</v>
+        <v>23.92981829057368</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>12.28621234527241</v>
+        <v>9.076190769792738</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>12.3231891819962</v>
+        <v>16.73208400444635</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>20.18038773037849</v>
+        <v>27.49440121034859</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>12.13448299713194</v>
+        <v>9.443185857231377</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>5.951986808247884</v>
+        <v>11.95722104331954</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>11.78866736470061</v>
+        <v>15.30452235079221</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-1.537342913374925</v>
+        <v>3.098514881770662</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>5.974752213354193</v>
+        <v>10.53448872811854</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.15115855051763</v>
+        <v>17.46892139237588</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>19.22544546471864</v>
+        <v>23.94541402973671</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>22.69211789960906</v>
+        <v>25.42805703099421</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>3.462170532937915</v>
+        <v>3.115217592066703</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>24.80541154275354</v>
+        <v>28.95639651497138</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>24.41537929364482</v>
+        <v>29.37823799848838</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>4.787001388697629</v>
+        <v>6.684416202486901</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>33.48826827807032</v>
+        <v>38.76308473630457</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>32.47696188807929</v>
+        <v>38.2576095299189</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>33.00758671881817</v>
+        <v>39.90383561467691</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>37.96040544393553</v>
+        <v>44.43047594426224</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>40.64745640257753</v>
+        <v>43.91025808263393</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>24.24828029727187</v>
+        <v>21.83023663190716</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>38.34237648026183</v>
+        <v>36.47474559210214</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>40.62089516344264</v>
+        <v>44.41761422607944</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>11.82326688794523</v>
+        <v>14.52318909484287</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>16.58295646882994</v>
+        <v>22.0556293173537</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>22.32836627490506</v>
+        <v>25.8946321719856</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>8.479349658636842</v>
+        <v>9.0866930199021</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>17.5648445828995</v>
+        <v>22.62247369240463</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>25.11910937252084</v>
+        <v>29.78659509081051</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>23.93229410665526</v>
+        <v>31.03456327345488</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>13.85931199824582</v>
+        <v>11.11879004539734</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>19.20523149365415</v>
+        <v>22.33119925463087</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>23.20779808369277</v>
+        <v>26.76868440262588</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>3.201743501766398</v>
+        <v>2.130581526848044</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.78084304497767</v>
+        <v>29.5972927862536</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.15465075513579</v>
+        <v>33.68722067228659</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>8.045434896171709</v>
+        <v>9.022411638871535</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>37.91127117909909</v>
+        <v>43.19791882780664</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>39.23592982143802</v>
+        <v>45.31265562726629</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>37.37744334384471</v>
+        <v>44.43324684329774</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>40.74378309958558</v>
+        <v>46.46869541469846</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>47.44408169669839</v>
+        <v>48.86146142699859</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>17.10292439159512</v>
+        <v>15.03367041273436</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>33.88553971170862</v>
+        <v>33.50538780078909</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>39.17935402197256</v>
+        <v>45.28129623090453</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>9.339245826487819</v>
+        <v>11.19922394920308</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>14.61517576810842</v>
+        <v>22.31509446286588</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>22.111025558483</v>
+        <v>26.16330593995512</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>6.459281342132574</v>
+        <v>9.265615411639549</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>15.87924342928941</v>
+        <v>21.32108633092283</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.9236912339866</v>
+        <v>33.30674036525836</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>3.282436765540471</v>
+        <v>6.04162221976458</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>26.31719424858537</v>
+        <v>33.31966171494767</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>4.121452646388502</v>
+        <v>5.663565139220154</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>11.46353709847999</v>
+        <v>13.56166382256636</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>18.74709602051663</v>
+        <v>20.72017702226371</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>1.994355784383984</v>
+        <v>1.882954549369984</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>21.60058682018302</v>
+        <v>25.87073384062403</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.1225548121964</v>
+        <v>32.55269812523258</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-0.4663398652811281</v>
+        <v>2.277612847432838</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.2430139555311</v>
+        <v>34.90997778030776</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>32.81717502408258</v>
+        <v>40.59531523923665</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>24.59001382639996</v>
+        <v>28.95031347119189</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>27.02997283457987</v>
+        <v>30.61313295095711</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>31.91750708866657</v>
+        <v>36.32381361939999</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>8.587676012794731</v>
+        <v>7.176642448705547</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>20.25099585704108</v>
+        <v>21.07319315148145</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>33.67375622792033</v>
+        <v>41.74881424442935</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>4.798980420264808</v>
+        <v>6.853030113360568</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>13.92638900725077</v>
+        <v>20.06501847510115</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>22.62479141052727</v>
+        <v>25.98204733015076</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>8.969589439309363</v>
+        <v>8.588476375588083</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>15.48640954664158</v>
+        <v>21.24096661893559</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>27.95996031283777</v>
+        <v>31.45089174737148</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>0.6176526223947185</v>
+        <v>1.283027757544609</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>21.08225921103382</v>
+        <v>27.68553999183237</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>13.60739773872249</v>
+        <v>15.12661880101847</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>6.350779702682892</v>
+        <v>12.70110178934602</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>19.71071263011318</v>
+        <v>27.06845409615696</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>23.14831593379056</v>
+        <v>31.90549089588264</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>4.107612164954229</v>
+        <v>4.425271180248629</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>4.575985586428917</v>
+        <v>8.654082609203559</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>7.40948830306713</v>
+        <v>14.25726587891697</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>13.84113532746772</v>
+        <v>9.760343608218626</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>14.01676526297575</v>
+        <v>17.09026732149256</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>23.98882885535971</v>
+        <v>28.52430299914145</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>10.68273885695173</v>
+        <v>8.784660257050732</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>6.085670048360448</v>
+        <v>11.36530170459244</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>13.40431852575543</v>
+        <v>13.94747150067012</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>0.6679838458911895</v>
+        <v>3.747463816592429</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>12.41959423260909</v>
+        <v>13.27582121326829</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>26.16154622847177</v>
+        <v>32.32817223908042</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>12.54249400109114</v>
+        <v>14.26634536793016</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.64534711141689</v>
+        <v>36.56187806645556</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>39.25008239850271</v>
+        <v>40.71708175755543</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>4.141134352460575</v>
+        <v>4.439895013581602</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>6.936933467329741</v>
+        <v>11.26448591684723</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>16.34088755114277</v>
+        <v>21.9251124975094</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>33.46308733711978</v>
+        <v>41.47091904899202</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.04971922604893</v>
+        <v>35.7138214391609</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>36.66602784486433</v>
+        <v>45.97888118425072</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>43.11619632114054</v>
+        <v>49.86196651850416</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>15.06399811857627</v>
+        <v>17.07661075392064</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>34.14013603798514</v>
+        <v>38.83914740303606</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>35.48967756456473</v>
+        <v>42.32617788254694</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>19.40882073894711</v>
+        <v>21.27020257330697</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>27.51776674662922</v>
+        <v>28.8557140975378</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>35.44778863219749</v>
+        <v>37.85047579431532</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>12.48747631457515</v>
+        <v>10.62902611476466</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.64222136490533</v>
+        <v>34.01340728257894</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.42602358150448</v>
+        <v>39.25148887424743</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>9.488407417545929</v>
+        <v>6.795808220209249</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>42.90307953797964</v>
+        <v>48.84980044293818</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>54.63708060319481</v>
+        <v>59.83744977106522</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>60.11171642942985</v>
+        <v>63.00778950513256</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>65.96248965155105</v>
+        <v>71.51462385925817</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>74.53451907021359</v>
+        <v>77.38969640452576</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>27.22019231422218</v>
+        <v>29.92070323550604</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>53.86122592901694</v>
+        <v>58.78533248969762</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>61.63834086074617</v>
+        <v>64.66982991073955</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>39.90390754267716</v>
+        <v>46.49248480388279</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>24.32654271645535</v>
+        <v>30.77112246818784</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.8385870671155</v>
+        <v>37.56075153084356</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>41.49251565418267</v>
+        <v>47.98193465927868</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>8.668975834410496</v>
+        <v>13.16708763737285</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>30.46236192447662</v>
+        <v>38.31124975769681</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>35.89959946503291</v>
+        <v>42.39107472423213</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>16.28977977179952</v>
+        <v>16.35725229258568</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>26.55875235986531</v>
+        <v>28.35425108750472</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>36.40923660686433</v>
+        <v>37.87080561954303</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>9.891527156422814</v>
+        <v>9.928611537988273</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.73549609164538</v>
+        <v>32.9710385730619</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>40.80352745252424</v>
+        <v>42.63027205106668</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>9.852100513250786</v>
+        <v>9.404592865373921</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>45.9490389548892</v>
+        <v>50.86599795619242</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>61.04058857971911</v>
+        <v>66.40245476802235</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>60.38122598378968</v>
+        <v>64.07659344020531</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>63.32694131119013</v>
+        <v>68.98749441786387</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>77.80426878656839</v>
+        <v>79.70923633584842</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>18.29066065235769</v>
+        <v>20.4852278696352</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>50.2518733826916</v>
+        <v>54.8477763517859</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>63.69773965953965</v>
+        <v>67.90827534722277</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>34.57442954327991</v>
+        <v>41.21869349036247</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>10.63024855290046</v>
+        <v>17.35611925606718</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>18.25402418956009</v>
+        <v>23.68220598317868</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.13031446950314</v>
+        <v>32.64344795725093</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>5.373021573274592</v>
+        <v>7.091705814422802</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>25.75950632188269</v>
+        <v>35.26022750795705</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>32.20193925821351</v>
+        <v>41.23511942972825</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>10.90220830876417</v>
+        <v>11.78016551793808</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>25.9796894588218</v>
+        <v>27.85919682900884</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.31310338746539</v>
+        <v>40.73428600343215</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>11.68066172419011</v>
+        <v>10.88191467349336</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>27.51704760882196</v>
+        <v>30.58137887087556</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>43.57452142283831</v>
+        <v>45.39317091857309</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>5.073549676430886</v>
+        <v>3.31205551494795</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>37.66626222829883</v>
+        <v>41.90979269651037</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>58.115529572646</v>
+        <v>65.04521993095237</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>42.02691023004132</v>
+        <v>47.65288183439658</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>52.47232522770673</v>
+        <v>56.65891108532341</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>73.26432801935245</v>
+        <v>77.6925262333788</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>8.422213754974315</v>
+        <v>9.34280016415517</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>38.34059944668765</v>
+        <v>41.12577342442009</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>58.55182437227025</v>
+        <v>64.68387496670947</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>12.39699415151348</v>
+        <v>11.82276915854994</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>12.12437556557356</v>
+        <v>13.83279564910189</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>23.03122787315725</v>
+        <v>25.73463740690026</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>7.875090055606417</v>
+        <v>4.813544841848159</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>21.67949450816146</v>
+        <v>22.31087631144435</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>24.8980816219342</v>
+        <v>27.80710306021594</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>3.320522827958992</v>
+        <v>7.649817485492683</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>25.73008645375364</v>
+        <v>32.37515533070658</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>28.67154690575587</v>
+        <v>35.57510956256978</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>9.749094799804372</v>
+        <v>15.6897356136756</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>12.92678145475054</v>
+        <v>17.05063251622052</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>15.37982600677608</v>
+        <v>16.81032398143508</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>11.94213782006834</v>
+        <v>10.95456707804837</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>11.37903763146021</v>
+        <v>11.62801140336977</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>21.36601301404411</v>
+        <v>27.96160201217533</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>16.80819259616024</v>
+        <v>12.63424148730291</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>22.76817805914062</v>
+        <v>21.52472099580013</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>30.69132788249316</v>
+        <v>32.8649737996278</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>16.62458057599325</v>
+        <v>12.31102267525185</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>19.4045579939561</v>
+        <v>18.27138483125827</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>24.27057024227562</v>
+        <v>20.80350064878316</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>5.163767519754284</v>
+        <v>4.182060931647346</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>21.63606462994019</v>
+        <v>17.7566352495348</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>14.10909375499523</v>
+        <v>18.14542027448781</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>20.18729258106687</v>
+        <v>23.95991978926324</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>24.84522865657003</v>
+        <v>26.06447131630013</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>3.914532570078261</v>
+        <v>4.438422338381642</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>31.21994260047171</v>
+        <v>32.88028057514612</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>30.71264268234328</v>
+        <v>33.28216158587822</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>3.846672990919686</v>
+        <v>7.424683744826812</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>38.2652826283688</v>
+        <v>40.47941756448109</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>37.4789725088644</v>
+        <v>39.85024930230557</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>36.04941648457199</v>
+        <v>41.33134162823618</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>40.05543054732334</v>
+        <v>44.40205752930839</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>43.45597360043202</v>
+        <v>42.90618938806344</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>19.60962270771749</v>
+        <v>21.39343397454315</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>38.4135755373951</v>
+        <v>35.33105274750773</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>40.87052682584828</v>
+        <v>44.04001990121749</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>18.45628696728908</v>
+        <v>19.22077695712398</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>30.0281935324553</v>
+        <v>27.60472671662287</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>34.10318726294978</v>
+        <v>29.60793168981331</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>14.30688225306968</v>
+        <v>12.6801212057283</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>33.69581046181732</v>
+        <v>31.32571191564677</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>38.21931143213455</v>
+        <v>34.89330103662259</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>41.65528067259405</v>
+        <v>40.11013150207467</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>10.56599885200906</v>
+        <v>9.738280978258031</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>19.29394112175509</v>
+        <v>20.9882055840046</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>24.22184052551231</v>
+        <v>26.31291960414645</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>2.61879660008918</v>
+        <v>2.628331149517518</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>31.55699258321283</v>
+        <v>32.38623926255076</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>33.55016524317895</v>
+        <v>36.44929932250228</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>5.912938477543584</v>
+        <v>8.048418003439945</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>41.85495252572643</v>
+        <v>43.04540272912195</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>43.13519963643834</v>
+        <v>45.15844987860955</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>39.80126461718311</v>
+        <v>45.44796092695742</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>42.30926260906207</v>
+        <v>46.49052910780132</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>49.7788956877061</v>
+        <v>48.15603188293633</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>11.00569102291478</v>
+        <v>12.27375730971594</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>32.96891111121202</v>
+        <v>29.70468680338436</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>38.20165104543204</v>
+        <v>42.33750704179337</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>15.74001906954038</v>
+        <v>14.26307672964399</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.30889498125437</v>
+        <v>27.04347169689897</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.76542138073441</v>
+        <v>28.9419493746802</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>12.41270445010911</v>
+        <v>12.38890749986538</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>32.70039374238897</v>
+        <v>29.6049534540832</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>41.28287355828363</v>
+        <v>38.04963548779448</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>10.77265153629671</v>
+        <v>7.110430963063905</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>44.45134392484855</v>
+        <v>42.49759360146624</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>1.711980657334628</v>
+        <v>4.081478325145575</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>12.09416157925059</v>
+        <v>12.54600629845004</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>21.36612473333662</v>
+        <v>21.00052078060472</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>3.627076739187761</v>
+        <v>2.921965864446243</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.08348625110429</v>
+        <v>29.60285886734653</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>36.42622206789571</v>
+        <v>36.81010436407447</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>-0.1352442432555847</v>
+        <v>2.566884084366247</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>34.23003693934207</v>
+        <v>38.07630539547868</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>39.87572934542501</v>
+        <v>42.56406916273846</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>30.06909204787209</v>
+        <v>33.30744883751122</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>32.77346113873255</v>
+        <v>34.60877988304791</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>39.21914876796322</v>
+        <v>39.61062855624414</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>5.880993636568505</v>
+        <v>5.450981419685668</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>22.09399692315624</v>
+        <v>18.45315049707223</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>37.16661208138657</v>
+        <v>40.68195287177418</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>9.478239126605482</v>
+        <v>9.887634382206139</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.6530700844007</v>
+        <v>25.15050516153638</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>33.22142148593989</v>
+        <v>29.63045812769801</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>13.98985436278615</v>
+        <v>11.95558154148804</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>30.86023652976748</v>
+        <v>28.91569592455233</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>40.91347960497518</v>
+        <v>35.80733763292911</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>7.271539325341568</v>
+        <v>2.669532839198517</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>37.98557931439453</v>
+        <v>36.08580366410121</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>28.88577339290083</v>
+        <v>23.17444712688897</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>20.93842121142216</v>
+        <v>18.82265167592171</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>36.98124222076329</v>
+        <v>37.24997194726573</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>41.18048763148751</v>
+        <v>41.64000508720432</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>11.14842689090718</v>
+        <v>7.847947410121222</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>19.53946005632558</v>
+        <v>15.44792992822433</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>22.42192021942108</v>
+        <v>22.25685602130851</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>13.36623050087784</v>
+        <v>9.289596320854749</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>18.12430105880897</v>
+        <v>17.14671043233225</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>30.7979834732761</v>
+        <v>31.73876361614372</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>13.12707271069129</v>
+        <v>11.95816140533561</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>15.96834281777902</v>
+        <v>15.94707743469206</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.0920719979674</v>
+        <v>18.91310061239657</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>3.650454254398152</v>
+        <v>4.388747443860229</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>22.73854804237148</v>
+        <v>17.23948960653681</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>38.79447044705779</v>
+        <v>40.16425249973409</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>22.95011947766631</v>
+        <v>18.34293636067885</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>46.12830024579111</v>
+        <v>47.88742672135082</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>57.0650197655997</v>
+        <v>52.09052488719603</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>5.30162703330036</v>
+        <v>6.486424742676956</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>18.79248662029716</v>
+        <v>16.21786764546263</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.10740740706591</v>
+        <v>27.2037099433561</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>48.81787117445735</v>
+        <v>49.6158736312439</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>46.17000937613771</v>
+        <v>45.41702050704873</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>54.40372868077941</v>
+        <v>54.7707677108591</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>60.75056859952127</v>
+        <v>59.09142019316266</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>22.1978565595803</v>
+        <v>21.51669874601912</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>50.71004485131949</v>
+        <v>46.65987528080002</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>49.61420289494045</v>
+        <v>48.59272015866632</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>18.76195264202497</v>
+        <v>20.31300657819274</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>33.20093457068018</v>
+        <v>30.34022504699012</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>42.33517631872286</v>
+        <v>40.03296393688225</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>14.17494481234428</v>
+        <v>13.36367052954077</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>40.99893760838742</v>
+        <v>40.53116275072723</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>47.84650447588838</v>
+        <v>44.83926058736402</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>10.41957455179817</v>
+        <v>4.676141933711399</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>53.20559091598167</v>
+        <v>53.21467059100416</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>65.58299793776132</v>
+        <v>66.33841848444267</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>69.15829789693153</v>
+        <v>64.4843645807757</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>79.80641934504962</v>
+        <v>75.6715929825294</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>88.61973888260844</v>
+        <v>82.17995443992035</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>24.50689467235077</v>
+        <v>26.86661193668378</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>64.90600571985725</v>
+        <v>64.04681298423515</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>71.50156966166877</v>
+        <v>67.90193193437875</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>55.23411738156194</v>
+        <v>54.2422690161242</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>41.86086074240268</v>
+        <v>40.7953215468664</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>46.79348158947811</v>
+        <v>46.33276549381767</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>59.27695369180658</v>
+        <v>56.49637462040143</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>15.33491172634286</v>
+        <v>16.11069305160348</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>47.20357306124753</v>
+        <v>44.71629458160755</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>15.32299126470393</v>
+        <v>14.37307743701855</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>32.34746327921465</v>
+        <v>29.00566802173735</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>43.05398520427937</v>
+        <v>39.62953818087325</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>11.51416580857218</v>
+        <v>12.51804019422533</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>41.49380868592272</v>
+        <v>38.76443639107366</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>52.26661670313595</v>
+        <v>48.31666699202547</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>10.35787674159675</v>
+        <v>7.328858867842044</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>56.24238527814748</v>
+        <v>54.5495641412093</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>71.60539856031592</v>
+        <v>72.55256317957475</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>69.31759231458555</v>
+        <v>65.71268808383819</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>76.91248180397217</v>
+        <v>72.8579021097712</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>91.416489476447</v>
+        <v>83.88309824038697</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>15.11292930657557</v>
+        <v>16.2555186637431</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>61.35734858891196</v>
+        <v>59.62367741647812</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>73.31224133872317</v>
+        <v>71.0089157246404</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>49.67201609681847</v>
+        <v>47.72276806393572</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>26.5350669904034</v>
+        <v>25.12776108289669</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>36.59132021990276</v>
+        <v>31.52863379061291</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>47.77489876691384</v>
+        <v>39.28134651315379</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>11.96436702113954</v>
+        <v>9.867227235001389</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>41.83881959581895</v>
+        <v>41.7962021213789</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>46.81175121662828</v>
+        <v>45.81345554239775</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>10.77206432746818</v>
+        <v>10.89918219853183</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>31.40375715951677</v>
+        <v>28.41421811234187</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>46.55540009714008</v>
+        <v>43.62679636919935</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>14.95251421929372</v>
+        <v>14.10067623210378</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>39.35231471979299</v>
+        <v>35.85084722383971</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>56.23077981073861</v>
+        <v>51.26840586900092</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>7.901321270569134</v>
+        <v>3.397567016446068</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>48.8516859465457</v>
+        <v>45.97716755379848</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>70.62420685878735</v>
+        <v>71.75475766823671</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>53.06118701412444</v>
+        <v>52.2085017627972</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>69.7216871939977</v>
+        <v>65.21951593586542</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>91.28889247597905</v>
+        <v>86.63299492592691</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>9.508670327370776</v>
+        <v>9.909730798225617</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>51.69354098982983</v>
+        <v>50.21564270996384</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>71.69112201775039</v>
+        <v>70.01026900239407</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>6.54568844714348</v>
+        <v>11.3544651677719</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>2.100663747768909</v>
+        <v>10.52228106297351</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>14.04662322221205</v>
+        <v>20.0195067670824</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>4.978524964543798</v>
+        <v>7.693009205277125</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>13.75593391198521</v>
+        <v>21.23368289652738</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>17.50729082558282</v>
+        <v>22.95504560567848</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>3.436347106791143</v>
+        <v>9.785276417328229</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>20.43810815228915</v>
+        <v>27.5205838857387</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>24.07168955979279</v>
+        <v>28.43607727106343</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>4.649480389703196</v>
+        <v>12.19096244249044</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>5.809360077494372</v>
+        <v>12.97217499926449</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>11.15974701055039</v>
+        <v>12.70700288681551</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>11.94361296247691</v>
+        <v>19.195408064958</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>5.960999171197489</v>
+        <v>14.88150885081186</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>21.08674768478151</v>
+        <v>32.28597719356191</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>16.93875615927383</v>
+        <v>16.15089657620554</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>27.32932648531715</v>
+        <v>26.85959975156937</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>31.61818318557118</v>
+        <v>30.34547290150179</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>6.635408964875065</v>
+        <v>7.658358787783722</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>20.14311218291461</v>
+        <v>17.38617310742258</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>20.89304535373756</v>
+        <v>21.19023975732892</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>8.491523917879814</v>
+        <v>8.368305824301522</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>33.62349269499273</v>
+        <v>30.16401143904755</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>8.024693497137207</v>
+        <v>14.27925593857475</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>6.787925174979371</v>
+        <v>14.42202231208958</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>13.03340884580359</v>
+        <v>19.91524159378652</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>2.32070168278204</v>
+        <v>7.093237179810057</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>19.79446398887509</v>
+        <v>23.49909711583232</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>19.34474225572359</v>
+        <v>23.96369454218953</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>1.931629926165009</v>
+        <v>10.53907635353313</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>26.52697256084868</v>
+        <v>30.79557754586222</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>25.99348545899704</v>
+        <v>30.07255436348149</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>20.96324250648807</v>
+        <v>27.38135339852593</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>20.51723857892485</v>
+        <v>31.76679252987222</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>26.67435130459679</v>
+        <v>31.42875954240674</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>13.25630797845339</v>
+        <v>21.0506629796859</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>20.56311496921539</v>
+        <v>26.84766499986094</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>26.01149190438356</v>
+        <v>32.60428468629647</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>22.91655755956862</v>
+        <v>24.45670788850049</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>37.02126241679366</v>
+        <v>31.79375578339116</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>37.14306647570648</v>
+        <v>31.23090325601832</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>9.221694674273111</v>
+        <v>9.086661108304646</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>36.24411977519319</v>
+        <v>34.10622966006575</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>33.93569954873057</v>
+        <v>32.39971290977561</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>13.6419687934554</v>
+        <v>9.355874126123576</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>51.83835579661336</v>
+        <v>47.69615304211992</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>3.732316393317554</v>
+        <v>8.763999571180829</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>3.976268051321281</v>
+        <v>12.2660178497839</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>10.91657809866166</v>
+        <v>20.78544806848977</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>0.2808754114901788</v>
+        <v>6.239767236839192</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>18.10929608149987</v>
+        <v>22.50297396528257</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>20.09983896979384</v>
+        <v>24.07197985644092</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>1.690775719196115</v>
+        <v>10.8309267492018</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>26.55844112871472</v>
+        <v>31.23023252160847</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>28.17423490733031</v>
+        <v>32.89961630781973</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>23.75164553018379</v>
+        <v>30.29620393106115</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>21.51865838662169</v>
+        <v>32.37788986641652</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>31.96529698119565</v>
+        <v>38.58627966547668</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>4.412949724254947</v>
+        <v>11.00356749972151</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>13.61995928077934</v>
+        <v>19.60031217879536</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>21.09013292406813</v>
+        <v>28.02211031388153</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>19.64116288812274</v>
+        <v>18.78268854397424</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>34.22380505192465</v>
+        <v>30.08867213578372</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>35.85917378479638</v>
+        <v>30.23735669818464</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>7.675919465494252</v>
+        <v>8.432202287775787</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>34.92715531955287</v>
+        <v>31.51640838039707</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>35.7988217550261</v>
+        <v>31.99894442592816</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>14.32845765518502</v>
+        <v>11.23657245471171</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>52.63593249616851</v>
+        <v>48.1673758635492</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-4.127014030122165</v>
+        <v>5.70744806603096</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>-1.095848504142886</v>
+        <v>8.017026681026287</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>10.26521413607539</v>
+        <v>18.748909177324</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>-0.2101560311207251</v>
+        <v>6.029434024941878</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>16.62753531080217</v>
+        <v>21.55126655521896</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>23.81289370739792</v>
+        <v>26.21403626002514</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-2.961513061536184</v>
+        <v>5.778959517032622</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>22.20430280493603</v>
+        <v>26.90006892606894</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>28.4181101080719</v>
+        <v>31.97742409946193</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>20.21608489385869</v>
+        <v>28.30453864026956</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>19.37702378379564</v>
+        <v>29.92932284691852</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>29.81454689817107</v>
+        <v>36.6698182749704</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>1.069711688789493</v>
+        <v>5.774174852776191</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>7.98383521112147</v>
+        <v>13.69165997168426</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>25.87127898007245</v>
+        <v>32.52351320306459</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>11.21572352488223</v>
+        <v>14.62912293856611</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.4009074057869</v>
+        <v>28.98765982122748</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>32.70721893047902</v>
+        <v>30.16493566951526</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>5.649532297346727</v>
+        <v>8.365470594721465</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>30.3945253178815</v>
+        <v>29.84571935779553</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>32.85324335858613</v>
+        <v>30.46331962323141</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>8.859037236991711</v>
+        <v>7.694523793949998</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>45.00885470765542</v>
+        <v>41.59144043002657</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>36.35512548197608</v>
+        <v>33.66375132294279</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>29.56766208891025</v>
+        <v>24.2504343501138</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>41.83458128449212</v>
+        <v>40.33599140727345</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>42.41252577711154</v>
+        <v>40.01678245074143</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>20.34954263288313</v>
+        <v>16.28509527515896</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>31.61186169197786</v>
+        <v>26.29069907362905</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>33.95784780029944</v>
+        <v>32.62535375446753</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>17.4065330796509</v>
+        <v>18.16427462366158</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>25.84669158540628</v>
+        <v>25.40587985208799</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>40.5258166116076</v>
+        <v>37.08604820076968</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>2.998196538794573</v>
+        <v>7.778460954845869</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>17.90110901257691</v>
+        <v>15.34865523694938</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>27.89955573458553</v>
+        <v>21.75156517832956</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>8.265806975065921</v>
+        <v>8.637074042294039</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>37.40956806214369</v>
+        <v>29.47144308143542</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>51.41352839937355</v>
+        <v>47.20268244209603</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>33.36883531996536</v>
+        <v>27.55353984346706</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>52.30713057255346</v>
+        <v>47.63322723101645</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>57.79849889425645</v>
+        <v>50.94144280856304</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>14.54985314316979</v>
+        <v>14.18103151091285</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>34.60438759581081</v>
+        <v>26.07995782738768</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>44.0934220013785</v>
+        <v>35.16521496222524</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>52.07857646510583</v>
+        <v>48.79015991466957</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>53.17894872158152</v>
+        <v>48.67931875894133</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>57.86571570161318</v>
+        <v>52.68888411591757</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>58.90531363588386</v>
+        <v>53.23401681807089</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>30.41069653351557</v>
+        <v>28.50299914906596</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>58.34798616627776</v>
+        <v>49.70725736797568</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>53.79833254688434</v>
+        <v>48.74053063091824</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>23.38775500089926</v>
+        <v>25.08954433942337</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>9.702606927959458</v>
+        <v>9.350675289773967</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>45.62512188967071</v>
+        <v>43.0283504160097</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>49.63328171292396</v>
+        <v>43.45863132117687</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>14.95547211431475</v>
+        <v>9.564777524868948</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>64.51420357657352</v>
+        <v>58.24936034324645</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>71.42078034157014</v>
+        <v>62.3504373664141</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>72.28396816923701</v>
+        <v>61.11577184938841</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>80.60283763633124</v>
+        <v>68.19033437057266</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>84.56887847261223</v>
+        <v>70.207526495837</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>33.30675977527883</v>
+        <v>31.72563213858031</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>76.76741774789205</v>
+        <v>65.39850144961486</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>77.23315259538671</v>
+        <v>65.26760352582632</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>55.86670818882948</v>
+        <v>51.72290275881569</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>50.29301190967745</v>
+        <v>46.95834581970627</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>52.0557805339452</v>
+        <v>49.10266322910479</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>57.85967946296329</v>
+        <v>52.54732946726564</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>23.83627335495297</v>
+        <v>21.64251362218237</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>54.85198677173948</v>
+        <v>46.95108152074425</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>52.84186693332406</v>
+        <v>47.98677070997373</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>19.46798609317982</v>
+        <v>18.00667925571259</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>38.81835280446372</v>
+        <v>31.39407393676725</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>48.71112246609654</v>
+        <v>40.3624629138567</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>7.784661176094406</v>
+        <v>7.91454931232721</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>47.26156720421575</v>
+        <v>41.10267374828766</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>53.06046250513067</v>
+        <v>43.11225247229231</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>14.44072920910306</v>
+        <v>10.53780483154672</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>67.28825533362078</v>
+        <v>59.7855950286756</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>75.45832885814883</v>
+        <v>65.69822849178249</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>73.99242862748251</v>
+        <v>63.34301051078275</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>80.37910930340774</v>
+        <v>69.03376561648527</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>88.49422872413379</v>
+        <v>72.36424936859909</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>26.10451728728648</v>
+        <v>20.48956879736304</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>76.62191275803329</v>
+        <v>66.42128675453171</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>79.20561941155837</v>
+        <v>68.86425778342993</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>49.45373584812839</v>
+        <v>46.08137997440902</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>35.32170622056167</v>
+        <v>33.75726749285682</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>41.7103657270593</v>
+        <v>37.86261132633102</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>46.10380874995109</v>
+        <v>39.95987678817949</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>17.92634378810762</v>
+        <v>16.28402870222297</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>47.69558712129655</v>
+        <v>43.13002390690096</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>48.48307571648051</v>
+        <v>44.15534224711659</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>15.61620085136266</v>
+        <v>15.24155665192889</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>40.2653970786053</v>
+        <v>32.11196743422893</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>53.08875461255165</v>
+        <v>43.07193681389792</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>9.180658918076762</v>
+        <v>9.377372656143464</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>46.37968075201819</v>
+        <v>40.28051457248935</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>56.34823493949096</v>
+        <v>44.34095016075416</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>13.81338718110903</v>
+        <v>8.076793703768416</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>64.80813332528824</v>
+        <v>57.70544762914085</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>77.8322550298287</v>
+        <v>66.02245698549598</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>65.45132974088044</v>
+        <v>61.22740616232537</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>80.17713352694571</v>
+        <v>70.92080860432108</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>90.19154432468818</v>
+        <v>75.68140268910126</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>21.92991775812567</v>
+        <v>16.02591543985839</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>73.0532029789933</v>
+        <v>66.10193536831144</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>81.49025799370519</v>
+        <v>69.5360055645137</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/plate_1/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.554</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.649</v>
+        <v>15.28</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.601</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.838</v>
+        <v>17.489</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.994</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.038</v>
+        <v>4.038</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.49548187883988</v>
+        <v>15.2040681373201</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.19963634511656</v>
+        <v>17.32866958788246</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.38926159054873</v>
+        <v>29.76850426981586</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.674894801650321</v>
+        <v>0.181923308218682</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.05575459524796</v>
+        <v>18.69146945005563</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.42816183947434</v>
+        <v>23.58174513635447</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.267963835073136</v>
+        <v>8.421162606847059</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>41.60341717375119</v>
+        <v>31.85855881060424</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>42.48791276231702</v>
+        <v>38.53100895881999</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>16.45051988977593</v>
+        <v>15.0760862540166</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>19.42766610835906</v>
+        <v>19.48817730855651</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>19.32571644198248</v>
+        <v>18.99083207075453</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.99189395829361</v>
+        <v>11.02449934566459</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.66454630381475</v>
+        <v>13.72061473540314</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>42.12578772264256</v>
+        <v>30.08898958820144</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.05222790099256</v>
+        <v>13.15441151827372</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.00353625939509</v>
+        <v>25.11309784910512</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.38879729922068</v>
+        <v>33.89546636682026</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.362875839301839</v>
+        <v>2.685663832688029</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.045847783200927</v>
+        <v>8.978183096732991</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>13.07493810689321</v>
+        <v>14.44121063095928</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.875523271327271</v>
+        <v>1.792918801049595</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>14.61685156354383</v>
+        <v>15.5523585498239</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>21.33397110143315</v>
+        <v>17.81933042338482</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.63624503108082</v>
+        <v>27.38901827167138</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.49854281379356</v>
+        <v>29.40458835113654</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.348144328648118</v>
+        <v>0.2061706933876302</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>32.63163548637649</v>
+        <v>31.74845888552036</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>31.4667074682872</v>
+        <v>32.26747059448171</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.087348934309023</v>
+        <v>6.513368845926831</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>46.82397037897091</v>
+        <v>45.30804521730413</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>45.67741741190798</v>
+        <v>45.73393844531135</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>47.36685008081162</v>
+        <v>45.42865426629535</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>51.97850747818177</v>
+        <v>51.52163050653159</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>53.43628536921628</v>
+        <v>52.16311826439136</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.89286080354349</v>
+        <v>21.85489645494325</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>45.14684243419283</v>
+        <v>43.34762039464638</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>56.51454373486623</v>
+        <v>52.4490635443057</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>19.59162872087652</v>
+        <v>15.63425401401151</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.81402580700763</v>
+        <v>33.36655587465688</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.95175929975913</v>
+        <v>35.65428125688158</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.863503221127047</v>
+        <v>2.598887502766409</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>26.80193192107876</v>
+        <v>27.55311779807108</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.82679061494957</v>
+        <v>33.68157750891547</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3.020850802104142</v>
+        <v>3.343352194505975</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>44.29668724746175</v>
+        <v>44.67192735968605</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>9.418253537317945</v>
+        <v>10.12580731858186</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>24.21877901690404</v>
+        <v>22.5499551593183</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>30.32548061242762</v>
+        <v>26.69906619445636</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.334281986243099</v>
+        <v>-0.3837851525087075</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.83719645732603</v>
+        <v>30.53605072055373</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>37.11434998639556</v>
+        <v>34.19106104399852</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>9.450811647669088</v>
+        <v>6.917634088229331</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>51.16028659252505</v>
+        <v>47.28471906759555</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>54.99547895651109</v>
+        <v>50.57201596528567</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>58.56168019418967</v>
+        <v>48.96950645604038</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>60.60634311076392</v>
+        <v>52.45490359632069</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>65.03491665013713</v>
+        <v>55.8219730020243</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>12.10950877702417</v>
+        <v>13.08284152331524</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.21680506406706</v>
+        <v>37.21235337115517</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>48.94432331298971</v>
+        <v>48.88497450893832</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>11.01178736067848</v>
+        <v>10.450204994006</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.43273519186538</v>
+        <v>30.34699505374162</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>34.23877982835853</v>
+        <v>34.20790997085693</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1.701671596986841</v>
+        <v>1.908054090526889</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>24.59575711383912</v>
+        <v>23.59296272402058</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>38.63302813370242</v>
+        <v>37.12175237944803</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4.780495603301635</v>
+        <v>5.437491025495618</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>44.71946754991591</v>
+        <v>45.11040565069381</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6.097389447692951</v>
+        <v>4.972898131850567</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>15.24376150572358</v>
+        <v>14.75375105925577</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.39098737766781</v>
+        <v>22.3979987837408</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.8058767745846822</v>
+        <v>-0.476153390150742</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.95301310394999</v>
+        <v>27.01399163891493</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>37.20434114506917</v>
+        <v>34.5233405075255</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2.095153219189264</v>
+        <v>1.596237716534233</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>45.06019157682022</v>
+        <v>41.97999053745511</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>51.9601125047402</v>
+        <v>48.50736803520525</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>44.53655190793297</v>
+        <v>33.04243556395136</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>47.37184876137023</v>
+        <v>37.84583585724924</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>55.75136079127304</v>
+        <v>40.71993919441691</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>7.719566160589576</v>
+        <v>4.244831683597319</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>26.2890793157236</v>
+        <v>26.37589911925854</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>53.86309302341792</v>
+        <v>43.63175105601478</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6.991825276063835</v>
+        <v>6.298813010492641</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.28830034453907</v>
+        <v>26.64037314307924</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>35.23317770114055</v>
+        <v>35.68964634679688</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2.57737922522443</v>
+        <v>2.359790962953667</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>23.27815046966644</v>
+        <v>23.54227871461309</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>38.78388839696151</v>
+        <v>38.14183983627593</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1.223808041572745</v>
+        <v>1.925589843022536</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>37.70009715190989</v>
+        <v>37.87852355623005</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>21.33849713652634</v>
+        <v>21.81083689784071</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>17.30916454414614</v>
+        <v>17.4024324131239</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>31.09684199526293</v>
+        <v>30.06578189188173</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>34.63374848067581</v>
+        <v>34.36397645983764</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>5.228170847042549</v>
+        <v>3.816636522053649</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>12.25456915961746</v>
+        <v>12.09040408405811</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>18.70790793397615</v>
+        <v>20.11230401916502</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>9.911771345458561</v>
+        <v>10.35598112501419</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>20.17198357655971</v>
+        <v>20.21012015264403</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>33.0224835628421</v>
+        <v>32.68209234071019</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1.359762873061122</v>
+        <v>1.690961632273339</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>7.201003842283086</v>
+        <v>6.643007703183116</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>12.1583222115466</v>
+        <v>12.10536797224143</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>2.413553587264499</v>
+        <v>0.8419538739308265</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>15.97183813561246</v>
+        <v>16.79051967972165</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>35.41988246065835</v>
+        <v>32.48486375382828</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>19.70225722464484</v>
+        <v>20.06733679005443</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>38.82087054710036</v>
+        <v>41.47133169804793</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>45.59722315785038</v>
+        <v>43.18616097244465</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3.773583437474986</v>
+        <v>3.06587701907176</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>14.95957318142981</v>
+        <v>14.62418287387464</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>26.73315076392434</v>
+        <v>24.18032815196295</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>53.99260083638993</v>
+        <v>53.56734021050542</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>51.76094375825038</v>
+        <v>51.89421661758611</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>59.49440847573523</v>
+        <v>60.38520113338791</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>60.62385306873888</v>
+        <v>60.89769414922409</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>20.71703862581519</v>
+        <v>18.79223305536468</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>54.71583394300639</v>
+        <v>54.82210501240853</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>59.58040877079569</v>
+        <v>59.87218629014156</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>25.48584729650325</v>
+        <v>19.75847484307651</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>37.21444712662381</v>
+        <v>37.23974494996542</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>43.33113351735965</v>
+        <v>43.59200571413494</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>4.212151308996894</v>
+        <v>3.926335596176987</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>38.67742250013751</v>
+        <v>39.90702926234699</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>43.05506537972268</v>
+        <v>43.55093006362567</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>6.854169831599346</v>
+        <v>6.818104039865368</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>61.96791312477143</v>
+        <v>62.44638510379836</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>66.05607184446386</v>
+        <v>65.47895840047083</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>78.65362713403482</v>
+        <v>78.80470518503111</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>82.33433275433211</v>
+        <v>82.84045191369961</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>83.91916672879536</v>
+        <v>84.44575467098878</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>32.07797648679657</v>
+        <v>31.36697274123844</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>72.95578349812408</v>
+        <v>72.93414854282545</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>78.55196076030558</v>
+        <v>77.7623389401646</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>58.02012367637701</v>
+        <v>60.29904164404827</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>43.2930357160341</v>
+        <v>44.65383425666006</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>49.69298684762228</v>
+        <v>51.36747901675142</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>59.89460494189778</v>
+        <v>59.81384854280392</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>9.943563128538724</v>
+        <v>10.5274857266759</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>51.92010365751921</v>
+        <v>51.78488884333747</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>59.12340902085391</v>
+        <v>59.38124777481867</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>13.97192283869784</v>
+        <v>13.73544631154556</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>34.85987796465595</v>
+        <v>35.01572600904195</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>42.29270818778877</v>
+        <v>42.58810471317093</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>2.327679019004723</v>
+        <v>2.491771364911582</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>38.66446700065778</v>
+        <v>37.10064627538316</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>46.45660073533971</v>
+        <v>46.91384978293302</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>7.137074634780486</v>
+        <v>6.861360743352886</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>63.11053197989399</v>
+        <v>63.95322835511485</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>71.94630400325953</v>
+        <v>71.72609459411589</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>78.71576580690176</v>
+        <v>79.44613431278668</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>80.43202429590033</v>
+        <v>80.74260390666524</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>87.59072361228772</v>
+        <v>88.02553570566101</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>15.16396727171062</v>
+        <v>18.84181129675485</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>67.53072644892841</v>
+        <v>68.74511549418129</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>81.5193136379385</v>
+        <v>81.96689542815277</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>56.76486657366144</v>
+        <v>58.06196636949715</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>24.99501414984027</v>
+        <v>25.37756932203331</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>33.33690641471593</v>
+        <v>32.52502221719121</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>44.93033479693129</v>
+        <v>45.08139834689296</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>5.940850254830721</v>
+        <v>5.144868550857638</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>47.71951805774955</v>
+        <v>47.82972626634254</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>58.30519385494028</v>
+        <v>59.14144807113856</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>9.268066573827568</v>
+        <v>8.879581960322829</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.58126129294706</v>
+        <v>33.00323522958445</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>45.35416468666085</v>
+        <v>45.68486071115064</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>3.167192662561995</v>
+        <v>2.726786073434944</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>33.71752314433601</v>
+        <v>34.1485327795594</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>48.09971453629022</v>
+        <v>49.01877423425921</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.9318311229312357</v>
+        <v>1.933799640035637</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>51.69969863644249</v>
+        <v>52.75684424176406</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>71.69868348287736</v>
+        <v>71.61436592450792</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>57.67208909574312</v>
+        <v>59.76735252242198</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>66.20103712855948</v>
+        <v>69.59829128335988</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>87.23992378094009</v>
+        <v>87.72445787062108</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>5.557581599649939</v>
+        <v>6.16891015029487</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>53.96762307379544</v>
+        <v>52.07963185586362</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>76.71603517588494</v>
+        <v>78.03211474979449</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>13.67050762214548</v>
+        <v>14.20465300247918</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>16.61908231823719</v>
+        <v>17.00383689159493</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.97173013802176</v>
+        <v>31.12504998915092</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1.143632711387941</v>
+        <v>0.8162490129027375</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>20.7991366711032</v>
+        <v>24.79778530665924</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>23.33808065419673</v>
+        <v>27.48699475821769</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6.557358976402309</v>
+        <v>7.788667562125926</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>41.35472234279646</v>
+        <v>42.84023124441428</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>42.99696195820066</v>
+        <v>47.27388891787632</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>19.99841889307957</v>
+        <v>22.04835049190729</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>25.72392770845758</v>
+        <v>31.22826449200954</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>25.20901220581146</v>
+        <v>31.02004851757354</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>20.61522479263826</v>
+        <v>18.40657496566286</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>18.61215451735593</v>
+        <v>19.66088613858548</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>42.66928307860493</v>
+        <v>45.88174189805426</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>9.316448671402064</v>
+        <v>11.77914861890776</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.05291143601035</v>
+        <v>26.23732176625542</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.19073698381658</v>
+        <v>30.38349237187378</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1.445880825297877</v>
+        <v>-3.394117416769568</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>9.427586062861447</v>
+        <v>10.11694843669669</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>13.84537542559864</v>
+        <v>13.95561060985107</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.407679459607273</v>
+        <v>-0.2660807387226072</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.82800943721801</v>
+        <v>28.1691831580887</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>16.08438929414429</v>
+        <v>14.94497760404485</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>22.86567472662543</v>
+        <v>21.79334672606267</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.77741560713925</v>
+        <v>30.46745319512153</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1.402083212210616</v>
+        <v>0.5116190830382799</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>31.03174572831214</v>
+        <v>34.23762851185655</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>31.76036049483131</v>
+        <v>34.31295477475278</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>7.077212891277071</v>
+        <v>7.205730547090283</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>47.12743757232957</v>
+        <v>50.21026869070114</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>48.7325524657417</v>
+        <v>52.34821260847167</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>46.96299529593698</v>
+        <v>49.19035175429233</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>53.08930894133265</v>
+        <v>55.48422475933273</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>53.46699392470271</v>
+        <v>55.64983121743357</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>22.98507742385869</v>
+        <v>22.21807389476295</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>49.85240800601802</v>
+        <v>42.50017784027857</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>54.47974261387943</v>
+        <v>54.75480662686236</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>18.42640691817614</v>
+        <v>15.45047729572209</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>31.2656231123376</v>
+        <v>33.08616436242333</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>35.18064943368681</v>
+        <v>35.88981236789641</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-0.1554586273415524</v>
+        <v>-1.264112277254807</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>31.48482053851833</v>
+        <v>33.28642951605217</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>33.65982087790997</v>
+        <v>35.40370672453919</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>2.327890026653094</v>
+        <v>2.147895700445041</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>50.21749010650601</v>
+        <v>53.0170424362742</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>5.444918396191607</v>
+        <v>5.630303459901477</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>16.94511251850644</v>
+        <v>16.2774309730632</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>26.45404448798831</v>
+        <v>27.1991073177269</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.1797478137738331</v>
+        <v>-0.8519085304489558</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>30.10789718925677</v>
+        <v>32.5741650394835</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>32.35212731769779</v>
+        <v>34.94661273424982</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>5.741978221396906</v>
+        <v>6.765624909600561</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>45.43286569561047</v>
+        <v>49.82478369452229</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>52.08576476158985</v>
+        <v>55.41808144730818</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>51.4591943754268</v>
+        <v>53.89114394114786</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>54.12431083460017</v>
+        <v>57.35345277428451</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>62.23862883747941</v>
+        <v>62.99143446599319</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>5.724353224439074</v>
+        <v>11.5433193411057</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>32.68787766091074</v>
+        <v>34.9610210836562</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>41.52635527714976</v>
+        <v>47.32031187957133</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>8.433879506253561</v>
+        <v>9.05538274774915</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.75070314967994</v>
+        <v>29.20642942926559</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>32.68973110877667</v>
+        <v>33.88286239470148</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-0.8512803404262606</v>
+        <v>-2.41988396586806</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>26.00489349789292</v>
+        <v>27.36288998750078</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>35.55565035924568</v>
+        <v>36.967853980339</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>3.310971284962747</v>
+        <v>2.223608705875378</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>45.91739229935214</v>
+        <v>48.70536334890535</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>3.213688329365862</v>
+        <v>2.096501001863786</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>12.73326140439254</v>
+        <v>12.01377144558602</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.02379892239742</v>
+        <v>27.28615200099831</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-0.2215422344937785</v>
+        <v>-1.60284301544052</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>26.97978561202244</v>
+        <v>32.24591048618976</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>34.62379005837705</v>
+        <v>37.82889764158578</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.9023758398454369</v>
+        <v>0.4396270981815178</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>42.20743007949279</v>
+        <v>46.21556475971138</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>50.18577567556988</v>
+        <v>55.58466604691726</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>49.47140995125482</v>
+        <v>47.79992146253798</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>52.84919140277752</v>
+        <v>54.02512622281939</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>59.03516762762793</v>
+        <v>61.04621273623977</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>3.093975472823203</v>
+        <v>5.206703811609195</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>26.94185583508973</v>
+        <v>28.85266647850283</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>45.59990261273521</v>
+        <v>51.65838372340217</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>5.181565579073631</v>
+        <v>5.52029002989897</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>24.7915997749486</v>
+        <v>25.89789539734332</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.61899070075277</v>
+        <v>32.35758748481274</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-0.5526261762427218</v>
+        <v>-3.017969950431599</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>21.84195936211763</v>
+        <v>23.28650229438739</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>31.5947714902236</v>
+        <v>32.18062513865988</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0.7451782298361103</v>
+        <v>-1.502502372652547</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>36.62091808533246</v>
+        <v>38.93236847594167</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>27.43864089975656</v>
+        <v>31.25788642301924</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>21.93905900783456</v>
+        <v>21.6922291516642</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>38.00029774586106</v>
+        <v>39.6618591397858</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>38.54195143223842</v>
+        <v>39.52435532927083</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>8.827678701525159</v>
+        <v>8.70952810219986</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>18.69995824927526</v>
+        <v>19.42824561868975</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>26.70189480236555</v>
+        <v>28.0456786992731</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>11.84555328936342</v>
+        <v>11.69069335469448</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>25.11522494996</v>
+        <v>24.89807021712278</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>36.24390244958347</v>
+        <v>38.22142117444433</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-1.857371929728785</v>
+        <v>-3.065461137517431</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>8.026129820131008</v>
+        <v>9.36912720390818</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>17.39790883009885</v>
+        <v>18.70351126373198</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>1.252428111361272</v>
+        <v>0.6885697852693156</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>25.82132745597157</v>
+        <v>29.5683004948495</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>49.40062925390711</v>
+        <v>49.46336255999252</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>25.95130035057079</v>
+        <v>26.57395878271699</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>45.14490641631575</v>
+        <v>46.24586953430858</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>53.02533805893152</v>
+        <v>54.88509261531343</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>7.471853596740718</v>
+        <v>6.657184823883981</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>23.54815428845652</v>
+        <v>26.41558600377211</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>39.02198620707578</v>
+        <v>41.47928906228788</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>57.21692874840826</v>
+        <v>58.55188125554204</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>51.80612347912758</v>
+        <v>55.57084771828345</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>59.96004370241965</v>
+        <v>63.00786848891528</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>57.99695421933828</v>
+        <v>61.56186167297834</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>20.65174568797202</v>
+        <v>21.7040539959616</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>55.58343251086958</v>
+        <v>57.7190097471999</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>59.32971602506133</v>
+        <v>60.60343276639252</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>23.83812772004045</v>
+        <v>19.88192730886755</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.73783503064607</v>
+        <v>37.77738753752608</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>44.35755669622256</v>
+        <v>45.13710662723641</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0.9033356319048345</v>
+        <v>-0.2761752218858149</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>43.30710909796461</v>
+        <v>44.33447257467259</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>45.20916273265577</v>
+        <v>45.35314477795862</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>5.531625324898357</v>
+        <v>5.770384555427732</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>65.83374480078164</v>
+        <v>66.10650161873536</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>69.96654789984636</v>
+        <v>71.56080879886495</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>74.48240308495591</v>
+        <v>75.85167670978291</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>78.86722646166953</v>
+        <v>79.92374105618609</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>83.24969973182037</v>
+        <v>85.63701210147062</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>30.46865752290581</v>
+        <v>28.51708617701015</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>75.23709555120043</v>
+        <v>78.195587338054</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>78.06137692299278</v>
+        <v>80.05781982364597</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>58.49680271500264</v>
+        <v>60.9752472329483</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>46.91260888230407</v>
+        <v>49.35054637084837</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>51.03987916368917</v>
+        <v>53.25184526014444</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>59.37903883306149</v>
+        <v>59.88178106041497</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>8.883562062606963</v>
+        <v>11.16203006147439</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>48.92198334392506</v>
+        <v>51.08262351676593</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>56.29622993868957</v>
+        <v>57.31668141639373</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>11.60350210552806</v>
+        <v>12.2381142242657</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>33.5964161501762</v>
+        <v>34.45942058131951</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>42.6160074800429</v>
+        <v>43.41802153137287</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-0.9547343266706179</v>
+        <v>-2.792363817909823</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>38.26161536493885</v>
+        <v>40.03885383851254</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>45.24480084120346</v>
+        <v>45.70871337907565</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>5.116280130584929</v>
+        <v>4.67540531763937</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>61.69707604259455</v>
+        <v>64.99259923263563</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>72.61265775085703</v>
+        <v>74.62424932667737</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>71.12698243952863</v>
+        <v>74.88366739786623</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>77.18711706564397</v>
+        <v>79.64407400457536</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>87.05786103308097</v>
+        <v>88.78967400602454</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>12.23844713901965</v>
+        <v>14.3845439752128</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>72.17157155370754</v>
+        <v>75.56198904203768</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>78.95357043064662</v>
+        <v>81.4273645402386</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>51.74078458560294</v>
+        <v>53.82874802225202</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>27.31076476872776</v>
+        <v>28.44272111118473</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>33.73695564479858</v>
+        <v>34.61817721062169</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>40.39041576103159</v>
+        <v>40.96995251488288</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>6.275055821705653</v>
+        <v>5.88513957662482</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>41.8051223666096</v>
+        <v>42.51845852222348</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>50.76267696232533</v>
+        <v>50.78807980425552</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>8.002795533598675</v>
+        <v>6.48631455420912</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.18571645881386</v>
+        <v>33.40203758504833</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>43.78438588790934</v>
+        <v>45.16644166139575</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-0.1910489192517311</v>
+        <v>-2.565418604237898</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>35.45886082201469</v>
+        <v>38.0393132796157</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>44.36056238999233</v>
+        <v>45.87100306506531</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>1.279378772200964</v>
+        <v>0.3553093164577206</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>56.92498219383498</v>
+        <v>59.72142986688278</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>71.70361139967996</v>
+        <v>74.59384688039056</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>61.42084917012556</v>
+        <v>63.29046029744571</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>74.09693235304294</v>
+        <v>76.63839722946511</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>84.68202134095189</v>
+        <v>87.70382193814173</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>7.233479816044408</v>
+        <v>7.567037208502597</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>68.01247060980565</v>
+        <v>70.64459743631332</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>79.30141281878231</v>
+        <v>82.5308644272732</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>8.285120657514586</v>
+        <v>8.055252876124559</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>10.83540190962274</v>
+        <v>10.10028283006664</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.8851115412956</v>
+        <v>22.10330986587722</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-0.889485750905493</v>
+        <v>-1.223050802131947</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>12.1678282808894</v>
+        <v>13.0416587972767</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>13.15152417386476</v>
+        <v>14.867652924308</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>3.408997157233539</v>
+        <v>2.882240005951875</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>27.83143466169121</v>
+        <v>27.79543193413876</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>30.25859925598829</v>
+        <v>32.26285777604571</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>13.5428680018033</v>
+        <v>13.67300979308581</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>18.82981339868383</v>
+        <v>22.9254754452352</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>17.70945458557826</v>
+        <v>23.19023735359061</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>14.71526124963063</v>
+        <v>11.50075697874229</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>12.34316183048209</v>
+        <v>11.7542182809362</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.02624597864014</v>
+        <v>29.95923436806657</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>8.852344245663375</v>
+        <v>11.62368348215959</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.40116369802503</v>
+        <v>26.92275157847756</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.39848101308906</v>
+        <v>32.01985078442358</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-2.694869910781538</v>
+        <v>-2.848686081389481</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>8.395798314353598</v>
+        <v>9.896289325930296</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>15.04952815622921</v>
+        <v>15.82818314150014</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-0.3294959785481701</v>
+        <v>-0.0325221214041207</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>27.25437237986392</v>
+        <v>30.2024067395837</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>11.12336005029446</v>
+        <v>10.41661244653379</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>18.12126734823269</v>
+        <v>17.3250725130311</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>22.69936717845676</v>
+        <v>23.52270640972887</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-0.8959803164585196</v>
+        <v>-0.4265660262795343</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.46005284130625</v>
+        <v>27.18538040636657</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>26.24108908266732</v>
+        <v>26.82205275708108</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>3.444625965065029</v>
+        <v>3.971414922977161</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>39.34466152738149</v>
+        <v>40.74881765183805</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>40.32764558166387</v>
+        <v>41.87183510940113</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>39.45716395732555</v>
+        <v>40.81449518473961</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>47.24027363564196</v>
+        <v>48.17088785142322</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>47.32424879967159</v>
+        <v>49.31596339547286</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>15.92421820292231</v>
+        <v>14.25532387847484</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>41.75055243784794</v>
+        <v>34.39859731089032</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>44.74863685630893</v>
+        <v>41.54121963047716</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>17.07935850589303</v>
+        <v>15.30400644287264</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>32.56184360789854</v>
+        <v>34.96781621646416</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>35.94778237652073</v>
+        <v>37.53884206994591</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-1.374995813148878</v>
+        <v>-1.234752435870586</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>32.98397302328914</v>
+        <v>35.96625433751447</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>36.52674677659917</v>
+        <v>38.31715612008036</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>0.8619313302685896</v>
+        <v>1.060491140760227</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>53.63548399416216</v>
+        <v>56.85267903466921</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>2.872110582402062</v>
+        <v>2.702185187129672</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>12.6500140294184</v>
+        <v>12.31554756349947</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>22.07835691219397</v>
+        <v>20.96829777099779</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-1.66106905636034</v>
+        <v>-1.636110289414432</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>24.31553350804139</v>
+        <v>25.1913165965023</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>26.17141712965983</v>
+        <v>27.14753683924154</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>4.328911603623311</v>
+        <v>5.410702783476118</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>39.6663736788415</v>
+        <v>41.8373673149555</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>44.8441573537132</v>
+        <v>46.21826461663326</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>43.60179178090462</v>
+        <v>45.86504762894522</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>46.42847442057726</v>
+        <v>49.81440432537254</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>57.25939577979749</v>
+        <v>56.97867011266992</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>2.322177842330571</v>
+        <v>5.505550454336351</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>25.92772840453717</v>
+        <v>27.11167971907087</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>33.25695453511627</v>
+        <v>34.93811397619951</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>9.416426693590306</v>
+        <v>10.53188746913005</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>31.37308030608415</v>
+        <v>33.45472918518307</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>34.57575217195487</v>
+        <v>37.14491765364876</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-1.616750603522053</v>
+        <v>-1.508975107645533</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.10344601973011</v>
+        <v>31.83699464311667</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>37.23247235325348</v>
+        <v>40.44559045106131</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>3.40781791383958</v>
+        <v>3.28174031394169</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>51.99757536425147</v>
+        <v>55.52421567275469</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>0.7196554172957228</v>
+        <v>0.8308568021338409</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>8.400177033413307</v>
+        <v>7.895309713933845</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>20.92903784476843</v>
+        <v>22.67040666537304</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-2.323074352694672</v>
+        <v>-1.91579756022535</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>16.44672349853705</v>
+        <v>21.44168935829788</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.66394132340373</v>
+        <v>29.58591059683016</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-1.203912881652677</v>
+        <v>-0.6805925089124187</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>31.96700911021019</v>
+        <v>33.87039493752705</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>42.49704749078839</v>
+        <v>45.22360355009798</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>37.27040671875488</v>
+        <v>37.98272471262015</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>41.41187041729663</v>
+        <v>43.89475194863925</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>50.5042233735539</v>
+        <v>53.87831315790109</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>0.2965881192518296</v>
+        <v>2.707911352021735</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>20.9585992798821</v>
+        <v>21.7854740828726</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>37.73146284901779</v>
+        <v>39.74766257303079</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>5.651007972948204</v>
+        <v>6.979879943652655</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>27.47030635766411</v>
+        <v>30.0392217910084</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>33.02741800821735</v>
+        <v>35.67440504781508</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-1.360998324539402</v>
+        <v>-2.144591533399201</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>24.16397134717229</v>
+        <v>26.77407194977174</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>33.50499853369752</v>
+        <v>35.29371222145476</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-0.5273352167415837</v>
+        <v>-0.8382425461848975</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>40.50958106210226</v>
+        <v>44.17810222146944</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>31.32198649052086</v>
+        <v>34.9919621650869</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>22.97664535931509</v>
+        <v>24.18266247133737</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>40.34677777410742</v>
+        <v>43.10493824342791</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>40.82795790047982</v>
+        <v>42.92960264742828</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>7.934105052341149</v>
+        <v>9.181068161459391</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>21.20560869979931</v>
+        <v>23.76694812540301</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.95826616427347</v>
+        <v>33.81225240342206</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>12.40637084223289</v>
+        <v>13.12461472231468</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>26.45166438562532</v>
+        <v>26.75689114501095</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>39.06114574339733</v>
+        <v>41.48061770527968</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-3.085180073538282</v>
+        <v>-3.430769899438815</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>6.484076228479392</v>
+        <v>8.274849637453919</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.04818023310194</v>
+        <v>15.86226520433477</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-0.2952618289514817</v>
+        <v>-0.3804022237030509</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>24.78337663033639</v>
+        <v>30.24819607289782</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>49.17147922357266</v>
+        <v>49.79741762814243</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>27.81440071665462</v>
+        <v>29.69916161032377</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>49.47262470941352</v>
+        <v>51.79557873075049</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>55.70856891300099</v>
+        <v>57.41280348442918</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>6.228523540266977</v>
+        <v>5.647043151625052</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>22.76797203198386</v>
+        <v>27.4890217725543</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>38.41618528178599</v>
+        <v>42.23066849742855</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>59.77402402194707</v>
+        <v>61.58524575330262</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>55.19869877210195</v>
+        <v>58.89168103297116</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>62.54448275249642</v>
+        <v>66.87291490925128</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>62.0422446963357</v>
+        <v>64.26052340581329</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>19.01059463639042</v>
+        <v>20.05867110335615</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>59.16599140843869</v>
+        <v>61.9949911835532</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>62.76857194200642</v>
+        <v>65.28769590444722</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>23.31730242166909</v>
+        <v>20.04131802202631</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>38.28711500662261</v>
+        <v>39.60628112079502</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>47.32509216673971</v>
+        <v>48.1085571200648</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-0.4213894908161819</v>
+        <v>-0.5584677748505911</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>46.6310122083125</v>
+        <v>49.04304426011811</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>49.75700950143735</v>
+        <v>48.12274099589668</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>3.212810787866751</v>
+        <v>3.83000909568668</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>70.96258978241698</v>
+        <v>71.15468454931835</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>74.69385822320257</v>
+        <v>75.17484305479684</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>79.58807535046692</v>
+        <v>81.36896967081643</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>84.45470445682193</v>
+        <v>86.7142376730999</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>87.73379617306173</v>
+        <v>87.78351939769232</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.18240894920126</v>
+        <v>27.11674357893895</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>80.82371854666452</v>
+        <v>83.68878290423314</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>83.70707810855603</v>
+        <v>85.72879743490711</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>63.3516373863829</v>
+        <v>66.18751257932291</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>51.87865641426673</v>
+        <v>55.35356536504783</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>56.87179002995796</v>
+        <v>60.85378757031249</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>63.24733975528051</v>
+        <v>65.33421918517226</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>10.67074696033735</v>
+        <v>12.04215956147215</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>54.51867664207537</v>
+        <v>58.55501714238027</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>61.37512891486259</v>
+        <v>64.23385818303024</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>12.83335663361627</v>
+        <v>13.2608970972318</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>36.07960053207036</v>
+        <v>37.41643510541665</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>46.11196643772793</v>
+        <v>47.0498637072032</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-2.054147197730007</v>
+        <v>-2.787407111924953</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>43.12847006256132</v>
+        <v>45.62230687831821</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>47.63090549619059</v>
+        <v>48.88106505794792</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>3.822391145773238</v>
+        <v>4.315507390442701</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>70.29149498536974</v>
+        <v>72.34298971538036</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>78.18736865986982</v>
+        <v>79.92282533800801</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>79.48593909498243</v>
+        <v>82.6257286466281</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>85.66028001908458</v>
+        <v>88.68154222775493</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>91.97360043675238</v>
+        <v>92.08566272521904</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>11.29212212992696</v>
+        <v>14.51597537153658</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>80.20732148888462</v>
+        <v>83.90932141977726</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>85.6968493934535</v>
+        <v>89.02162780938431</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>55.12702055588571</v>
+        <v>58.36512670848553</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>31.64761493876222</v>
+        <v>34.88995576548157</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>38.86605241649729</v>
+        <v>42.43669966063931</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>45.77212239048662</v>
+        <v>48.72489618597746</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>7.178514692240938</v>
+        <v>8.265506440946741</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>42.9340062232902</v>
+        <v>49.96887159711898</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>53.35851954977943</v>
+        <v>56.25600202767029</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>8.051195461295389</v>
+        <v>6.958487601860682</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>34.13578710153709</v>
+        <v>35.35812996380716</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>46.03870613418501</v>
+        <v>47.55327543815892</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1.266832797738832</v>
+        <v>-2.163247926665214</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>38.81723473234676</v>
+        <v>41.74046662257591</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>46.27868571482462</v>
+        <v>47.56384675197813</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-0.4927205818050986</v>
+        <v>0.4124831883052416</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>63.04892975457744</v>
+        <v>64.799305698513</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>75.5978805371939</v>
+        <v>78.03116097999649</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>68.92525971859817</v>
+        <v>70.4118228560331</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>81.89094177227908</v>
+        <v>84.66319248797251</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>90.43015477337237</v>
+        <v>92.74174560227738</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>7.075420198210789</v>
+        <v>9.068653563805526</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>75.87253262890015</v>
+        <v>78.11590205059294</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>84.32355885207647</v>
+        <v>87.50951838230338</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>14.57368814789876</v>
+        <v>10.56701043970435</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>14.62149853558751</v>
+        <v>12.3957623255254</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>24.46792456156913</v>
+        <v>22.66070593019425</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>5.165289287869193</v>
+        <v>1.76649344800844</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>18.67067165956351</v>
+        <v>16.03168861628637</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>22.24981358127228</v>
+        <v>20.48840006391319</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>8.419761752567133</v>
+        <v>6.118748813098914</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>31.87895275227833</v>
+        <v>24.38941767485407</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>32.05896939191007</v>
+        <v>28.38159968690887</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>14.02433711659522</v>
+        <v>12.01001448946548</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>16.86060559401273</v>
+        <v>15.14408172737343</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>17.15026705688605</v>
+        <v>13.87965735249617</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>14.07227092639594</v>
+        <v>10.53526276350979</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>12.53296882993189</v>
+        <v>9.538388251328977</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.22410068924786</v>
+        <v>22.63873630790086</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>11.02647149448771</v>
+        <v>8.934823259154307</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>18.59226504843108</v>
+        <v>15.68056311545993</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.57251794443976</v>
+        <v>24.68124427104567</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>10.36689354571869</v>
+        <v>9.392653742308294</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>13.56146655311852</v>
+        <v>10.33142380079927</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>16.41749493535103</v>
+        <v>14.45148494255202</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>4.152285530337309</v>
+        <v>2.327919973106905</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>12.14932050290843</v>
+        <v>8.749573631432103</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>19.8525583093891</v>
+        <v>15.3317911364332</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>24.91830407159389</v>
+        <v>23.4692182492384</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.95929393750111</v>
+        <v>25.67176982124717</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>5.179521845016119</v>
+        <v>1.731515311417077</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>30.67177407143082</v>
+        <v>28.58489040777138</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>30.32946240889903</v>
+        <v>29.92940039936536</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>8.171216083440619</v>
+        <v>5.770913831502849</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>39.37417296647774</v>
+        <v>38.51162456427015</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>37.92097312726835</v>
+        <v>37.94355988903818</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>41.00267920632245</v>
+        <v>37.6633410257657</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>45.18928450972938</v>
+        <v>42.40418171939345</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>45.11788616478471</v>
+        <v>43.18075781010025</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>24.09190087409086</v>
+        <v>20.61298395933754</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>37.68878116805206</v>
+        <v>37.05531263854084</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>43.70184979634706</v>
+        <v>44.29615821908514</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>16.49115128332601</v>
+        <v>12.80161508612192</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>23.77362806995925</v>
+        <v>20.96774307313629</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.00932638731209</v>
+        <v>24.54538790392075</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>10.31052742547108</v>
+        <v>8.474417941774728</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.1452867755278</v>
+        <v>21.49834539539838</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>31.13076127036396</v>
+        <v>26.93775671446154</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>33.34236959341589</v>
+        <v>29.57566197987169</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>11.65357280552408</v>
+        <v>10.73488847931456</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>23.32999385166639</v>
+        <v>21.97349606970175</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.28265701066823</v>
+        <v>26.09638670829197</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>3.95499650288782</v>
+        <v>1.948928940307152</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>31.60360346737618</v>
+        <v>28.97432364116172</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>34.88888162775383</v>
+        <v>33.01347777591592</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>10.11676379744571</v>
+        <v>8.221731306720375</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>43.82060363938243</v>
+        <v>42.98677181892965</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>46.42811367488947</v>
+        <v>44.91980938571641</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>47.20508762908003</v>
+        <v>41.39724692459528</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>49.36157292842084</v>
+        <v>43.10711651204974</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>52.21968031215252</v>
+        <v>47.22826555708485</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>14.73726603395055</v>
+        <v>14.89169884845836</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>35.80780887268963</v>
+        <v>34.3866740259373</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>42.63567742795011</v>
+        <v>43.91543336555211</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>12.35256466490461</v>
+        <v>10.72164097042275</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>24.69983958077009</v>
+        <v>21.25698690098049</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.21784764994887</v>
+        <v>24.82622335833872</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>9.909897150394855</v>
+        <v>9.133329333982523</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>23.86805091974506</v>
+        <v>19.9403714198697</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>34.72284864955965</v>
+        <v>30.3465618750611</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>7.189895845623361</v>
+        <v>6.553292377591564</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>35.33532675685448</v>
+        <v>32.29623634992009</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>7.350078952482814</v>
+        <v>5.155258709163455</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>14.61106738525875</v>
+        <v>13.61246911975374</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>22.5591798943232</v>
+        <v>19.87781260844073</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>3.626531780370829</v>
+        <v>1.596461244848044</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.21252943782448</v>
+        <v>24.32125175962323</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>34.12991376553207</v>
+        <v>31.17921906705831</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>3.95249159523728</v>
+        <v>1.113183328009217</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>37.31726378339825</v>
+        <v>34.54760670562398</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>42.31841681149076</v>
+        <v>39.17565653562765</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>33.03497192642482</v>
+        <v>25.90996971853975</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>35.87595799813072</v>
+        <v>28.59454047021838</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>41.79020428968709</v>
+        <v>31.88454637425293</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>9.157346963993195</v>
+        <v>6.012635661576507</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>24.41063690153011</v>
+        <v>22.55149490461192</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>45.14828317354142</v>
+        <v>37.54849704191394</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>8.487499753449143</v>
+        <v>6.457614165440511</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>21.91127936673455</v>
+        <v>19.00671447827604</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>27.82537973140151</v>
+        <v>24.66106540048548</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>10.32675595671835</v>
+        <v>8.500171035164577</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>23.26042182983236</v>
+        <v>20.88775267399077</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>33.10197281381531</v>
+        <v>29.36268902672768</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>2.991958369814128</v>
+        <v>2.292923893487995</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>30.66421580889118</v>
+        <v>26.77085536236631</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>17.38636750990467</v>
+        <v>13.75792619352472</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>14.60016514631629</v>
+        <v>11.03765317520946</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.64163769167781</v>
+        <v>24.76315783579536</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>33.40763455200273</v>
+        <v>29.7001358415307</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>6.362761382845395</v>
+        <v>4.121219113896991</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>11.1144855229192</v>
+        <v>7.271027950481304</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>15.93547422614565</v>
+        <v>11.82087476039963</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>10.22976378597297</v>
+        <v>10.50366959108552</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>17.94650132703914</v>
+        <v>16.76340577150738</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.15488415500909</v>
+        <v>28.95324654781738</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>9.861651011542122</v>
+        <v>8.653800666898828</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>13.05843812802932</v>
+        <v>9.595202111812039</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>15.60062590740802</v>
+        <v>14.47201152984148</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>4.612565794882741</v>
+        <v>2.355077577864762</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>14.60447023443019</v>
+        <v>13.01336880586013</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>30.07481648843252</v>
+        <v>31.08482154904513</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>17.15257672188022</v>
+        <v>12.73260059799885</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>37.52502089066041</v>
+        <v>36.39990234674042</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>42.67167296748523</v>
+        <v>39.04650112958211</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>5.279718343874638</v>
+        <v>5.128266999999717</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>13.37175117900263</v>
+        <v>10.06142967750251</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>22.49150182921678</v>
+        <v>19.46622259571483</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>43.3988330793784</v>
+        <v>38.41703802453805</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>37.03852413534312</v>
+        <v>35.04056090060384</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>48.13299011239889</v>
+        <v>43.97364500274127</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>51.70751158916758</v>
+        <v>46.93572444191805</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>18.42188443445481</v>
+        <v>16.58400903812281</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>41.32113037626929</v>
+        <v>37.46040568528657</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>45.01989253199234</v>
+        <v>40.22198368225371</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>22.60479795688821</v>
+        <v>20.23532518101133</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.83744495295024</v>
+        <v>28.41576421928415</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>38.59853209080761</v>
+        <v>36.93494809079884</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>11.64543437291747</v>
+        <v>9.554577405272365</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>34.47435875643495</v>
+        <v>33.74075130820503</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>40.10126310590942</v>
+        <v>38.64013639978749</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>7.604973231096505</v>
+        <v>7.345398989548947</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>49.17798305761184</v>
+        <v>48.42910553282314</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>60.12069107800394</v>
+        <v>57.80491308897179</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>61.43864088759155</v>
+        <v>62.08669419871536</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>71.26811715138597</v>
+        <v>70.50093214801015</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>76.73356433746636</v>
+        <v>75.76729523884103</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.50942612963643</v>
+        <v>31.08473334354145</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>60.48833645290797</v>
+        <v>57.19290424136534</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>65.54529665077175</v>
+        <v>63.01301534071368</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>49.14924867055468</v>
+        <v>45.20820606895648</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>33.41133586538104</v>
+        <v>30.15254349609164</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>38.23975484367237</v>
+        <v>35.94025085484526</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>49.88733765878173</v>
+        <v>45.67664444522185</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>13.80639421028446</v>
+        <v>11.96120030576302</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>40.63766284668188</v>
+        <v>36.44937050991696</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>44.8011773220681</v>
+        <v>40.49973989836266</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>16.5605612894729</v>
+        <v>17.11918797776053</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.22822549418258</v>
+        <v>28.44639875719586</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>38.52291913778618</v>
+        <v>37.31054679676623</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>10.8058264620016</v>
+        <v>9.392255073482549</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>35.11593860280206</v>
+        <v>32.21420991617386</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>43.18968502921886</v>
+        <v>41.76312935197642</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>9.860803251763365</v>
+        <v>9.386460614850211</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>51.50689956425339</v>
+        <v>51.58085013539844</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>66.19889761385056</v>
+        <v>64.18311583113018</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>63.17752162298903</v>
+        <v>63.44543516707461</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>68.52147272573583</v>
+        <v>68.12347580390548</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>78.80868935188425</v>
+        <v>78.58627376138807</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>19.36008523029179</v>
+        <v>21.72400020257978</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>54.53815311165987</v>
+        <v>53.94704770818406</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>65.90707263753696</v>
+        <v>66.61031223481802</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>42.96364339234776</v>
+        <v>40.49028446217951</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>19.57915827536594</v>
+        <v>15.75544427438495</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>26.03219663365913</v>
+        <v>21.75661327938449</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>34.98494541782481</v>
+        <v>33.37329835660529</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>8.704696898513941</v>
+        <v>7.0183926112148</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>36.92916751110152</v>
+        <v>34.76972615810372</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>43.14458249767574</v>
+        <v>40.31582505503922</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>12.21724440875301</v>
+        <v>12.08244231250091</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.59888192858253</v>
+        <v>27.57791224104255</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>41.29403740099875</v>
+        <v>39.97237149021706</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>11.82040710428518</v>
+        <v>9.848514633568236</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>31.48390890587254</v>
+        <v>30.67032963043576</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>45.51978934562323</v>
+        <v>44.52938116986863</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>3.562488076994828</v>
+        <v>4.207254178782122</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>42.15075631839511</v>
+        <v>42.60135041125736</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>64.89290633013616</v>
+        <v>63.18550165030272</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>46.99291370438613</v>
+        <v>47.44598783122118</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>56.66063575974069</v>
+        <v>58.41148665461913</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>77.43813074320695</v>
+        <v>76.49541564763172</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>9.874628900056376</v>
+        <v>10.30783377070146</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>42.76226401305308</v>
+        <v>38.88369151413015</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>64.32096834890974</v>
+        <v>63.6800517729918</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>14.64068646752214</v>
+        <v>11.08737039130972</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>13.99603269637021</v>
+        <v>13.10675685181577</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>26.80325823721438</v>
+        <v>24.78053319245061</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>6.069019059909923</v>
+        <v>3.827048345909006</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>23.37900913169299</v>
+        <v>20.75613371882256</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.57702726293207</v>
+        <v>25.81768962259878</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>7.774151903484881</v>
+        <v>6.796776164775647</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>37.57635164435222</v>
+        <v>27.9648215898974</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>37.15567787485685</v>
+        <v>32.16695818005165</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>15.00025866815147</v>
+        <v>13.37382395663606</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>17.54089766135109</v>
+        <v>17.72656553222483</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>17.69593171385574</v>
+        <v>15.6532403506555</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>14.74193757640221</v>
+        <v>11.82411785344679</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>13.36330390649896</v>
+        <v>10.61925823642927</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>32.85121635336962</v>
+        <v>26.00346668609784</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>13.10189947265238</v>
+        <v>13.22537541220042</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>21.2008278898194</v>
+        <v>22.0547698471555</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>32.71559441382554</v>
+        <v>31.433526444626</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>13.24946827938804</v>
+        <v>11.88499420971937</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>18.59822758404222</v>
+        <v>17.06088269203711</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>20.63576486816343</v>
+        <v>20.72688517266212</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>5.136111316440346</v>
+        <v>3.858487006705886</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>16.47929117205223</v>
+        <v>18.17913582981647</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>21.00944688935775</v>
+        <v>15.35701303132133</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>25.282972588659</v>
+        <v>22.85929644362839</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>26.94577566569712</v>
+        <v>25.63384540874889</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>6.146608448474439</v>
+        <v>3.182203746249925</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>34.14051396070193</v>
+        <v>31.92912519330889</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>34.19628785641436</v>
+        <v>33.22962065056294</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>8.734303111936764</v>
+        <v>5.843920933329034</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>41.22996425888238</v>
+        <v>39.79299682449973</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>39.69441629708304</v>
+        <v>39.27182529498594</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>41.41408190675266</v>
+        <v>39.04376715994201</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>43.85247945532264</v>
+        <v>42.99750829514056</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>43.11487960681934</v>
+        <v>42.94773139328461</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>23.53829568430488</v>
+        <v>20.37065465926041</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>35.42086796099988</v>
+        <v>36.33727963744035</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>43.59164351896317</v>
+        <v>43.95573963599657</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>20.08383840577104</v>
+        <v>17.59374454909834</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>26.58120377487223</v>
+        <v>28.53817558619406</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>28.99792486095064</v>
+        <v>30.44766942343613</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>13.3512726008703</v>
+        <v>11.87224924198311</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>30.27157375935465</v>
+        <v>31.84448360015167</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>33.41265781963367</v>
+        <v>34.89613980910389</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>38.37756340638026</v>
+        <v>42.04954534886966</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>9.701703422609548</v>
+        <v>9.160687143422042</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>21.81891945037068</v>
+        <v>20.2176937530438</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>27.16354884814615</v>
+        <v>25.33309320534714</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>4.347591333930325</v>
+        <v>2.430941347251832</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>33.7799492321155</v>
+        <v>31.27487753181627</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>37.12073389112948</v>
+        <v>35.63688935947786</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>8.88079724607902</v>
+        <v>6.786385196080783</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>43.244515932958</v>
+        <v>42.82435529879826</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>45.42934282269729</v>
+        <v>45.20078329971912</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>48.22139091256604</v>
+        <v>42.48655275691222</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>49.05446935453537</v>
+        <v>43.4083131940908</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>51.75749035452485</v>
+        <v>47.01570783695524</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>11.10177731357362</v>
+        <v>12.84480307815737</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>30.22512574784324</v>
+        <v>31.86130756005188</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>38.94812743600882</v>
+        <v>41.84278783528169</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>14.24945068889552</v>
+        <v>14.32016332601927</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>26.50646855244161</v>
+        <v>28.23960298609014</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.43255073356806</v>
+        <v>30.1533689718001</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>12.71431260785464</v>
+        <v>12.01398403281956</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.59811000863611</v>
+        <v>30.10945223151043</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>36.58809257939743</v>
+        <v>38.3668881742521</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>7.581376754430867</v>
+        <v>8.541023280815919</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>40.03636499213956</v>
+        <v>44.85030848782263</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>5.527363542372314</v>
+        <v>4.042954683281021</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>13.270626120158</v>
+        <v>12.96898619420799</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>22.04634438511061</v>
+        <v>20.88998223398682</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>4.612082389894773</v>
+        <v>2.808373798785819</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>31.35880736392825</v>
+        <v>27.88256579799331</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>37.31835280702749</v>
+        <v>35.65164209310075</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>3.924950764383517</v>
+        <v>0.86347384551771</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>40.13313784885565</v>
+        <v>36.71891893858508</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>43.12307457281136</v>
+        <v>41.73613208729883</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>38.37997609118541</v>
+        <v>28.81755812920841</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>40.25643499477971</v>
+        <v>31.70538714554968</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>45.37880909220395</v>
+        <v>35.28636102896387</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>6.583380118360388</v>
+        <v>5.150500625780914</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>20.22749258308981</v>
+        <v>21.41669192307774</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>41.5984382829619</v>
+        <v>38.71278824204179</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>10.2557969192502</v>
+        <v>9.850472506771304</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>24.42825500795707</v>
+        <v>26.02247559824373</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>28.70140043512361</v>
+        <v>30.76537643456903</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>13.30726863415434</v>
+        <v>11.25924016193424</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>28.5078167679652</v>
+        <v>29.88990281849049</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>34.75550327656094</v>
+        <v>36.37479262083536</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>3.816055317462013</v>
+        <v>3.82739066398554</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>35.36290369372034</v>
+        <v>37.83868540973739</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>22.20163990602138</v>
+        <v>23.82927261417677</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>17.97524657498361</v>
+        <v>19.17453501529048</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>35.85757747638401</v>
+        <v>38.02921441136657</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>40.07042606245474</v>
+        <v>41.93065367875934</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>8.670967278936004</v>
+        <v>8.417188185137878</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>15.29448209294307</v>
+        <v>15.7612215244222</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>21.24263020252908</v>
+        <v>20.87479444559326</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>9.655785832711672</v>
+        <v>10.23922665519098</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>17.50029404172132</v>
+        <v>17.80458731960098</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>30.13184162192866</v>
+        <v>33.93368876321781</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>12.80121479953067</v>
+        <v>11.28019152542453</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>16.65141804864204</v>
+        <v>14.36126001270613</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>20.20512591490019</v>
+        <v>19.79794832030368</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>4.986656337254853</v>
+        <v>2.954783724789326</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>17.19348509472385</v>
+        <v>18.10891575911787</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>34.60585490190626</v>
+        <v>40.32233792242926</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>19.69111127176727</v>
+        <v>17.70959205471084</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>46.06430695518561</v>
+        <v>48.41587824983361</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>51.83323114936333</v>
+        <v>52.45825512468419</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>6.116544393727207</v>
+        <v>6.619118672219269</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>17.08189696490841</v>
+        <v>16.95383937593966</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>26.83200619918728</v>
+        <v>26.18239217183747</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>47.8974258118381</v>
+        <v>49.54445120816773</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>42.00174316029533</v>
+        <v>47.90729560367556</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>52.85377289328842</v>
+        <v>56.72893168454452</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>57.02451477667231</v>
+        <v>59.25803532609216</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>21.41266183627866</v>
+        <v>22.14947768253216</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>45.04829597854955</v>
+        <v>48.57984932161035</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>46.92966274993385</v>
+        <v>49.81421517917204</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.8015089028777</v>
+        <v>18.91102590413677</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.89831195168388</v>
+        <v>30.90748600338421</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>38.92451927636034</v>
+        <v>41.07816921062356</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>14.07540861134948</v>
+        <v>11.94745882712011</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>38.59313628103094</v>
+        <v>41.82617890753151</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>43.67878587342855</v>
+        <v>46.07412327070865</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>6.001185955159787</v>
+        <v>5.796960146992909</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>50.47231211009957</v>
+        <v>55.08119614214634</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>63.88247584992202</v>
+        <v>66.85313209896577</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>59.04496708103062</v>
+        <v>66.69377800554642</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>72.30975361798923</v>
+        <v>77.81574736337853</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>78.71755109640293</v>
+        <v>84.04768849447285</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>25.45080288344769</v>
+        <v>28.14555644199202</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>62.78518966598723</v>
+        <v>65.35225907930376</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>65.31198824812503</v>
+        <v>69.72525067860499</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>53.13636063129758</v>
+        <v>56.37684140147914</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>38.81350001001486</v>
+        <v>43.20985928584201</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>42.4961382436237</v>
+        <v>48.29711595968531</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>53.8657176978997</v>
+        <v>57.57134593471018</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>14.9788188269521</v>
+        <v>16.209824521988</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>42.53800488166725</v>
+        <v>46.87724069688905</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>15.04239509302483</v>
+        <v>14.76195356219582</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>28.65449841758909</v>
+        <v>30.13582430152886</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>38.55122980956716</v>
+        <v>40.83228147546925</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>13.23075865987242</v>
+        <v>11.28872202865291</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>38.12622751304959</v>
+        <v>39.65732827093368</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>46.47675210874601</v>
+        <v>49.49927892430284</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>8.313377308829367</v>
+        <v>7.473645785639373</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>51.72130558691087</v>
+        <v>57.81462540920475</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>69.31773424029734</v>
+        <v>72.98632695957747</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>62.02255745938182</v>
+        <v>67.94382119458004</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>69.29021164709744</v>
+        <v>75.03666015956296</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>80.20561930469289</v>
+        <v>86.05081105992056</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>15.90415224775994</v>
+        <v>17.61392657898535</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>55.46823546913942</v>
+        <v>61.96689327980279</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>64.69785811845766</v>
+        <v>73.28201066307194</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>45.34308125067801</v>
+        <v>50.88679144533822</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>23.70342105583354</v>
+        <v>25.81552239762585</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>30.1385496507537</v>
+        <v>33.00995873668681</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>37.24133097228129</v>
+        <v>44.43249497757993</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>10.23334209697133</v>
+        <v>10.71873784382467</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>39.42746369255625</v>
+        <v>45.03396775411453</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>43.76013662585257</v>
+        <v>48.6321570892979</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>11.68043938063509</v>
+        <v>10.91813106657373</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>27.96627679459714</v>
+        <v>29.00177536143326</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>42.26919375776947</v>
+        <v>44.66544184908116</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>14.70281719444776</v>
+        <v>12.5507984770321</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>34.47931473376048</v>
+        <v>36.83335888619285</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>49.27344757774345</v>
+        <v>52.25463963679927</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>3.400794923989636</v>
+        <v>4.524364074361024</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>43.84916918104425</v>
+        <v>48.56785278813383</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>68.12892252024919</v>
+        <v>72.88241808148089</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>49.54027911979369</v>
+        <v>53.28135759445081</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>62.13599189472048</v>
+        <v>69.2546322622037</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>82.29554187422333</v>
+        <v>88.95020772771602</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>10.44258935830575</v>
+        <v>10.52352212493216</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>48.64717303592306</v>
+        <v>49.26024225350497</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>66.63848216944038</v>
+        <v>72.18521433530216</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>16.45151804863243</v>
+        <v>9.815719550181079</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>15.79772230354048</v>
+        <v>7.980311019249868</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>22.66005063925589</v>
+        <v>18.62185617562093</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>12.456211397922</v>
+        <v>6.305200383108808</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>22.22029912414693</v>
+        <v>20.39431237271032</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>23.68561019502895</v>
+        <v>21.65197039758377</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>13.69617990706547</v>
+        <v>8.175079822981324</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>28.89459754483037</v>
+        <v>25.40918897683071</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.23899703383214</v>
+        <v>26.95700392639547</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>16.97844617458836</v>
+        <v>9.209424097560296</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>18.51192323619969</v>
+        <v>15.90928236373788</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>17.93522819883434</v>
+        <v>14.78171968765031</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>22.5739005335554</v>
+        <v>16.08167009553654</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>18.75671827070792</v>
+        <v>11.5814887836313</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>32.43323488414574</v>
+        <v>30.45284801930311</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>17.74949580800782</v>
+        <v>17.21892567644883</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>26.68465969173641</v>
+        <v>27.31130150737193</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>29.45961257878453</v>
+        <v>30.71808668587345</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>12.28943905591847</v>
+        <v>6.208004113412841</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>19.01825960423196</v>
+        <v>17.91295280913014</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>22.23018133197467</v>
+        <v>20.66228671627376</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>13.31764480202611</v>
+        <v>6.317265339988964</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>28.45752707356359</v>
+        <v>31.69677097652225</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>18.38124328964646</v>
+        <v>11.2338685187125</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>19.49042601245031</v>
+        <v>10.83068688405302</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>23.1852304118069</v>
+        <v>17.30753468570799</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>12.38716907645904</v>
+        <v>4.847511761210328</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>25.07463588388566</v>
+        <v>22.74366067746829</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>25.62572536256551</v>
+        <v>22.92345361303733</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>15.14256191866236</v>
+        <v>7.48955733977952</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>31.53701287277897</v>
+        <v>29.1059674359475</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>31.2048817501987</v>
+        <v>28.26951223551668</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>28.9776209155363</v>
+        <v>24.99325618148432</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>32.43786673888823</v>
+        <v>29.74945158731783</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>32.20570072186747</v>
+        <v>30.3073204632465</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>23.89494363964939</v>
+        <v>18.47359951315624</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>29.86127826807693</v>
+        <v>23.25046859733578</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>32.92243591247077</v>
+        <v>31.90641421212806</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>24.73819137783406</v>
+        <v>22.27401305864166</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>30.44039083721989</v>
+        <v>32.58583355391962</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>30.53888410054113</v>
+        <v>31.67962046850916</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>13.08015895745414</v>
+        <v>7.744529146430803</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>31.60044608882177</v>
+        <v>35.81128126867155</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>31.3417666709631</v>
+        <v>33.84302965351209</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>13.79868759243349</v>
+        <v>7.885521595131571</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>42.03819051533976</v>
+        <v>51.15685554699202</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>13.35562186475119</v>
+        <v>6.044772615258395</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>17.25226785206054</v>
+        <v>8.494884649245606</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>23.55894714224041</v>
+        <v>17.26694225425787</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>11.71794989288823</v>
+        <v>3.842824131882445</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>24.42783190943614</v>
+        <v>20.98830443355664</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>25.56973765091574</v>
+        <v>22.96362018564089</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>14.30361840714103</v>
+        <v>8.229558427798693</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>31.20337600653432</v>
+        <v>30.20336746382988</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>32.82118263002274</v>
+        <v>32.07416923620689</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>31.94768368652672</v>
+        <v>29.11163549209063</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>33.12286642985712</v>
+        <v>30.85964356743637</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>39.40940715074727</v>
+        <v>36.71957050373703</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>13.73491709617478</v>
+        <v>11.05282757071548</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>22.58702027845062</v>
+        <v>17.627530561087</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>28.83478430002431</v>
+        <v>27.45058190160583</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>20.2792825074408</v>
+        <v>18.56980708738323</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>29.09424416776391</v>
+        <v>31.41211176320929</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>29.731322819154</v>
+        <v>31.21621238134555</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>12.70835988738551</v>
+        <v>7.311900928527912</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.82593285744349</v>
+        <v>33.157937204893</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>30.80718899900181</v>
+        <v>34.71027182599042</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>15.16707048084275</v>
+        <v>9.949704600355947</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>41.91476800752068</v>
+        <v>51.48925160110384</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>11.89969446460146</v>
+        <v>3.427143031994508</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>14.34271048592209</v>
+        <v>4.853049825911434</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>21.78287901164764</v>
+        <v>17.13351005407641</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>11.70691694946377</v>
+        <v>3.535901673495886</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>23.12868393068099</v>
+        <v>20.85901215577066</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>27.07513158103708</v>
+        <v>25.49207864080803</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>11.61311117169112</v>
+        <v>2.386371415655063</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>28.10293563222754</v>
+        <v>25.47498288977153</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>32.17358980232218</v>
+        <v>31.32339199832988</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>30.39642794084726</v>
+        <v>24.72877160133221</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>31.68599689539866</v>
+        <v>27.62430420957249</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>36.78578687225277</v>
+        <v>34.4945932685803</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>11.31285647077622</v>
+        <v>5.938833792508479</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>18.43207255395507</v>
+        <v>11.80253332889822</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>32.03959768298198</v>
+        <v>31.99946633940988</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>17.34574192498393</v>
+        <v>14.38084279058645</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>28.23619162347336</v>
+        <v>29.98394978522214</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.65919414397526</v>
+        <v>31.256729376403</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>12.90497355962468</v>
+        <v>6.597282868590998</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>28.184526620905</v>
+        <v>31.45832930763241</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>29.64971258069721</v>
+        <v>31.80919741356728</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>12.73409368959313</v>
+        <v>5.174378733288719</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>36.86289938907746</v>
+        <v>44.07225840651864</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>31.25897861967319</v>
+        <v>33.86868034480237</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>24.98787404059205</v>
+        <v>24.8609765716425</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>36.11304747435809</v>
+        <v>42.91466890548501</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>36.34604341513204</v>
+        <v>42.10162858308716</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>18.57985992272138</v>
+        <v>16.21206342524392</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>25.86353984665053</v>
+        <v>26.99195134681081</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>30.82938813192278</v>
+        <v>32.62056326617576</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>20.00555366102146</v>
+        <v>18.01045989807252</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>25.96517467975492</v>
+        <v>25.54313400503058</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>33.91094550201811</v>
+        <v>39.84885939310287</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>12.1571696966557</v>
+        <v>5.955279428949755</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>17.45131440381654</v>
+        <v>16.24833194160558</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>22.58026917267753</v>
+        <v>22.14871551444841</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>13.12951099218386</v>
+        <v>7.012956077207875</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>26.92499416790864</v>
+        <v>32.6220010996982</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>40.09657826119259</v>
+        <v>48.92416411722783</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>27.55769936105296</v>
+        <v>27.21033018946805</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>41.64917909880711</v>
+        <v>49.99204179633706</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>44.55661137540167</v>
+        <v>53.6788535737978</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>16.8823852462791</v>
+        <v>13.30902572096925</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>25.87128883026466</v>
+        <v>30.00262469681301</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>33.06490089634723</v>
+        <v>37.96349742784607</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>43.4308026308255</v>
+        <v>51.18730038508603</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>42.65734195782458</v>
+        <v>51.57719279188466</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>45.69193647718662</v>
+        <v>57.35365351721397</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>46.80012725690446</v>
+        <v>55.91822581196577</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>27.22741260373834</v>
+        <v>28.67505654762477</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>43.97257824469391</v>
+        <v>53.30890023804402</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>43.42529680466839</v>
+        <v>51.25425677847577</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>25.47866883870577</v>
+        <v>23.29140075153475</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>13.32029053338406</v>
+        <v>7.895001477059708</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>37.97860656616494</v>
+        <v>45.82708056530127</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>40.12368386546632</v>
+        <v>45.48058261301449</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>14.20913640431541</v>
+        <v>9.28126374802588</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>49.65568430216543</v>
+        <v>62.54245003180745</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>53.51893896089517</v>
+        <v>66.78275716548774</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>51.53581392770454</v>
+        <v>66.09144228634381</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>57.30104772289941</v>
+        <v>73.4536791541792</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>59.44498528719262</v>
+        <v>75.72091847795792</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>30.16199064592726</v>
+        <v>32.11879269211396</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>55.62356341390974</v>
+        <v>71.17952658260987</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>55.64674723959276</v>
+        <v>70.55579819667273</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>45.94754356079275</v>
+        <v>55.1186719115756</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>41.32529349906623</v>
+        <v>49.59610078269861</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>43.05682987319489</v>
+        <v>52.41930161042227</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>46.06688171768586</v>
+        <v>55.67722010177705</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>21.76857886132124</v>
+        <v>22.48037607529448</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>41.69938155760624</v>
+        <v>50.89656325537305</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>43.12012242016114</v>
+        <v>50.44459404571774</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>20.04522271292186</v>
+        <v>17.9876114428441</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>30.5069622256784</v>
+        <v>32.43447170879318</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>36.9697710539083</v>
+        <v>42.34964205902535</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>12.4584718114943</v>
+        <v>6.370963564469719</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>36.60635307351097</v>
+        <v>44.06340514674552</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>38.59487410330655</v>
+        <v>46.2637360256219</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>14.75267238881217</v>
+        <v>9.930757859296063</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>50.2412461254978</v>
+        <v>64.56542601744565</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>55.42681866190317</v>
+        <v>70.69647044224257</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>53.43573907368419</v>
+        <v>68.53978945315237</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>57.91804843333681</v>
+        <v>74.72302200520693</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>60.7749874597269</v>
+        <v>78.34323227050501</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>20.59950679922545</v>
+        <v>22.47733919747306</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>55.14697024765461</v>
+        <v>71.71397941863162</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>57.23286685592185</v>
+        <v>74.27770936350142</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>40.98544694979981</v>
+        <v>49.34104816270317</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>31.28059778948913</v>
+        <v>35.27905854550125</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>34.66521650068894</v>
+        <v>40.05634972050554</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>36.66757562487814</v>
+        <v>43.34648885725849</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>18.82032883704364</v>
+        <v>16.69622744296342</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>38.5267559431462</v>
+        <v>46.7700063875634</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>39.85915814121867</v>
+        <v>47.11505076750493</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>18.38798597844531</v>
+        <v>15.07088849846311</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>30.51192274385604</v>
+        <v>33.61287662792056</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>38.31176085930316</v>
+        <v>45.83029041324393</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>13.25419504803202</v>
+        <v>7.859006876729975</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>35.51297755354896</v>
+        <v>43.58555480919753</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>39.24474386387271</v>
+        <v>47.61145250285709</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>12.68234947227011</v>
+        <v>7.850452167321386</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>48.55495279099711</v>
+        <v>61.27339771857223</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>54.91653356976684</v>
+        <v>71.21655851020142</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>51.5000523173052</v>
+        <v>63.56310975641789</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>58.68701354438507</v>
+        <v>76.37255285115415</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>62.13197968536591</v>
+        <v>81.80908716891548</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>17.98732219804001</v>
+        <v>17.73301504167996</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>54.94807257441219</v>
+        <v>69.18235885205232</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>58.1545066380553</v>
+        <v>75.71992532487366</v>
       </c>
     </row>
   </sheetData>
